--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -2,21 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55931CE4-2903-904D-9A67-DC688E5D7B1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5A7C2-B94C-3C46-A121-B275052057D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="7" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
     <sheet name="5.10.2021" sheetId="3" r:id="rId2"/>
+    <sheet name="5.17.2021" sheetId="4" r:id="rId3"/>
+    <sheet name="5.24.2021" sheetId="5" r:id="rId4"/>
+    <sheet name="5.31.2021" sheetId="6" r:id="rId5"/>
+    <sheet name="6.7.2021" sheetId="7" r:id="rId6"/>
+    <sheet name="6.14.2021" sheetId="8" r:id="rId7"/>
+    <sheet name="6.21.2021" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="69">
   <si>
     <t>Agent</t>
   </si>
@@ -230,13 +236,25 @@
   </si>
   <si>
     <t>Will R</t>
+  </si>
+  <si>
+    <t>pyr129</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>pyr137</t>
+  </si>
+  <si>
+    <t>Zach gartner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,8 +270,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +316,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -299,17 +337,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +674,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E152888-7F8E-0640-9B6A-5F3038A4F3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="419100"/>
+          <a:ext cx="3797300" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFD59CA-2F9A-2B4C-8F19-BCDAF3401DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="876300"/>
+          <a:ext cx="3898900" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E839A02-6F93-EB44-8A68-DD60FC37BB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="419100"/>
+          <a:ext cx="4013200" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,6 +1120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481B36D0-AF78-1348-AA28-3F01FE90049F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1003,10 +1500,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994A5035-B126-6046-BD7A-B1C1B4BCF733}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B4:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,4 +2447,2044 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA158039-6AE9-E64B-8C97-EB5910562C15}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B3:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28521CCA-030E-A643-A169-4F853A8C7D5D}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:F24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="18">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="26">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="29">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="31">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="31">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="31">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="37">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="37">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="40">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="48">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5804F137-2093-3642-A9CA-9FEA8E9A3446}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="C3:G22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="31">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="31">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="37">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="37">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="37">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="43">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="48">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0178703-D7AD-0E4D-A86A-5464F83E602D}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="C3:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="18">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="31">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="37">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="40">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="52">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="48">
+        <v>1728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78284CEB-B842-8345-8F75-E4D010288A82}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B3:F23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="50">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="31">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="31">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="37">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="37">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="37">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="48">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706CE13-A7FD-5F40-BB49-34B8E90B07DD}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="31">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="23">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="37">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="40">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="58">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5A7C2-B94C-3C46-A121-B275052057D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB05A0-AE91-F74E-B405-FA47F671615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="7" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="9" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="6.7.2021" sheetId="7" r:id="rId6"/>
     <sheet name="6.14.2021" sheetId="8" r:id="rId7"/>
     <sheet name="6.21.2021" sheetId="9" r:id="rId8"/>
+    <sheet name="6.28.2021" sheetId="10" r:id="rId9"/>
+    <sheet name="7.5.2021" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="71">
   <si>
     <t>Agent</t>
   </si>
@@ -248,6 +250,12 @@
   </si>
   <si>
     <t>Zach gartner</t>
+  </si>
+  <si>
+    <t>pyr110</t>
+  </si>
+  <si>
+    <t>Brando</t>
   </si>
 </sst>
 </file>
@@ -812,6 +820,104 @@
         <a:xfrm>
           <a:off x="5943600" y="419100"/>
           <a:ext cx="4013200" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2726B56-8F51-8843-8C03-F6E8E491B578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="203200"/>
+          <a:ext cx="3822700" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2175D8A-719B-B344-B112-7F0F952137BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="584200"/>
+          <a:ext cx="3886200" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,6 +1604,390 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFA8127-6780-EE4F-8854-49952B86BD46}">
+  <dimension ref="B3:F29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="26">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="31">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="31">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="31">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="31">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="37">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="37">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="37">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="43">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>11638+1200</f>
+        <v>12838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994A5035-B126-6046-BD7A-B1C1B4BCF733}">
   <sheetPr codeName="Sheet2"/>
@@ -4217,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706CE13-A7FD-5F40-BB49-34B8E90B07DD}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4487,4 +4977,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A868C81-7A37-E74B-BB99-366FA70D3832}">
+  <dimension ref="B1:J21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="18">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="31">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="37">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="40">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="48">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>-100-33-52+60-75-50-25+87</f>
+        <v>-188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB05A0-AE91-F74E-B405-FA47F671615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30FF5E8-E22E-F44C-93A6-7F886AB498EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="9" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="10" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="6.21.2021" sheetId="9" r:id="rId8"/>
     <sheet name="6.28.2021" sheetId="10" r:id="rId9"/>
     <sheet name="7.5.2021" sheetId="12" r:id="rId10"/>
+    <sheet name="7.12.2021" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="71">
   <si>
     <t>Agent</t>
   </si>
@@ -929,6 +930,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F302A0B-4B2F-2F4F-8847-F5B8C471A9BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="584200"/>
+          <a:ext cx="3848100" cy="2603500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D663DCE-A97A-3043-BEC9-5EA20D4A99E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11176000" y="622300"/>
+          <a:ext cx="2362200" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1608,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFA8127-6780-EE4F-8854-49952B86BD46}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,6 +2074,333 @@
       <c r="C29">
         <f>11638+1200</f>
         <v>12838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB102C1-41EB-D245-9DBC-5946D19CCEA9}">
+  <dimension ref="B3:F21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="31">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1017.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="48">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30FF5E8-E22E-F44C-93A6-7F886AB498EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514DC72-D27D-854F-B26D-E1A1739A85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="10" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="6.28.2021" sheetId="10" r:id="rId9"/>
     <sheet name="7.5.2021" sheetId="12" r:id="rId10"/>
     <sheet name="7.12.2021" sheetId="13" r:id="rId11"/>
+    <sheet name="7.19.2021" sheetId="14" r:id="rId12"/>
+    <sheet name="7.26.2021" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="78">
   <si>
     <t>Agent</t>
   </si>
@@ -257,13 +259,34 @@
   </si>
   <si>
     <t>Brando</t>
+  </si>
+  <si>
+    <t>pyr128</t>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <t>  Num. Players</t>
+  </si>
+  <si>
+    <t>  Amount</t>
+  </si>
+  <si>
+    <t>  Final Balance</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Pays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,8 +310,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC70000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF111111"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +386,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE4146"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -604,11 +659,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -668,12 +801,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCE4146"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1023,6 +1184,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A11F832-71ED-2840-AFB8-74FC64609871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5994400" y="571500"/>
+          <a:ext cx="3886200" cy="2616200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1327,7 +1537,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="7.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
@@ -1336,7 +1546,7 @@
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1387,7 +1597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1614,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1631,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1682,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1750,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1574,7 +1784,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1801,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
@@ -1625,7 +1835,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1642,7 +1852,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1659,7 +1869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1676,7 +1886,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1706,14 +1916,14 @@
       <selection activeCell="B22" sqref="B22:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="17" thickBot="1">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1991,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +2008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +2025,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +2042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +2059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="30" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +2076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
@@ -1883,7 +2093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
@@ -1900,7 +2110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="17" thickBot="1">
       <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1917,7 +2127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +2144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="36" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +2161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
@@ -1985,7 +2195,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="36" t="s">
         <v>27</v>
       </c>
@@ -2002,7 +2212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="17" thickBot="1">
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="41" t="s">
         <v>40</v>
       </c>
@@ -2036,7 +2246,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="44" t="s">
         <v>40</v>
       </c>
@@ -2053,7 +2263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="17" thickBot="1">
       <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
@@ -2070,7 +2280,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="C29">
         <f>11638+1200</f>
         <v>12838</v>
@@ -2084,20 +2294,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB102C1-41EB-D245-9DBC-5946D19CCEA9}">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2341,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="17" thickBot="1">
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
@@ -2199,7 +2409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
@@ -2216,7 +2426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="17" thickBot="1">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -2233,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="36" t="s">
         <v>27</v>
       </c>
@@ -2267,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="36" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
@@ -2301,7 +2511,7 @@
         <v>1017.9</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
@@ -2318,7 +2528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="36" t="s">
         <v>27</v>
       </c>
@@ -2335,7 +2545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="17" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
@@ -2352,7 +2562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="41" t="s">
         <v>40</v>
       </c>
@@ -2369,7 +2579,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="44" t="s">
         <v>40</v>
       </c>
@@ -2386,7 +2596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="46" t="s">
         <v>40</v>
       </c>
@@ -2401,11 +2611,586 @@
       </c>
       <c r="F21" s="48">
         <v>896</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="K23" s="59">
+        <v>250000</v>
+      </c>
+      <c r="L23">
+        <f>K23/1000</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="K24" s="59"/>
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="K25" s="59"/>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="K26" s="59"/>
+      <c r="N26">
+        <f>SUM(L23:L25)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="K27" s="59"/>
+      <c r="N27">
+        <f>N26/171000</f>
+        <v>1.695906432748538E-3</v>
+      </c>
+      <c r="O27">
+        <f>N27*35000</f>
+        <v>59.356725146198833</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="O28">
+        <f>O27*500</f>
+        <v>29678.362573099417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A84B892-41B3-6744-87FC-600D44CF1E01}">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="29">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17" thickBot="1">
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="37">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="37">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17" thickBot="1">
+      <c r="B14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="40">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17" thickBot="1">
+      <c r="B15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="62">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431077AF-C2D7-1A40-B8BE-C705F507615B}">
+  <dimension ref="B3:P11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="17" thickBot="1">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+    </row>
+    <row r="4" spans="2:16" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="65"/>
+      <c r="H4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="66"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="65"/>
+    </row>
+    <row r="5" spans="2:16" ht="17">
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="18">
+        <v>130</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="H5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4</v>
+      </c>
+      <c r="J5" s="17">
+        <v>596</v>
+      </c>
+      <c r="K5" s="18">
+        <f>J9/2</f>
+        <v>444</v>
+      </c>
+      <c r="L5" s="67"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65"/>
+    </row>
+    <row r="6" spans="2:16" ht="18" thickBot="1">
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="25">
+        <v>3</v>
+      </c>
+      <c r="J6" s="25">
+        <v>292</v>
+      </c>
+      <c r="K6" s="26">
+        <v>444</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="65"/>
+    </row>
+    <row r="7" spans="2:16" ht="18" thickBot="1">
+      <c r="B7" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="72">
+        <v>150</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="74">
+        <v>0</v>
+      </c>
+      <c r="J7" s="74">
+        <v>0</v>
+      </c>
+      <c r="K7" s="77">
+        <v>0</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="65"/>
+    </row>
+    <row r="8" spans="2:16" ht="18" thickBot="1">
+      <c r="B8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="29">
+        <v>89</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="76">
+        <v>0</v>
+      </c>
+      <c r="J8" s="76">
+        <v>0</v>
+      </c>
+      <c r="K8" s="78">
+        <v>0</v>
+      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="65">
+        <f>292+152</f>
+        <v>444</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="65"/>
+    </row>
+    <row r="9" spans="2:16" ht="20" thickBot="1">
+      <c r="B9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31">
+        <v>25</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="13">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13">
+        <v>888</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row r="10" spans="2:16" ht="18" thickBot="1">
+      <c r="B10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="31">
+        <v>10</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="81">
+        <v>152</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="65"/>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1">
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="23">
+        <v>700</v>
+      </c>
+      <c r="O11">
+        <f>596-444</f>
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2418,12 +3203,12 @@
       <selection activeCell="B4" sqref="B4:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2743,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2815,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2887,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2923,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2959,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -3031,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -3067,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
@@ -3103,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3139,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -3175,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3211,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
@@ -3283,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
@@ -3319,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
@@ -3369,12 +4154,12 @@
       <selection activeCell="B3" sqref="B3:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3408,7 +4193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +4210,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +4227,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3459,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3476,7 +4261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3493,7 +4278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +4295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3527,7 +4312,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -3544,7 +4329,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3561,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3578,7 +4363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
@@ -3595,7 +4380,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3612,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -3629,7 +4414,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -3646,7 +4431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +4448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
@@ -3680,7 +4465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
@@ -3697,7 +4482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3714,7 +4499,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
@@ -3745,13 +4530,13 @@
       <selection activeCell="B3" sqref="B3:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="17" thickBot="1"/>
+    <row r="3" spans="2:6" ht="20" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +4553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +4570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
@@ -3802,7 +4587,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -3819,7 +4604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="17" thickBot="1">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +4621,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
@@ -3853,7 +4638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
@@ -3870,7 +4655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
@@ -3887,7 +4672,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -3904,7 +4689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="30" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +4706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="17" thickBot="1">
       <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
@@ -3938,7 +4723,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="33" t="s">
         <v>27</v>
       </c>
@@ -3955,7 +4740,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
@@ -3972,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
@@ -3989,7 +4774,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="36" t="s">
         <v>27</v>
       </c>
@@ -4006,7 +4791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
@@ -4023,7 +4808,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="17" thickBot="1">
       <c r="B19" s="38" t="s">
         <v>27</v>
       </c>
@@ -4040,7 +4825,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="41" t="s">
         <v>40</v>
       </c>
@@ -4057,7 +4842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="44" t="s">
         <v>40</v>
       </c>
@@ -4074,7 +4859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="44" t="s">
         <v>40</v>
       </c>
@@ -4091,7 +4876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="44" t="s">
         <v>40</v>
       </c>
@@ -4108,7 +4893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="17" thickBot="1">
       <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
@@ -4140,13 +4925,13 @@
       <selection activeCell="C4" sqref="C4:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="17" thickBot="1"/>
+    <row r="4" spans="3:7" ht="20" thickBot="1">
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7">
       <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
@@ -4197,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
@@ -4214,7 +4999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7">
       <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +5016,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="17" thickBot="1">
       <c r="C9" s="24" t="s">
         <v>5</v>
       </c>
@@ -4248,7 +5033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +5050,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7">
       <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +5067,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="17" thickBot="1">
       <c r="C12" s="30" t="s">
         <v>17</v>
       </c>
@@ -4299,7 +5084,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7">
       <c r="C13" s="33" t="s">
         <v>27</v>
       </c>
@@ -4316,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:7">
       <c r="C14" s="36" t="s">
         <v>27</v>
       </c>
@@ -4333,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:7">
       <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
@@ -4350,7 +5135,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:7">
       <c r="C16" s="36" t="s">
         <v>27</v>
       </c>
@@ -4367,7 +5152,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7">
       <c r="C17" s="36" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +5169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="17" thickBot="1">
       <c r="C18" s="36" t="s">
         <v>27</v>
       </c>
@@ -4401,7 +5186,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7">
       <c r="C19" s="41" t="s">
         <v>40</v>
       </c>
@@ -4418,7 +5203,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7">
       <c r="C20" s="44" t="s">
         <v>40</v>
       </c>
@@ -4435,7 +5220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7">
       <c r="C21" s="44" t="s">
         <v>40</v>
       </c>
@@ -4452,7 +5237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="17" thickBot="1">
       <c r="C22" s="46" t="s">
         <v>40</v>
       </c>
@@ -4483,10 +5268,10 @@
       <selection activeCell="C4" sqref="C4:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="17" thickBot="1"/>
+    <row r="4" spans="3:7" ht="20" thickBot="1">
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +5288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +5305,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" ht="17" thickBot="1">
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +5322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
@@ -4554,7 +5339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7">
       <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +5356,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7">
       <c r="C9" s="30" t="s">
         <v>17</v>
       </c>
@@ -4588,7 +5373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="17" thickBot="1">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -4605,7 +5390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7">
       <c r="C11" s="33" t="s">
         <v>27</v>
       </c>
@@ -4622,7 +5407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7">
       <c r="C12" s="36" t="s">
         <v>27</v>
       </c>
@@ -4639,7 +5424,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7">
       <c r="C13" s="36" t="s">
         <v>27</v>
       </c>
@@ -4656,7 +5441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:7">
       <c r="C14" s="36" t="s">
         <v>27</v>
       </c>
@@ -4673,7 +5458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:7">
       <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
@@ -4690,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:7">
       <c r="C16" s="36" t="s">
         <v>27</v>
       </c>
@@ -4707,7 +5492,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="17" thickBot="1">
       <c r="C17" s="38" t="s">
         <v>27</v>
       </c>
@@ -4724,7 +5509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7">
       <c r="C18" s="51" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +5526,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="17" thickBot="1">
       <c r="C19" s="46" t="s">
         <v>40</v>
       </c>
@@ -4772,13 +5557,13 @@
       <selection activeCell="B22" sqref="B22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
       <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +5580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4812,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -4829,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +5631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="17" thickBot="1">
       <c r="B8" s="24" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +5648,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="49" t="s">
         <v>17</v>
       </c>
@@ -4880,7 +5665,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
@@ -4897,7 +5682,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -4914,7 +5699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="30" t="s">
         <v>17</v>
       </c>
@@ -4931,7 +5716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
@@ -4948,7 +5733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="17" thickBot="1">
       <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
@@ -4965,7 +5750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
@@ -4982,7 +5767,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
@@ -4999,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="36" t="s">
         <v>27</v>
       </c>
@@ -5016,7 +5801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
@@ -5033,7 +5818,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
@@ -5050,7 +5835,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="36" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5852,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="17" thickBot="1">
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
@@ -5084,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="51" t="s">
         <v>40</v>
       </c>
@@ -5101,7 +5886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="17" thickBot="1">
       <c r="B23" s="46" t="s">
         <v>40</v>
       </c>
@@ -5132,14 +5917,14 @@
       <selection activeCell="B3" sqref="B3:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="17" thickBot="1"/>
+    <row r="3" spans="2:6" ht="20" thickBot="1">
       <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
@@ -5173,7 +5958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="17" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
@@ -5190,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
@@ -5207,7 +5992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
@@ -5224,7 +6009,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
@@ -5241,7 +6026,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
@@ -5258,7 +6043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="30" t="s">
         <v>17</v>
       </c>
@@ -5275,7 +6060,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="17" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
@@ -5292,7 +6077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
@@ -5309,7 +6094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="36" t="s">
         <v>27</v>
       </c>
@@ -5326,7 +6111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="36" t="s">
         <v>27</v>
       </c>
@@ -5343,7 +6128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
@@ -5360,7 +6145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="17" thickBot="1">
       <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
@@ -5377,7 +6162,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="17" thickBot="1">
       <c r="B17" s="56" t="s">
         <v>40</v>
       </c>
@@ -5408,14 +6193,14 @@
       <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="17" thickBot="1"/>
+    <row r="2" spans="2:6" ht="20" thickBot="1">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +6217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
@@ -5449,7 +6234,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="17" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
@@ -5466,7 +6251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
@@ -5483,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -5500,7 +6285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
@@ -5517,7 +6302,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
@@ -5534,7 +6319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +6336,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="17" thickBot="1">
       <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
@@ -5568,7 +6353,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="33" t="s">
         <v>27</v>
       </c>
@@ -5585,7 +6370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="36" t="s">
         <v>27</v>
       </c>
@@ -5602,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="36" t="s">
         <v>27</v>
       </c>
@@ -5619,7 +6404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="36" t="s">
         <v>27</v>
       </c>
@@ -5636,7 +6421,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
@@ -5653,7 +6438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="17" thickBot="1">
       <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
@@ -5670,7 +6455,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="41" t="s">
         <v>40</v>
       </c>
@@ -5687,7 +6472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="46" t="s">
         <v>40</v>
       </c>
@@ -5704,7 +6489,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="J21">
         <f>-100-33-52+60-75-50-25+87</f>
         <v>-188</v>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514DC72-D27D-854F-B26D-E1A1739A85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2169A-D953-E346-A03A-C09E0A7B7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="15" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <sheet name="7.12.2021" sheetId="13" r:id="rId11"/>
     <sheet name="7.19.2021" sheetId="14" r:id="rId12"/>
     <sheet name="7.26.2021" sheetId="15" r:id="rId13"/>
+    <sheet name="8.02.2021" sheetId="17" r:id="rId14"/>
+    <sheet name="8.09.2021" sheetId="19" r:id="rId15"/>
+    <sheet name="8.26.2021" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet6" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="109">
   <si>
     <t>Agent</t>
   </si>
@@ -280,13 +284,106 @@
   </si>
   <si>
     <t>Pays</t>
+  </si>
+  <si>
+    <t>Agent	Action	Player	Name	Amount</t>
+  </si>
+  <si>
+    <t>pyr135</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>pyr130</t>
+  </si>
+  <si>
+    <t>Christian # 3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>Trev -&gt; 237 -&gt; Orso</t>
+  </si>
+  <si>
+    <t>Dro -&gt; 237 Orso</t>
+  </si>
+  <si>
+    <t>Gabe -&gt; 67 -&gt; Orso</t>
+  </si>
+  <si>
+    <t>Trev -&gt; Orso</t>
+  </si>
+  <si>
+    <t>Dro -&gt; Orso</t>
+  </si>
+  <si>
+    <t>Gabe -&gt; Orso</t>
+  </si>
+  <si>
+    <t>Gabe	Pay	pyr104	Eric	15</t>
+  </si>
+  <si>
+    <t>Gabe	Pay	pyr115	Tim	3</t>
+  </si>
+  <si>
+    <t>Gabe	Request	pyr102	James Mendel	37</t>
+  </si>
+  <si>
+    <t>Gabe	Request	pyr136	Mark	53</t>
+  </si>
+  <si>
+    <t>Gabe	Request	pyr137	Zach gartner	150</t>
+  </si>
+  <si>
+    <t>Orso	Pay	pyr107	Christian	326</t>
+  </si>
+  <si>
+    <t>Orso	Pay	pyr130	Christian # 3	948</t>
+  </si>
+  <si>
+    <t>Orso	Request	pyr114	Kyle Beta	13</t>
+  </si>
+  <si>
+    <t>Orso	Request	pyr118	Christian #1	10</t>
+  </si>
+  <si>
+    <t>Orso	Request	pyr123	Christian #2	201</t>
+  </si>
+  <si>
+    <t>Orso	Request	pyr128	Gz	700</t>
+  </si>
+  <si>
+    <t>Trev	Request	pyr125	Casey Grieves	2</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Christian #4</t>
+  </si>
+  <si>
+    <t>Orso -&gt; Trev</t>
+  </si>
+  <si>
+    <t>Orso -&gt; Dro</t>
+  </si>
+  <si>
+    <t>Orso -&gt; Gabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,8 +433,14 @@
       <color rgb="FF111111"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +495,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF89090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -741,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -824,6 +945,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,6 +980,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF89090"/>
       <color rgb="FFCE4146"/>
     </mruColors>
   </colors>
@@ -884,6 +1033,54 @@
         <a:xfrm>
           <a:off x="5969000" y="419100"/>
           <a:ext cx="3797300" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97A5D13-F01D-3747-BCBF-061B52B100B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="19553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="1003300"/>
+          <a:ext cx="3924300" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,6 +1430,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15F4C6A-ECD3-A547-9828-A918522B1710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2171700"/>
+          <a:ext cx="4051300" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2336AE-A5A8-1340-A11B-E38A55EAA212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="2997200"/>
+          <a:ext cx="4178300" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2669,7 +2964,7 @@
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F15"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2890,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431077AF-C2D7-1A40-B8BE-C705F507615B}">
-  <dimension ref="B3:P11"/>
+  <dimension ref="B3:AF11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2904,7 +3199,7 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="17" thickBot="1">
+    <row r="3" spans="2:32" ht="17" thickBot="1">
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -2921,7 +3216,7 @@
       <c r="O3" s="63"/>
       <c r="P3" s="63"/>
     </row>
-    <row r="4" spans="2:16" ht="20" thickBot="1">
+    <row r="4" spans="2:32" ht="20" thickBot="1">
       <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
@@ -2955,8 +3250,20 @@
       <c r="N4" s="65"/>
       <c r="O4" s="66"/>
       <c r="P4" s="65"/>
-    </row>
-    <row r="5" spans="2:16" ht="17">
+      <c r="AC4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="17">
       <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2991,8 +3298,21 @@
       <c r="N5" s="65"/>
       <c r="O5" s="67"/>
       <c r="P5" s="65"/>
-    </row>
-    <row r="6" spans="2:16" ht="18" thickBot="1">
+      <c r="AC5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>596</v>
+      </c>
+      <c r="AF5" s="18">
+        <f>AE9/2</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="18" thickBot="1">
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
@@ -3026,8 +3346,20 @@
       <c r="N6" s="65"/>
       <c r="O6" s="66"/>
       <c r="P6" s="65"/>
-    </row>
-    <row r="7" spans="2:16" ht="18" thickBot="1">
+      <c r="AC6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>292</v>
+      </c>
+      <c r="AF6" s="26">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="18" thickBot="1">
       <c r="B7" s="70" t="s">
         <v>17</v>
       </c>
@@ -3061,8 +3393,20 @@
       <c r="N7" s="65"/>
       <c r="O7" s="67"/>
       <c r="P7" s="65"/>
-    </row>
-    <row r="8" spans="2:16" ht="18" thickBot="1">
+      <c r="AC7" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="74">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="74">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="18" thickBot="1">
       <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
@@ -3099,8 +3443,20 @@
       </c>
       <c r="O8" s="66"/>
       <c r="P8" s="65"/>
-    </row>
-    <row r="9" spans="2:16" ht="20" thickBot="1">
+      <c r="AC8" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="76">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="76">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" ht="20" thickBot="1">
       <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
@@ -3132,8 +3488,18 @@
       <c r="N9" s="65"/>
       <c r="O9" s="66"/>
       <c r="P9" s="65"/>
-    </row>
-    <row r="10" spans="2:16" ht="18" thickBot="1">
+      <c r="AC9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>888</v>
+      </c>
+      <c r="AF9" s="14"/>
+    </row>
+    <row r="10" spans="2:32" ht="18" thickBot="1">
       <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
@@ -3167,8 +3533,20 @@
       <c r="N10" s="65"/>
       <c r="O10" s="66"/>
       <c r="P10" s="65"/>
-    </row>
-    <row r="11" spans="2:16" ht="17" thickBot="1">
+      <c r="AC10" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE10" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF10" s="81">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="17" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
@@ -3187,6 +3565,1269 @@
       <c r="O11">
         <f>596-444</f>
         <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525B52A0-0A04-364D-86AF-0A321AD23613}">
+  <dimension ref="C2:M18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="17" thickBot="1"/>
+    <row r="3" spans="3:13" ht="20" thickBot="1">
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="20" thickBot="1">
+      <c r="C4" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="89">
+        <v>195</v>
+      </c>
+      <c r="I4">
+        <f>IF(F4="Pay",G4*-1,G4)</f>
+        <v>-195</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="92">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I15" si="0">IF(F5="Pay",G5*-1,G5)</f>
+        <v>40</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="17">
+        <f>SUMIFS($I$4:$I$15,$C$4:$C$15,K5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <f>$L$9/4</f>
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="92">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:L8" si="1">SUMIFS($I$4:$I$15,$C$4:$C$15,K6)</f>
+        <v>-170</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M8" si="2">$L$9/4</f>
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="92">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="76">
+        <f t="shared" si="1"/>
+        <v>-778</v>
+      </c>
+      <c r="M7" s="76">
+        <f t="shared" si="2"/>
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="17" thickBot="1">
+      <c r="C8" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="95">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" si="2"/>
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="20" thickBot="1">
+      <c r="C9" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="101">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="13">
+        <f>SUM(L5:L8)</f>
+        <v>-948</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="3:13" ht="17" thickBot="1">
+      <c r="C10" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="104">
+        <v>111</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="20" thickBot="1">
+      <c r="C11" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="104">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-76</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="104">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="104">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-73</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="37">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="17" thickBot="1">
+      <c r="C14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="107">
+        <v>528</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-528</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="17" thickBot="1">
+      <c r="C15" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="98">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417C0537-B0F4-B041-8BBC-89CDD0DD62B5}">
+  <dimension ref="C2:M25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="17" thickBot="1"/>
+    <row r="3" spans="3:13" ht="20" thickBot="1">
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="20" thickBot="1">
+      <c r="C4" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="89">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <f>IF(F4="Pay",G4*-1,G4)</f>
+        <v>37</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="92">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I15" si="0">IF(F5="Pay",G5*-1,G5)</f>
+        <v>-15</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="17">
+        <f>SUMIFS($I$4:$I$15,$C$4:$C$15,K5)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="17">
+        <f>$L$9/4</f>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="92">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:L8" si="1">SUMIFS($I$4:$I$15,$C$4:$C$15,K6)</f>
+        <v>222</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M8" si="2">$L$9/4</f>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="92">
+        <v>53</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="76">
+        <f t="shared" si="1"/>
+        <v>-350</v>
+      </c>
+      <c r="M7" s="76">
+        <f t="shared" si="2"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="17" thickBot="1">
+      <c r="C8" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="95">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K8" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" si="2"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="20" thickBot="1">
+      <c r="C9" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="101">
+        <v>326</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-326</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="13">
+        <f>SUM(L5:L8)</f>
+        <v>-126</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="3:13" ht="17" thickBot="1">
+      <c r="C10" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="104">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="20" thickBot="1">
+      <c r="C11" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="104">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="104">
+        <v>201</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="35">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="104">
+        <v>700</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="37">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="17" thickBot="1">
+      <c r="C14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="107">
+        <v>948</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-948</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="40">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="17" thickBot="1">
+      <c r="C15" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="98">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24">
+        <f>L6-L14</f>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25">
+        <f>L7+SUM(L12:L14)</f>
+        <v>-31.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B0160-7341-8448-B42A-45EB86B7BC5D}">
+  <dimension ref="B3:L17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="17" thickBot="1"/>
+    <row r="4" spans="2:12" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="89">
+        <v>261</v>
+      </c>
+      <c r="H5">
+        <f>IF(E5="Pay",F5*-1,F5)</f>
+        <v>261</v>
+      </c>
+      <c r="J5" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="108">
+        <f>SUMIFS($H$5:$H$17,$B$5:$B$17,J5)</f>
+        <v>97</v>
+      </c>
+      <c r="L5" s="108">
+        <f>$K$9/4</f>
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="92">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H17" si="0">IF(E6="Pay",F6*-1,F6)</f>
+        <v>-9</v>
+      </c>
+      <c r="J6" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="108">
+        <f t="shared" ref="K6:K8" si="1">SUMIFS($H$5:$H$17,$B$5:$B$17,J6)</f>
+        <v>249</v>
+      </c>
+      <c r="L6" s="108">
+        <f t="shared" ref="L6:L8" si="2">$K$9/4</f>
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="92">
+        <v>133</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-133</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="108">
+        <f t="shared" si="1"/>
+        <v>1199</v>
+      </c>
+      <c r="L7" s="108">
+        <f t="shared" si="2"/>
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="92">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J8" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="108">
+        <f t="shared" si="2"/>
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="20" thickBot="1">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="92">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="83">
+        <f>SUM(K5:K8)</f>
+        <v>1545</v>
+      </c>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="92">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1">
+      <c r="B11" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="95">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1">
+      <c r="B12" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="104">
+        <v>456</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="20" thickBot="1">
+      <c r="B13" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="104">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="104">
+        <v>414</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="35">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="104">
+        <v>255</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="37">
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="17" thickBot="1">
+      <c r="B16" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="107">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="40">
+        <v>137.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1">
+      <c r="B17" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="98">
+        <v>97</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810319B4-4FDB-CD48-A0E5-7ECE97086BE1}">
+  <dimension ref="B4:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5554,7 +7195,7 @@
   <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F23"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2169A-D953-E346-A03A-C09E0A7B7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD9D91E-D76A-4A4B-8B98-EDD8B4C898E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="15" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="16" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="7.26.2021" sheetId="15" r:id="rId13"/>
     <sheet name="8.02.2021" sheetId="17" r:id="rId14"/>
     <sheet name="8.09.2021" sheetId="19" r:id="rId15"/>
-    <sheet name="8.26.2021" sheetId="20" r:id="rId16"/>
-    <sheet name="Sheet6" sheetId="18" r:id="rId17"/>
+    <sheet name="8.17.2021" sheetId="20" r:id="rId16"/>
+    <sheet name="8.23.2021" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet6" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="115">
   <si>
     <t>Agent</t>
   </si>
@@ -377,6 +378,24 @@
   </si>
   <si>
     <t>Orso -&gt; Gabe</t>
+  </si>
+  <si>
+    <t>pyr138</t>
+  </si>
+  <si>
+    <t>Kaz</t>
+  </si>
+  <si>
+    <t>pyr113</t>
+  </si>
+  <si>
+    <t>Xavi Marcos</t>
+  </si>
+  <si>
+    <t>pyr116</t>
+  </si>
+  <si>
+    <t>stew</t>
   </si>
 </sst>
 </file>
@@ -1081,6 +1100,55 @@
         <a:xfrm>
           <a:off x="10477500" y="1003300"/>
           <a:ext cx="3924300" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36EBC41-B237-E348-BFF4-C88BA2AA35BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="571500"/>
+          <a:ext cx="3898900" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2208,7 +2276,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F24"/>
+      <selection activeCell="B4" sqref="B4:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4357,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B0160-7341-8448-B42A-45EB86B7BC5D}">
   <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -4756,6 +4824,370 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565C0FB-C7D8-1441-B480-875D84123266}">
+  <dimension ref="B3:O23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" thickBot="1">
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="31">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="31">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="31">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <f>270-125</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="17" thickBot="1">
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="17" thickBot="1">
+      <c r="B21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="17" thickBot="1">
+      <c r="B23" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="48">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810319B4-4FDB-CD48-A0E5-7ECE97086BE1}">
   <dimension ref="B4:B16"/>
   <sheetViews>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD9D91E-D76A-4A4B-8B98-EDD8B4C898E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40109B0-B9A5-5F44-834C-1302E3FEFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="16" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="19" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <sheet name="8.09.2021" sheetId="19" r:id="rId15"/>
     <sheet name="8.17.2021" sheetId="20" r:id="rId16"/>
     <sheet name="8.23.2021" sheetId="21" r:id="rId17"/>
-    <sheet name="Sheet6" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet6" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="8.30.2021" sheetId="22" r:id="rId19"/>
+    <sheet name="9.6.2021" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="125">
   <si>
     <t>Agent</t>
   </si>
@@ -396,6 +398,36 @@
   </si>
   <si>
     <t>stew</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>pyr120</t>
+  </si>
+  <si>
+    <t>Garett Pool</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>Sly</t>
+  </si>
+  <si>
+    <t>pyr124</t>
+  </si>
+  <si>
+    <t>Andres Cartaya</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Christian #5</t>
+  </si>
+  <si>
+    <t>Howard</t>
   </si>
 </sst>
 </file>
@@ -459,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +561,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -991,6 +1035,33 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,6 +1220,104 @@
         <a:xfrm>
           <a:off x="5918200" y="571500"/>
           <a:ext cx="3898900" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E576495-A6D6-F348-A2ED-94AC6FEADE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="571500"/>
+          <a:ext cx="4203700" cy="2578100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBA1ABD-1803-1748-99A5-4ECD62594729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="609600"/>
+          <a:ext cx="3771900" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4827,7 +4996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565C0FB-C7D8-1441-B480-875D84123266}">
   <dimension ref="B3:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -5264,6 +5433,469 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB2D427-CF18-C64C-9A65-019ED7DC1AF1}">
+  <dimension ref="B3:F29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="129">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="132">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="111">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="92">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="92">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="92">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17" thickBot="1">
+      <c r="B15" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="114">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="101">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="104">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="104">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="104">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="104">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17" thickBot="1">
+      <c r="B25" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="117">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="121">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="123">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="123">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17" thickBot="1">
+      <c r="B29" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="126">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6215,6 +6847,539 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B773D04-A0CE-7441-B77B-8827FB176F44}">
+  <dimension ref="B3:F33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="132">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="92">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="92">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17" thickBot="1">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="101">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="104">
+        <v>1584.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="104">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="104">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="104">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="104">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="104">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="104">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17" thickBot="1">
+      <c r="B26" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="107">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="135">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="123">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17" thickBot="1">
+      <c r="B33" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="126">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F33">
+    <sortCondition ref="B10:B33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40109B0-B9A5-5F44-834C-1302E3FEFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551D394-0C6B-5E47-9F1A-D6F6912D29DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="19" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="20" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Sheet6" sheetId="18" state="hidden" r:id="rId18"/>
     <sheet name="8.30.2021" sheetId="22" r:id="rId19"/>
     <sheet name="9.6.2021" sheetId="24" r:id="rId20"/>
+    <sheet name="9.13.2021" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="130">
   <si>
     <t>Agent</t>
   </si>
@@ -428,6 +429,21 @@
   </si>
   <si>
     <t>Howard</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>pyr142</t>
+  </si>
+  <si>
+    <t>Stephen Harrison</t>
+  </si>
+  <si>
+    <t>pyr143</t>
+  </si>
+  <si>
+    <t>Jaime</t>
   </si>
 </sst>
 </file>
@@ -925,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1062,6 +1078,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,15 +1304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1316,8 +1335,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5651500" y="609600"/>
+          <a:off x="5486400" y="596900"/>
           <a:ext cx="3771900" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30376</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AB3B6A-93CB-714E-8DB0-E549EBAEEA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740399" y="711200"/>
+          <a:ext cx="4526177" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6854,8 +6922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B773D04-A0CE-7441-B77B-8827FB176F44}">
   <dimension ref="B3:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7377,6 +7445,610 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F33">
     <sortCondition ref="B10:B33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F8B58-0112-A84B-9E30-28A83BA9381D}">
+  <dimension ref="B3:K36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="129">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="138">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="138">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17" thickBot="1">
+      <c r="B9" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="132">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="111">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="92">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="92">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="92">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="92">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="92">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="104">
+        <v>992.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="104">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="104">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="104">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="104">
+        <v>608</v>
+      </c>
+      <c r="H23">
+        <f>SUM(F23:F26,F28)</f>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="104">
+        <v>235</v>
+      </c>
+      <c r="H24">
+        <f>H23*0.11</f>
+        <v>145.97</v>
+      </c>
+      <c r="I24">
+        <f>1225*0.9</f>
+        <v>1102.5</v>
+      </c>
+      <c r="K24">
+        <f>H24/4</f>
+        <v>36.4925</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="104">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <f>I24*0.9</f>
+        <v>992.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="104">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="104">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="104">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
+      <c r="B29" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="107">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="123">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="123">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="123">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" thickBot="1">
+      <c r="B36" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="126">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F36">
+    <sortCondition ref="B6:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551D394-0C6B-5E47-9F1A-D6F6912D29DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C3EFD-174D-B04B-B3BE-EC88E690D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="20" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="21" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="8.30.2021" sheetId="22" r:id="rId19"/>
     <sheet name="9.6.2021" sheetId="24" r:id="rId20"/>
     <sheet name="9.13.2021" sheetId="25" r:id="rId21"/>
+    <sheet name="9.20.2021" sheetId="27" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="135">
   <si>
     <t>Agent</t>
   </si>
@@ -444,6 +445,21 @@
   </si>
   <si>
     <t>Jaime</t>
+  </si>
+  <si>
+    <t>pyr141</t>
+  </si>
+  <si>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t>pyr144</t>
+  </si>
+  <si>
+    <t>logan</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -941,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,6 +1097,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,6 +1406,55 @@
         <a:xfrm>
           <a:off x="5740399" y="711200"/>
           <a:ext cx="4526177" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646E5388-8721-E04C-A440-6C17C7EAA96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="635000"/>
+          <a:ext cx="3822700" cy="1879600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7455,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F8B58-0112-A84B-9E30-28A83BA9381D}">
   <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8049,6 +8118,640 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F36">
     <sortCondition ref="B6:B36"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25DB75-C780-2C4C-906F-9C649D18D483}">
+  <dimension ref="B3:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="138">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="138">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" thickBot="1">
+      <c r="B8" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="132">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="89">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="111">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="92">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17" thickBot="1">
+      <c r="B17" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="141">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="104">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="104">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="104">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="104">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="104">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="104">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="104">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="104">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="17" thickBot="1">
+      <c r="B29" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123">
+        <v>120</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="123">
+        <v>239</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="123">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="123">
+        <v>30</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="123">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="123">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="123">
+        <v>495</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17" thickBot="1">
+      <c r="B38" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="126">
+        <v>100</v>
+      </c>
+      <c r="G38" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N5:R38">
+    <sortCondition ref="N6:N38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C3EFD-174D-B04B-B3BE-EC88E690D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF118A-15F8-DC4B-A86B-EB3FC5616921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="21" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
@@ -35,6 +35,7 @@
     <sheet name="9.6.2021" sheetId="24" r:id="rId20"/>
     <sheet name="9.13.2021" sheetId="25" r:id="rId21"/>
     <sheet name="9.20.2021" sheetId="27" r:id="rId22"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="216">
   <si>
     <t>Agent</t>
   </si>
@@ -460,13 +461,256 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>Ticket #: 162217739</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>STRAIGHT BET</t>
+  </si>
+  <si>
+    <t>[1298] 1H PACKERS (GB) -7-110</t>
+  </si>
+  <si>
+    <t>110 / 100</t>
+  </si>
+  <si>
+    <t>LOSE</t>
+  </si>
+  <si>
+    <t>Ticket #: 162335472</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>PARLAY (2 TEAMS)</t>
+  </si>
+  <si>
+    <t>[953] DODGERS (LAD) -1½-160</t>
+  </si>
+  <si>
+    <t>( M SCHERZER -R / K FREELAND -L )</t>
+  </si>
+  <si>
+    <t>[1956] 1H DIAMONDBACKS (ARZ) +170</t>
+  </si>
+  <si>
+    <t>( C MORTON -R / M BUMGARNER -L )</t>
+  </si>
+  <si>
+    <t>50 / 169</t>
+  </si>
+  <si>
+    <t>PEND</t>
+  </si>
+  <si>
+    <t>Ticket #: 162367933</t>
+  </si>
+  <si>
+    <t>[5301] 3Q PANTHERS (CAR) o7½-120</t>
+  </si>
+  <si>
+    <t>252 / 210</t>
+  </si>
+  <si>
+    <t>Ticket #: 162337575</t>
+  </si>
+  <si>
+    <t>RBL</t>
+  </si>
+  <si>
+    <t>Prop Bet</t>
+  </si>
+  <si>
+    <t>Carolina Panthers vrs Houston Texans</t>
+  </si>
+  <si>
+    <t>First Touchdown Scorer - Christian McCaffrey</t>
+  </si>
+  <si>
+    <t>31 / 100</t>
+  </si>
+  <si>
+    <t>Ticket #: 162337635</t>
+  </si>
+  <si>
+    <t>40 / 130</t>
+  </si>
+  <si>
+    <t>CASINO</t>
+  </si>
+  <si>
+    <t>Blackjack Surrender</t>
+  </si>
+  <si>
+    <t>Ticket #: 162382188</t>
+  </si>
+  <si>
+    <t>[902] 1-CUBS (CHC) GM-1 +128</t>
+  </si>
+  <si>
+    <t>( ACTION )</t>
+  </si>
+  <si>
+    <t>20 / 25</t>
+  </si>
+  <si>
+    <t>Ticket #: 162383662</t>
+  </si>
+  <si>
+    <t>[5901041] NOLAN ARENADO (STL) PK+105</t>
+  </si>
+  <si>
+    <t>( J HAPP -L / J STEELE -L )</t>
+  </si>
+  <si>
+    <t>50 / 52</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>Ticket #: 162383710</t>
+  </si>
+  <si>
+    <t>[901] 1-CARDINALS (STL) GM-1 o8½-110</t>
+  </si>
+  <si>
+    <t>275 / 250</t>
+  </si>
+  <si>
+    <t>Ticket #: 162387931</t>
+  </si>
+  <si>
+    <t>[901] 1-CARDINALS (STL) GM-1 o8½-115</t>
+  </si>
+  <si>
+    <t>50 / 43</t>
+  </si>
+  <si>
+    <t>Ticket #: 162397032</t>
+  </si>
+  <si>
+    <t>CFB</t>
+  </si>
+  <si>
+    <t>[307] WAKE FOREST +3½-115</t>
+  </si>
+  <si>
+    <t>403 / 350</t>
+  </si>
+  <si>
+    <t>Ticket #: 162446232</t>
+  </si>
+  <si>
+    <t>[334] ARMY -7½-110</t>
+  </si>
+  <si>
+    <t>Ticket #: 162445652</t>
+  </si>
+  <si>
+    <t>@ SOLDIER FIELD - CHICAGO, IL</t>
+  </si>
+  <si>
+    <t>[318] WISCONSIN -6½-105</t>
+  </si>
+  <si>
+    <t>263 / 250</t>
+  </si>
+  <si>
+    <t>Ticket #: 162472645</t>
+  </si>
+  <si>
+    <t>[2318] 2H WISCONSIN -2½-115</t>
+  </si>
+  <si>
+    <t>230 / 200</t>
+  </si>
+  <si>
+    <t>Ticket #: 162502896</t>
+  </si>
+  <si>
+    <t>[348] GEORGIA TECH +14-110</t>
+  </si>
+  <si>
+    <t>55 / 50</t>
+  </si>
+  <si>
+    <t>Ticket #: 162243894</t>
+  </si>
+  <si>
+    <t>3T SUPER TEASER TIES LOSE</t>
+  </si>
+  <si>
+    <t>[360] BYU -13-110 (B+10)</t>
+  </si>
+  <si>
+    <t>[361] COLORADO o34½-110 (B+10)</t>
+  </si>
+  <si>
+    <t>[372] ALABAMA -34½-120 (B+10)</t>
+  </si>
+  <si>
+    <t>260 / 200</t>
+  </si>
+  <si>
+    <t>LEITON / 0</t>
+  </si>
+  <si>
+    <t>XFER</t>
+  </si>
+  <si>
+    <t>Transfer to agent: BBB2000B1</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Idiot</t>
+  </si>
+  <si>
+    <t>Ticket ID</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>Risk / Win</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Time Placed</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Kiko</t>
+  </si>
+  <si>
+    <t>Idiot3</t>
+  </si>
+  <si>
+    <t>Carson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,8 +766,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,8 +873,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -953,11 +1242,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1101,6 +1507,105 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="11" fillId="18" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,15 +1927,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,7 +1958,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5689600" y="635000"/>
+          <a:off x="5803900" y="584200"/>
           <a:ext cx="3822700" cy="1879600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5578,7 +6083,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F29"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6992,7 +7497,7 @@
   <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F33"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7525,7 +8030,7 @@
   <dimension ref="B3:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F36"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8126,10 +8631,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25DB75-C780-2C4C-906F-9C649D18D483}">
-  <dimension ref="B3:G38"/>
+  <dimension ref="B3:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8360,7 +8865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="93" t="s">
         <v>17</v>
       </c>
@@ -8377,7 +8882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:10">
       <c r="B18" s="139" t="s">
         <v>27</v>
       </c>
@@ -8394,7 +8899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:10">
       <c r="B19" s="102" t="s">
         <v>27</v>
       </c>
@@ -8411,7 +8916,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:10">
       <c r="B20" s="102" t="s">
         <v>27</v>
       </c>
@@ -8428,7 +8933,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:10">
       <c r="B21" s="102" t="s">
         <v>27</v>
       </c>
@@ -8445,7 +8950,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:10">
       <c r="B22" s="102" t="s">
         <v>27</v>
       </c>
@@ -8462,7 +8967,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:10">
       <c r="B23" s="102" t="s">
         <v>27</v>
       </c>
@@ -8479,7 +8984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:10">
       <c r="B24" s="102" t="s">
         <v>27</v>
       </c>
@@ -8496,7 +9001,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:10">
       <c r="B25" s="102" t="s">
         <v>27</v>
       </c>
@@ -8513,7 +9018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:10">
       <c r="B26" s="102" t="s">
         <v>27</v>
       </c>
@@ -8530,7 +9035,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:10">
       <c r="B27" s="102" t="s">
         <v>27</v>
       </c>
@@ -8547,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:10">
       <c r="B28" s="102" t="s">
         <v>27</v>
       </c>
@@ -8564,7 +9069,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="17" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="105" t="s">
         <v>27</v>
       </c>
@@ -8581,7 +9086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:10">
       <c r="B30" s="122" t="s">
         <v>40</v>
       </c>
@@ -8598,7 +9103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:10">
       <c r="B31" s="122" t="s">
         <v>40</v>
       </c>
@@ -8617,8 +9122,12 @@
       <c r="G31" s="142" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="J31">
+        <f>735-225</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="122" t="s">
         <v>40</v>
       </c>
@@ -8633,9 +9142,6 @@
       </c>
       <c r="F32" s="123">
         <v>239</v>
-      </c>
-      <c r="G32" s="142" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -8725,9 +9231,6 @@
       <c r="F37" s="123">
         <v>495</v>
       </c>
-      <c r="G37" s="142" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="38" spans="2:7" ht="17" thickBot="1">
       <c r="B38" s="124" t="s">
@@ -8744,9 +9247,6 @@
       </c>
       <c r="F38" s="126">
         <v>100</v>
-      </c>
-      <c r="G38" s="142" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8755,6 +9255,1421 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
+  <dimension ref="B2:L66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17" thickBot="1"/>
+    <row r="3" spans="2:12" ht="20" thickBot="1">
+      <c r="B3" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="147" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="149">
+        <v>-110</v>
+      </c>
+      <c r="H4" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="150">
+        <v>44459.832638888889</v>
+      </c>
+      <c r="K4" s="203" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="204">
+        <f>SUMIF($B$4:$B$65,$K4,$G$4:$G$65)</f>
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1">
+      <c r="B5" s="151"/>
+      <c r="C5" s="152">
+        <v>44459.845138888886</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="155"/>
+      <c r="K5" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="200">
+        <f>SUMIF($B$4:$B$65,$K5,$G$4:$G$65)</f>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="159">
+        <v>-50</v>
+      </c>
+      <c r="H6" s="157" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="160">
+        <v>44462.619444444441</v>
+      </c>
+      <c r="K6" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="200">
+        <f>SUMIF($B$4:$B$65,$K6,$G$4:$G$65)</f>
+        <v>-110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="161"/>
+      <c r="C7" s="162">
+        <v>44462.632638888892</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="165"/>
+      <c r="K7" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="200">
+        <f>SUMIF($B$4:$B$65,$K7,$G$4:$G$65)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="161"/>
+      <c r="C8" s="162">
+        <v>44462.652777777781</v>
+      </c>
+      <c r="D8" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="165"/>
+      <c r="K8" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="200">
+        <f>SUMIF($B$4:$B$65,$K8,$G$4:$G$65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="161"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="165"/>
+      <c r="K9" s="199" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="200">
+        <f>SUMIF($B$4:$B$65,$K9,$G$4:$G$65)</f>
+        <v>-50.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17" thickBot="1">
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="169"/>
+      <c r="K10" s="199" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="200">
+        <f>SUMIF($B$4:$B$65,$K10,$G$4:$G$65)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="148"/>
+      <c r="E11" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="184" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="184">
+        <v>-252</v>
+      </c>
+      <c r="H11" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="185">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K11" s="199" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="200">
+        <f>SUMIF($B$4:$B$65,$K11,$G$4:$G$65)</f>
+        <v>-60.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1">
+      <c r="B12" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="187">
+        <v>44462.912499999999</v>
+      </c>
+      <c r="D12" s="188" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189">
+        <f>$G$11/5</f>
+        <v>-50.4</v>
+      </c>
+      <c r="H12" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="190">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K12" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="202">
+        <f>SUMIF($B$4:$B$65,$K12,$G$4:$G$65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="17" thickBot="1">
+      <c r="B13" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189">
+        <f t="shared" ref="G13:G16" si="0">$G$11/5</f>
+        <v>-50.4</v>
+      </c>
+      <c r="H13" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="190">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K13" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="206">
+        <f>SUM(L4:L12)</f>
+        <v>-486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="188"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189">
+        <f t="shared" si="0"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H14" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="190">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="188"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189">
+        <f t="shared" si="0"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H15" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="190">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="17" thickBot="1">
+      <c r="B16" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194">
+        <f t="shared" si="0"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H16" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="195">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="158"/>
+      <c r="E17" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="159">
+        <v>-31</v>
+      </c>
+      <c r="H17" s="157" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="160">
+        <v>44462.643055555556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="161"/>
+      <c r="C18" s="162">
+        <v>44462.930555555555</v>
+      </c>
+      <c r="D18" s="163" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1">
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="169"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="148"/>
+      <c r="E20" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="149">
+        <v>-40</v>
+      </c>
+      <c r="H20" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="150">
+        <v>44462.643750000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="196"/>
+      <c r="C21" s="187">
+        <v>44462.930555555555</v>
+      </c>
+      <c r="D21" s="188" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="188" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="198"/>
+    </row>
+    <row r="22" spans="2:9" ht="17" thickBot="1">
+      <c r="B22" s="151"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="155"/>
+    </row>
+    <row r="23" spans="2:9" ht="17" thickBot="1">
+      <c r="B23" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="171" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171">
+        <v>-225</v>
+      </c>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172">
+        <v>44463.479166666664</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="148"/>
+      <c r="E24" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="149">
+        <v>-20</v>
+      </c>
+      <c r="H24" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="150">
+        <v>44463.495833333334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="196"/>
+      <c r="C25" s="187">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D25" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="188" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="198"/>
+    </row>
+    <row r="26" spans="2:9" ht="17" thickBot="1">
+      <c r="B26" s="151"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="155"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="158"/>
+      <c r="E27" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="159">
+        <v>52</v>
+      </c>
+      <c r="H27" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="160">
+        <v>44463.520833333336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="161"/>
+      <c r="C28" s="162">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D28" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="165"/>
+    </row>
+    <row r="29" spans="2:9" ht="17" thickBot="1">
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="169"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="148"/>
+      <c r="E30" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="184" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="184">
+        <v>250</v>
+      </c>
+      <c r="H30" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="185">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="187">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="188" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189">
+        <f>$G$30/5</f>
+        <v>50</v>
+      </c>
+      <c r="H31" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="190">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="187"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189">
+        <f t="shared" ref="G32:G35" si="1">$G$30/5</f>
+        <v>50</v>
+      </c>
+      <c r="H32" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="190">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H33" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="190">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="186" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H34" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="190">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17" thickBot="1">
+      <c r="B35" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H35" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="195">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="158"/>
+      <c r="E36" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="159" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="159">
+        <v>43</v>
+      </c>
+      <c r="H36" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="160">
+        <v>44463.568055555559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="161"/>
+      <c r="C37" s="162">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D37" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="165"/>
+    </row>
+    <row r="38" spans="2:9" ht="17" thickBot="1">
+      <c r="B38" s="166"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="169"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="148"/>
+      <c r="E39" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="184" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="184">
+        <v>350</v>
+      </c>
+      <c r="H39" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="185">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="187">
+        <v>44463.795138888891</v>
+      </c>
+      <c r="D40" s="188" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="188" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="189"/>
+      <c r="G40" s="189">
+        <f>$G$39/4</f>
+        <v>87.5</v>
+      </c>
+      <c r="H40" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="190">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="188"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189">
+        <f t="shared" ref="G41:G43" si="2">$G$39/4</f>
+        <v>87.5</v>
+      </c>
+      <c r="H41" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="190">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="188"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="H42" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="190">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="17" thickBot="1">
+      <c r="B43" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="188"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="H43" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="190">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="173" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="157" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="158"/>
+      <c r="E44" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="174">
+        <v>250</v>
+      </c>
+      <c r="H44" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="175">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="162">
+        <v>44464.503472222219</v>
+      </c>
+      <c r="D45" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H45" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="178">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="163"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H46" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="178">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="163"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H47" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="178">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="17" thickBot="1">
+      <c r="B48" s="176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="163"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H48" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="178">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="148"/>
+      <c r="E49" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="184">
+        <v>-263</v>
+      </c>
+      <c r="H49" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="185">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="187">
+        <v>44464.504166666666</v>
+      </c>
+      <c r="D50" s="188" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="189"/>
+      <c r="G50" s="189">
+        <f>$G$49/5</f>
+        <v>-52.6</v>
+      </c>
+      <c r="H50" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="190">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="187"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="189"/>
+      <c r="G51" s="189">
+        <f t="shared" ref="G51:G54" si="3">$G$49/5</f>
+        <v>-52.6</v>
+      </c>
+      <c r="H51" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="190">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="187"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="189">
+        <f t="shared" si="3"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H52" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="190">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="187"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="189">
+        <f t="shared" si="3"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H53" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="190">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="17" thickBot="1">
+      <c r="B54" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194">
+        <f t="shared" si="3"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H54" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="195">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="173" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="158"/>
+      <c r="E55" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="174" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="174">
+        <v>-230</v>
+      </c>
+      <c r="H55" s="157" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="175">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="162">
+        <v>44464.584027777775</v>
+      </c>
+      <c r="D56" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177">
+        <f>$G$55/4</f>
+        <v>-57.5</v>
+      </c>
+      <c r="H56" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="178">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="163"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177">
+        <f t="shared" ref="G57:G59" si="4">$G$55/4</f>
+        <v>-57.5</v>
+      </c>
+      <c r="H57" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" s="178">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="163"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177">
+        <f t="shared" si="4"/>
+        <v>-57.5</v>
+      </c>
+      <c r="H58" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="178">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="17" thickBot="1">
+      <c r="B59" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="182"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="181"/>
+      <c r="G59" s="177">
+        <f t="shared" si="4"/>
+        <v>-57.5</v>
+      </c>
+      <c r="H59" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" s="178">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="148"/>
+      <c r="E60" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="149">
+        <v>50</v>
+      </c>
+      <c r="H60" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" s="150">
+        <v>44464.740277777775</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="17" thickBot="1">
+      <c r="B61" s="151"/>
+      <c r="C61" s="152">
+        <v>44464.815972222219</v>
+      </c>
+      <c r="D61" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="155"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="158"/>
+      <c r="E62" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="159">
+        <v>-260</v>
+      </c>
+      <c r="H62" s="157" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="160">
+        <v>44460.601388888892</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="161"/>
+      <c r="C63" s="162">
+        <v>44464.934027777781</v>
+      </c>
+      <c r="D63" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="165"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="161"/>
+      <c r="C64" s="162">
+        <v>44464.940972222219</v>
+      </c>
+      <c r="D64" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="163" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="165"/>
+    </row>
+    <row r="65" spans="2:9" ht="17" thickBot="1">
+      <c r="B65" s="166"/>
+      <c r="C65" s="182">
+        <v>44464.815972222219</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="168"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="169"/>
+    </row>
+    <row r="66" spans="2:9" ht="17" thickBot="1">
+      <c r="B66" s="207" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="208"/>
+      <c r="D66" s="208" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="208" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="208"/>
+      <c r="G66" s="208">
+        <v>486</v>
+      </c>
+      <c r="H66" s="208"/>
+      <c r="I66" s="209">
+        <v>44466.124305555553</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="I6:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF118A-15F8-DC4B-A86B-EB3FC5616921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE38ABD4-ABB7-6A4B-B30D-2978F215F43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="21" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" firstSheet="7" activeTab="22" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,8 @@
     <sheet name="9.6.2021" sheetId="24" r:id="rId20"/>
     <sheet name="9.13.2021" sheetId="25" r:id="rId21"/>
     <sheet name="9.20.2021" sheetId="27" r:id="rId22"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId23"/>
+    <sheet name="9.27.2021" sheetId="29" r:id="rId23"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="244">
   <si>
     <t>Agent</t>
   </si>
@@ -704,6 +705,90 @@
   </si>
   <si>
     <t>Carson</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
+  </si>
+  <si>
+    <t>Kevin (Not Victory</t>
+  </si>
+  <si>
+    <t>Steve harrison</t>
+  </si>
+  <si>
+    <t>Wagner Braga</t>
+  </si>
+  <si>
+    <t>pyr146</t>
+  </si>
+  <si>
+    <t>pyr147</t>
+  </si>
+  <si>
+    <t>pyr148</t>
+  </si>
+  <si>
+    <t>pyr112</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>pyr145</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>pyr150</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Keenan Tims boy</t>
+  </si>
+  <si>
+    <t>Owen Shroeder</t>
+  </si>
+  <si>
+    <t>Brandon Wass</t>
+  </si>
+  <si>
+    <t>Trev to Take Christian</t>
+  </si>
+  <si>
+    <t>Orso Final</t>
+  </si>
+  <si>
+    <t>Trev Final</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Dro -&gt; 719 -&gt; Gabe</t>
+  </si>
+  <si>
+    <t>Trev -&gt; 103 -&gt; Gabe</t>
+  </si>
+  <si>
+    <t>Trev -&gt; 513 -&gt; Orso</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>kickbacks</t>
+  </si>
+  <si>
+    <t>gabe</t>
+  </si>
+  <si>
+    <t>orso</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1516,40 +1601,15 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1590,11 +1650,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1606,6 +1661,42 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="11" fillId="18" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,6 +2051,55 @@
         <a:xfrm>
           <a:off x="5803900" y="584200"/>
           <a:ext cx="3822700" cy="1879600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414824</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9997AEA0-9787-0D42-8939-FB54956A3698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702300" y="596900"/>
+          <a:ext cx="7158524" cy="2551176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8633,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25DB75-C780-2C4C-906F-9C649D18D483}">
   <dimension ref="B3:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9119,9 +9259,6 @@
       <c r="F31" s="123">
         <v>120</v>
       </c>
-      <c r="G31" s="142" t="s">
-        <v>134</v>
-      </c>
       <c r="J31">
         <f>735-225</f>
         <v>510</v>
@@ -9144,7 +9281,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:6">
       <c r="B33" s="122" t="s">
         <v>40</v>
       </c>
@@ -9161,7 +9298,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:6">
       <c r="B34" s="122" t="s">
         <v>40</v>
       </c>
@@ -9177,11 +9314,8 @@
       <c r="F34" s="123">
         <v>30</v>
       </c>
-      <c r="G34" s="142" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="122" t="s">
         <v>40</v>
       </c>
@@ -9198,7 +9332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:6">
       <c r="B36" s="122" t="s">
         <v>40</v>
       </c>
@@ -9215,7 +9349,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:6">
       <c r="B37" s="122" t="s">
         <v>40</v>
       </c>
@@ -9232,7 +9366,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17" thickBot="1">
+    <row r="38" spans="2:6" ht="17" thickBot="1">
       <c r="B38" s="124" t="s">
         <v>40</v>
       </c>
@@ -9259,6 +9393,934 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2739710E-14F1-464B-A50D-878A173AA683}">
+  <dimension ref="B2:U40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="S2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="17" thickBot="1">
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>217</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="129">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="138">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>218</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="138">
+        <v>193</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="138">
+        <v>69</v>
+      </c>
+      <c r="R8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="138">
+        <v>1800</v>
+      </c>
+      <c r="R9" t="s">
+        <v>220</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="138">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17" thickBot="1">
+      <c r="B11" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="92">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="92">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="92">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="17" thickBot="1">
+      <c r="B18" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="104">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="104">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="104">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="104">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="104">
+        <v>115</v>
+      </c>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="104">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="104">
+        <v>298</v>
+      </c>
+      <c r="L23" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" s="108">
+        <f>2785-I27</f>
+        <v>495</v>
+      </c>
+      <c r="N23" s="108">
+        <f>M23+513</f>
+        <v>1008</v>
+      </c>
+      <c r="Q23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="104">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="104">
+        <v>160</v>
+      </c>
+      <c r="L24" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" s="108">
+        <f>-666+I27</f>
+        <v>1624</v>
+      </c>
+      <c r="N24" s="108">
+        <f>M24-103-513</f>
+        <v>1008</v>
+      </c>
+      <c r="Q24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="T24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="104">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="104">
+        <v>287</v>
+      </c>
+      <c r="L25" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="108">
+        <v>1727</v>
+      </c>
+      <c r="N25" s="108">
+        <f>M25-719</f>
+        <v>1008</v>
+      </c>
+      <c r="Q25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="104">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="104">
+        <v>175</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" s="103"/>
+      <c r="L26" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="108">
+        <v>186</v>
+      </c>
+      <c r="N26" s="108">
+        <f>M26+719+103</f>
+        <v>1008</v>
+      </c>
+      <c r="Q26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="104">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="104">
+        <v>394</v>
+      </c>
+      <c r="I27">
+        <f>F20+F24+F25+F26+F27+F29</f>
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="104">
+        <v>65</v>
+      </c>
+      <c r="O28">
+        <f>12+10+14</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="17" thickBot="1">
+      <c r="B29" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="104">
+        <v>285</v>
+      </c>
+      <c r="O29">
+        <f>29+32+34+36</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="17" thickBot="1">
+      <c r="B30" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="107">
+        <v>79</v>
+      </c>
+      <c r="L30" s="192" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="193"/>
+      <c r="O30">
+        <f>O29/4</f>
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123">
+        <v>14</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="194" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="195"/>
+    </row>
+    <row r="32" spans="2:21" ht="17" thickBot="1">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="123">
+        <v>50</v>
+      </c>
+      <c r="L32" s="196" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" s="197"/>
+      <c r="P32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="123">
+        <v>467</v>
+      </c>
+      <c r="P33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="123">
+        <v>200</v>
+      </c>
+      <c r="P34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="123">
+        <v>43</v>
+      </c>
+      <c r="P35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="123">
+        <v>416</v>
+      </c>
+      <c r="H36">
+        <f>F33-260</f>
+        <v>207</v>
+      </c>
+      <c r="J36">
+        <f>I27-O39</f>
+        <v>2062</v>
+      </c>
+      <c r="K36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="123">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="123">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="123">
+        <v>110</v>
+      </c>
+      <c r="O39">
+        <f>57*4</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="17" thickBot="1">
+      <c r="B40" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="126">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F40">
+    <sortCondition ref="B8:B40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -9308,1325 +10370,1325 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="147" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="149">
+      <c r="G4" s="209">
         <v>-110</v>
       </c>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="150">
+      <c r="I4" s="211">
         <v>44459.832638888889</v>
       </c>
-      <c r="K4" s="203" t="s">
+      <c r="K4" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="204">
-        <f>SUMIF($B$4:$B$65,$K4,$G$4:$G$65)</f>
+      <c r="L4" s="186">
+        <f t="shared" ref="L4:L12" si="0">SUMIF($B$4:$B$65,$K4,$G$4:$G$65)</f>
         <v>-415</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152">
+      <c r="B5" s="208"/>
+      <c r="C5" s="148">
         <v>44459.845138888886</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="153" t="s">
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="155"/>
-      <c r="K5" s="199" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="200">
-        <f>SUMIF($B$4:$B$65,$K5,$G$4:$G$65)</f>
+      <c r="I5" s="212"/>
+      <c r="K5" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="182">
+        <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="157" t="s">
+      <c r="B6" s="198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="157" t="s">
+      <c r="D6" s="151"/>
+      <c r="E6" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="159">
+      <c r="G6" s="201">
         <v>-50</v>
       </c>
-      <c r="H6" s="157" t="s">
+      <c r="H6" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="160">
+      <c r="I6" s="204">
         <v>44462.619444444441</v>
       </c>
-      <c r="K6" s="199" t="s">
+      <c r="K6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="200">
-        <f>SUMIF($B$4:$B$65,$K6,$G$4:$G$65)</f>
+      <c r="L6" s="182">
+        <f t="shared" si="0"/>
         <v>-110.5</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="161"/>
-      <c r="C7" s="162">
+      <c r="B7" s="199"/>
+      <c r="C7" s="152">
         <v>44462.632638888892</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="163" t="s">
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="K7" s="199" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="200">
-        <f>SUMIF($B$4:$B$65,$K7,$G$4:$G$65)</f>
+      <c r="I7" s="205"/>
+      <c r="K7" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="182">
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="161"/>
-      <c r="C8" s="162">
+      <c r="B8" s="199"/>
+      <c r="C8" s="152">
         <v>44462.652777777781</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="163" t="s">
+      <c r="E8" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="163" t="s">
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="165"/>
-      <c r="K8" s="199" t="s">
+      <c r="I8" s="205"/>
+      <c r="K8" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="200">
-        <f>SUMIF($B$4:$B$65,$K8,$G$4:$G$65)</f>
+      <c r="L8" s="182">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="161"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163" t="s">
+      <c r="B9" s="199"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="165"/>
-      <c r="K9" s="199" t="s">
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="205"/>
+      <c r="K9" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="L9" s="200">
-        <f>SUMIF($B$4:$B$65,$K9,$G$4:$G$65)</f>
+      <c r="L9" s="182">
+        <f t="shared" si="0"/>
         <v>-50.4</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167" t="s">
+      <c r="B10" s="200"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="169"/>
-      <c r="K10" s="199" t="s">
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="206"/>
+      <c r="K10" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="L10" s="200">
-        <f>SUMIF($B$4:$B$65,$K10,$G$4:$G$65)</f>
+      <c r="L10" s="182">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="147" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="184" t="s">
+      <c r="F11" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="184">
+      <c r="G11" s="169">
         <v>-252</v>
       </c>
-      <c r="H11" s="147" t="s">
+      <c r="H11" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="185">
+      <c r="I11" s="170">
         <v>44462.906944444447</v>
       </c>
-      <c r="K11" s="199" t="s">
+      <c r="K11" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="200">
-        <f>SUMIF($B$4:$B$65,$K11,$G$4:$G$65)</f>
+      <c r="L11" s="182">
+        <f t="shared" si="0"/>
         <v>-60.1</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="17" thickBot="1">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="172">
         <v>44462.912499999999</v>
       </c>
-      <c r="D12" s="188" t="s">
+      <c r="D12" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="188" t="s">
+      <c r="E12" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189">
+      <c r="F12" s="174"/>
+      <c r="G12" s="174">
         <f>$G$11/5</f>
         <v>-50.4</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="190">
+      <c r="I12" s="175">
         <v>44462.906944444447</v>
       </c>
-      <c r="K12" s="201" t="s">
+      <c r="K12" s="183" t="s">
         <v>214</v>
       </c>
-      <c r="L12" s="202">
-        <f>SUMIF($B$4:$B$65,$K12,$G$4:$G$65)</f>
+      <c r="L12" s="184">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189">
-        <f t="shared" ref="G13:G16" si="0">$G$11/5</f>
+      <c r="C13" s="173"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174">
+        <f t="shared" ref="G13:G16" si="1">$G$11/5</f>
         <v>-50.4</v>
       </c>
-      <c r="H13" s="188" t="s">
+      <c r="H13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="190">
+      <c r="I13" s="175">
         <v>44462.906944444447</v>
       </c>
-      <c r="K13" s="205" t="s">
+      <c r="K13" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="206">
+      <c r="L13" s="188">
         <f>SUM(L4:L12)</f>
         <v>-486</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189">
-        <f t="shared" si="0"/>
+      <c r="B14" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174">
+        <f t="shared" si="1"/>
         <v>-50.4</v>
       </c>
-      <c r="H14" s="188" t="s">
+      <c r="H14" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="190">
+      <c r="I14" s="175">
         <v>44462.906944444447</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189">
-        <f t="shared" si="0"/>
+      <c r="B15" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174">
+        <f t="shared" si="1"/>
         <v>-50.4</v>
       </c>
-      <c r="H15" s="188" t="s">
+      <c r="H15" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="190">
+      <c r="I15" s="175">
         <v>44462.906944444447</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="17" thickBot="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194">
-        <f t="shared" si="0"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="179">
+        <f t="shared" si="1"/>
         <v>-50.4</v>
       </c>
-      <c r="H16" s="153" t="s">
+      <c r="H16" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="195">
+      <c r="I16" s="180">
         <v>44462.906944444447</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="157" t="s">
+      <c r="B17" s="198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="157" t="s">
+      <c r="D17" s="151"/>
+      <c r="E17" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="201">
         <v>-31</v>
       </c>
-      <c r="H17" s="157" t="s">
+      <c r="H17" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="160">
+      <c r="I17" s="204">
         <v>44462.643055555556</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="161"/>
-      <c r="C18" s="162">
+      <c r="B18" s="199"/>
+      <c r="C18" s="152">
         <v>44462.930555555555</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="163" t="s">
+      <c r="E18" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="163" t="s">
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="165"/>
+      <c r="I18" s="205"/>
     </row>
     <row r="19" spans="2:9" ht="17" thickBot="1">
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167" t="s">
+      <c r="B19" s="200"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="169"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="206"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="147" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="F20" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="149">
+      <c r="G20" s="209">
         <v>-40</v>
       </c>
-      <c r="H20" s="147" t="s">
+      <c r="H20" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="150">
+      <c r="I20" s="211">
         <v>44462.643750000003</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="196"/>
-      <c r="C21" s="187">
+      <c r="B21" s="213"/>
+      <c r="C21" s="172">
         <v>44462.930555555555</v>
       </c>
-      <c r="D21" s="188" t="s">
+      <c r="D21" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="188" t="s">
+      <c r="E21" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="188" t="s">
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="198"/>
+      <c r="I21" s="215"/>
     </row>
     <row r="22" spans="2:9" ht="17" thickBot="1">
-      <c r="B22" s="151"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153" t="s">
+      <c r="B22" s="208"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="155"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="212"/>
     </row>
     <row r="23" spans="2:9" ht="17" thickBot="1">
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171" t="s">
+      <c r="C23" s="156"/>
+      <c r="D23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="171" t="s">
+      <c r="E23" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171">
+      <c r="F23" s="156"/>
+      <c r="G23" s="156">
         <v>-225</v>
       </c>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172">
+      <c r="H23" s="156"/>
+      <c r="I23" s="157">
         <v>44463.479166666664</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="148"/>
-      <c r="E24" s="147" t="s">
+      <c r="D24" s="147"/>
+      <c r="E24" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="149" t="s">
+      <c r="F24" s="209" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="149">
+      <c r="G24" s="209">
         <v>-20</v>
       </c>
-      <c r="H24" s="147" t="s">
+      <c r="H24" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="150">
+      <c r="I24" s="211">
         <v>44463.495833333334</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="196"/>
-      <c r="C25" s="187">
+      <c r="B25" s="213"/>
+      <c r="C25" s="172">
         <v>44463.597916666666</v>
       </c>
-      <c r="D25" s="188" t="s">
+      <c r="D25" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="188" t="s">
+      <c r="E25" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="188" t="s">
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="198"/>
+      <c r="I25" s="215"/>
     </row>
     <row r="26" spans="2:9" ht="17" thickBot="1">
-      <c r="B26" s="151"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153" t="s">
+      <c r="B26" s="208"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="155"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="212"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="157" t="s">
+      <c r="B27" s="198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="158"/>
-      <c r="E27" s="157" t="s">
+      <c r="D27" s="151"/>
+      <c r="E27" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="159" t="s">
+      <c r="F27" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="159">
+      <c r="G27" s="201">
         <v>52</v>
       </c>
-      <c r="H27" s="157" t="s">
+      <c r="H27" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="160">
+      <c r="I27" s="204">
         <v>44463.520833333336</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="161"/>
-      <c r="C28" s="162">
+      <c r="B28" s="199"/>
+      <c r="C28" s="152">
         <v>44463.597916666666</v>
       </c>
-      <c r="D28" s="163" t="s">
+      <c r="D28" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="163" t="s">
+      <c r="E28" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="163" t="s">
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="165"/>
+      <c r="I28" s="205"/>
     </row>
     <row r="29" spans="2:9" ht="17" thickBot="1">
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167" t="s">
+      <c r="B29" s="200"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="169"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="206"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="147" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="184" t="s">
+      <c r="F30" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="184">
+      <c r="G30" s="169">
         <v>250</v>
       </c>
-      <c r="H30" s="147" t="s">
+      <c r="H30" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="185">
+      <c r="I30" s="170">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="187">
+      <c r="C31" s="172">
         <v>44463.597916666666</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="188" t="s">
+      <c r="E31" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189">
+      <c r="F31" s="174"/>
+      <c r="G31" s="174">
         <f>$G$30/5</f>
         <v>50</v>
       </c>
-      <c r="H31" s="188" t="s">
+      <c r="H31" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="190">
+      <c r="I31" s="175">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188" t="s">
+      <c r="B32" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189">
-        <f t="shared" ref="G32:G35" si="1">$G$30/5</f>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174">
+        <f t="shared" ref="G32:G35" si="2">$G$30/5</f>
         <v>50</v>
       </c>
-      <c r="H32" s="188" t="s">
+      <c r="H32" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I32" s="190">
+      <c r="I32" s="175">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="187"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189">
-        <f t="shared" si="1"/>
+      <c r="B33" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H33" s="188" t="s">
+      <c r="H33" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="190">
+      <c r="I33" s="175">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="187"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189">
-        <f t="shared" si="1"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H34" s="188" t="s">
+      <c r="H34" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I34" s="190">
+      <c r="I34" s="175">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="17" thickBot="1">
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194">
-        <f t="shared" si="1"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H35" s="153" t="s">
+      <c r="H35" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="I35" s="195">
+      <c r="I35" s="180">
         <v>44463.521527777775</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="158"/>
-      <c r="E36" s="157" t="s">
+      <c r="D36" s="151"/>
+      <c r="E36" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="159" t="s">
+      <c r="F36" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="159">
+      <c r="G36" s="201">
         <v>43</v>
       </c>
-      <c r="H36" s="157" t="s">
+      <c r="H36" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="160">
+      <c r="I36" s="204">
         <v>44463.568055555559</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="161"/>
-      <c r="C37" s="162">
+      <c r="B37" s="199"/>
+      <c r="C37" s="152">
         <v>44463.597916666666</v>
       </c>
-      <c r="D37" s="163" t="s">
+      <c r="D37" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="163" t="s">
+      <c r="E37" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="163" t="s">
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="165"/>
+      <c r="I37" s="205"/>
     </row>
     <row r="38" spans="2:9" ht="17" thickBot="1">
-      <c r="B38" s="166"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167" t="s">
+      <c r="B38" s="200"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="169"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="203"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="206"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="147" t="s">
+      <c r="D39" s="147"/>
+      <c r="E39" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="184">
+      <c r="G39" s="169">
         <v>350</v>
       </c>
-      <c r="H39" s="147" t="s">
+      <c r="H39" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="185">
+      <c r="I39" s="170">
         <v>44463.700694444444</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="186" t="s">
+      <c r="B40" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="187">
+      <c r="C40" s="172">
         <v>44463.795138888891</v>
       </c>
-      <c r="D40" s="188" t="s">
+      <c r="D40" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="188" t="s">
+      <c r="E40" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189">
+      <c r="F40" s="174"/>
+      <c r="G40" s="174">
         <f>$G$39/4</f>
         <v>87.5</v>
       </c>
-      <c r="H40" s="188" t="s">
+      <c r="H40" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I40" s="190">
+      <c r="I40" s="175">
         <v>44463.700694444444</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189">
-        <f t="shared" ref="G41:G43" si="2">$G$39/4</f>
+      <c r="B41" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="173"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174">
+        <f t="shared" ref="G41:G43" si="3">$G$39/4</f>
         <v>87.5</v>
       </c>
-      <c r="H41" s="188" t="s">
+      <c r="H41" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="190">
+      <c r="I41" s="175">
         <v>44463.700694444444</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="186" t="s">
+      <c r="B42" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="188"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189">
-        <f t="shared" si="2"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174">
+        <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="190">
+      <c r="I42" s="175">
         <v>44463.700694444444</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="17" thickBot="1">
-      <c r="B43" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="188"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189">
-        <f t="shared" si="2"/>
+      <c r="B43" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="173"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174">
+        <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
-      <c r="H43" s="188" t="s">
+      <c r="H43" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="I43" s="190">
+      <c r="I43" s="175">
         <v>44463.700694444444</v>
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="173" t="s">
+      <c r="B44" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="157" t="s">
+      <c r="C44" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="158"/>
-      <c r="E44" s="157" t="s">
+      <c r="D44" s="151"/>
+      <c r="E44" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="174" t="s">
+      <c r="F44" s="159" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="174">
+      <c r="G44" s="159">
         <v>250</v>
       </c>
-      <c r="H44" s="157" t="s">
+      <c r="H44" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="175">
+      <c r="I44" s="160">
         <v>44464.444444444445</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="162">
+      <c r="C45" s="152">
         <v>44464.503472222219</v>
       </c>
-      <c r="D45" s="163" t="s">
+      <c r="D45" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="163" t="s">
+      <c r="E45" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177">
+      <c r="F45" s="162"/>
+      <c r="G45" s="162">
         <f>$G$44/4</f>
         <v>62.5</v>
       </c>
-      <c r="H45" s="163" t="s">
+      <c r="H45" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="178">
+      <c r="I45" s="163">
         <v>44464.444444444445</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="176" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177">
+      <c r="B46" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="153"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162">
         <f>$G$44/4</f>
         <v>62.5</v>
       </c>
-      <c r="H46" s="163" t="s">
+      <c r="H46" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I46" s="178">
+      <c r="I46" s="163">
         <v>44464.444444444445</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="179"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177">
+      <c r="C47" s="153"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162">
         <f>$G$44/4</f>
         <v>62.5</v>
       </c>
-      <c r="H47" s="163" t="s">
+      <c r="H47" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="178">
+      <c r="I47" s="163">
         <v>44464.444444444445</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="17" thickBot="1">
-      <c r="B48" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177">
+      <c r="B48" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="153"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162">
         <f>$G$44/4</f>
         <v>62.5</v>
       </c>
-      <c r="H48" s="163" t="s">
+      <c r="H48" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="178">
+      <c r="I48" s="163">
         <v>44464.444444444445</v>
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="183" t="s">
+      <c r="B49" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="147" t="s">
+      <c r="C49" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="148"/>
-      <c r="E49" s="147" t="s">
+      <c r="D49" s="147"/>
+      <c r="E49" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="184" t="s">
+      <c r="F49" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="G49" s="184">
+      <c r="G49" s="169">
         <v>-263</v>
       </c>
-      <c r="H49" s="147" t="s">
+      <c r="H49" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="185">
+      <c r="I49" s="170">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="186" t="s">
+      <c r="B50" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="187">
+      <c r="C50" s="172">
         <v>44464.504166666666</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="188" t="s">
+      <c r="E50" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="F50" s="189"/>
-      <c r="G50" s="189">
+      <c r="F50" s="174"/>
+      <c r="G50" s="174">
         <f>$G$49/5</f>
         <v>-52.6</v>
       </c>
-      <c r="H50" s="188" t="s">
+      <c r="H50" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I50" s="190">
+      <c r="I50" s="175">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="187"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="188" t="s">
+      <c r="B51" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="172"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="F51" s="189"/>
-      <c r="G51" s="189">
-        <f t="shared" ref="G51:G54" si="3">$G$49/5</f>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174">
+        <f t="shared" ref="G51:G54" si="4">$G$49/5</f>
         <v>-52.6</v>
       </c>
-      <c r="H51" s="188" t="s">
+      <c r="H51" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="190">
+      <c r="I51" s="175">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="186" t="s">
+      <c r="B52" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="187"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189">
-        <f t="shared" si="3"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174">
+        <f t="shared" si="4"/>
         <v>-52.6</v>
       </c>
-      <c r="H52" s="188" t="s">
+      <c r="H52" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="190">
+      <c r="I52" s="175">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="187"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="189">
-        <f t="shared" si="3"/>
+      <c r="B53" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="172"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174">
+        <f t="shared" si="4"/>
         <v>-52.6</v>
       </c>
-      <c r="H53" s="188" t="s">
+      <c r="H53" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="190">
+      <c r="I53" s="175">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="17" thickBot="1">
-      <c r="B54" s="192" t="s">
+      <c r="B54" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194">
-        <f t="shared" si="3"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179">
+        <f t="shared" si="4"/>
         <v>-52.6</v>
       </c>
-      <c r="H54" s="153" t="s">
+      <c r="H54" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="I54" s="195">
+      <c r="I54" s="180">
         <v>44464.439583333333</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="157" t="s">
+      <c r="C55" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="158"/>
-      <c r="E55" s="157" t="s">
+      <c r="D55" s="151"/>
+      <c r="E55" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="174" t="s">
+      <c r="F55" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="174">
+      <c r="G55" s="159">
         <v>-230</v>
       </c>
-      <c r="H55" s="157" t="s">
+      <c r="H55" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="175">
+      <c r="I55" s="160">
         <v>44464.572916666664</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="176" t="s">
+      <c r="B56" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="162">
+      <c r="C56" s="152">
         <v>44464.584027777775</v>
       </c>
-      <c r="D56" s="179" t="s">
+      <c r="D56" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="163" t="s">
+      <c r="E56" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177">
+      <c r="F56" s="162"/>
+      <c r="G56" s="162">
         <f>$G$55/4</f>
         <v>-57.5</v>
       </c>
-      <c r="H56" s="163" t="s">
+      <c r="H56" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I56" s="178">
+      <c r="I56" s="163">
         <v>44464.572916666664</v>
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="176" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="163"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177">
-        <f t="shared" ref="G57:G59" si="4">$G$55/4</f>
+      <c r="B57" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="153"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162">
+        <f t="shared" ref="G57:G59" si="5">$G$55/4</f>
         <v>-57.5</v>
       </c>
-      <c r="H57" s="163" t="s">
+      <c r="H57" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I57" s="178">
+      <c r="I57" s="163">
         <v>44464.572916666664</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="177"/>
-      <c r="G58" s="177">
-        <f t="shared" si="4"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162">
+        <f t="shared" si="5"/>
         <v>-57.5</v>
       </c>
-      <c r="H58" s="163" t="s">
+      <c r="H58" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I58" s="178">
+      <c r="I58" s="163">
         <v>44464.572916666664</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="17" thickBot="1">
-      <c r="B59" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="182"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="177">
-        <f t="shared" si="4"/>
+      <c r="B59" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="167"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="162">
+        <f t="shared" si="5"/>
         <v>-57.5</v>
       </c>
-      <c r="H59" s="163" t="s">
+      <c r="H59" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I59" s="178">
+      <c r="I59" s="163">
         <v>44464.572916666664</v>
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="147" t="s">
+      <c r="B60" s="207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="148"/>
-      <c r="E60" s="147" t="s">
+      <c r="D60" s="147"/>
+      <c r="E60" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="149" t="s">
+      <c r="F60" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="149">
+      <c r="G60" s="209">
         <v>50</v>
       </c>
-      <c r="H60" s="147" t="s">
+      <c r="H60" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="150">
+      <c r="I60" s="211">
         <v>44464.740277777775</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="17" thickBot="1">
-      <c r="B61" s="151"/>
-      <c r="C61" s="152">
+      <c r="B61" s="208"/>
+      <c r="C61" s="148">
         <v>44464.815972222219</v>
       </c>
-      <c r="D61" s="153" t="s">
+      <c r="D61" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="153" t="s">
+      <c r="E61" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="153" t="s">
+      <c r="F61" s="210"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="155"/>
+      <c r="I61" s="212"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="157" t="s">
+      <c r="C62" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="158"/>
-      <c r="E62" s="157" t="s">
+      <c r="D62" s="151"/>
+      <c r="E62" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="159" t="s">
+      <c r="F62" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="159">
+      <c r="G62" s="201">
         <v>-260</v>
       </c>
-      <c r="H62" s="157" t="s">
+      <c r="H62" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="160">
+      <c r="I62" s="204">
         <v>44460.601388888892</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="161"/>
-      <c r="C63" s="162">
+      <c r="B63" s="199"/>
+      <c r="C63" s="152">
         <v>44464.934027777781</v>
       </c>
-      <c r="D63" s="163" t="s">
+      <c r="D63" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="163" t="s">
+      <c r="E63" s="153" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="163" t="s">
+      <c r="F63" s="202"/>
+      <c r="G63" s="202"/>
+      <c r="H63" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="165"/>
+      <c r="I63" s="205"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="161"/>
-      <c r="C64" s="162">
+      <c r="B64" s="199"/>
+      <c r="C64" s="152">
         <v>44464.940972222219</v>
       </c>
-      <c r="D64" s="163" t="s">
+      <c r="D64" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="163" t="s">
+      <c r="E64" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="163" t="s">
+      <c r="F64" s="202"/>
+      <c r="G64" s="202"/>
+      <c r="H64" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="165"/>
+      <c r="I64" s="205"/>
     </row>
     <row r="65" spans="2:9" ht="17" thickBot="1">
-      <c r="B65" s="166"/>
-      <c r="C65" s="182">
+      <c r="B65" s="200"/>
+      <c r="C65" s="167">
         <v>44464.815972222219</v>
       </c>
-      <c r="D65" s="167" t="s">
+      <c r="D65" s="154" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="167" t="s">
+      <c r="E65" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="168"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="167" t="s">
+      <c r="F65" s="203"/>
+      <c r="G65" s="203"/>
+      <c r="H65" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="I65" s="169"/>
+      <c r="I65" s="206"/>
     </row>
     <row r="66" spans="2:9" ht="17" thickBot="1">
-      <c r="B66" s="207" t="s">
+      <c r="B66" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="208"/>
-      <c r="D66" s="208" t="s">
+      <c r="C66" s="190"/>
+      <c r="D66" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="208" t="s">
+      <c r="E66" s="190" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="208"/>
-      <c r="G66" s="208">
+      <c r="F66" s="190"/>
+      <c r="G66" s="190">
         <v>486</v>
       </c>
-      <c r="H66" s="208"/>
-      <c r="I66" s="209">
+      <c r="H66" s="190"/>
+      <c r="I66" s="191">
         <v>44466.124305555553</v>
       </c>
     </row>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE38ABD4-ABB7-6A4B-B30D-2978F215F43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FFA7B-25BD-DC41-9310-D0927AB71B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" firstSheet="7" activeTab="22" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="8" activeTab="23" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,8 @@
     <sheet name="9.13.2021" sheetId="25" r:id="rId21"/>
     <sheet name="9.20.2021" sheetId="27" r:id="rId22"/>
     <sheet name="9.27.2021" sheetId="29" r:id="rId23"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId24"/>
+    <sheet name="10.04.2021" sheetId="30" r:id="rId24"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="250">
   <si>
     <t>Agent</t>
   </si>
@@ -789,6 +790,24 @@
   </si>
   <si>
     <t>orso</t>
+  </si>
+  <si>
+    <t>pyr151</t>
+  </si>
+  <si>
+    <t>Tommy’s boy</t>
+  </si>
+  <si>
+    <t>pyr152</t>
+  </si>
+  <si>
+    <t>Charlie Kennerly</t>
+  </si>
+  <si>
+    <t>Gabe Owes</t>
+  </si>
+  <si>
+    <t>haspaid</t>
   </si>
 </sst>
 </file>
@@ -2111,6 +2130,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965EE7EB-49CE-0D41-94C7-63914AE97A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="596900"/>
+          <a:ext cx="6921500" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9396,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2739710E-14F1-464B-A50D-878A173AA683}">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10321,6 +10389,732 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CA7AE-8493-2B44-A730-231869841FAA}">
+  <dimension ref="B3:P42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="129">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="138">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" thickBot="1">
+      <c r="B8" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="92">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1">
+      <c r="B17" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="104">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="104">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="104">
+        <v>544</v>
+      </c>
+      <c r="J20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20">
+        <v>1237</v>
+      </c>
+      <c r="N20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="104">
+        <v>692</v>
+      </c>
+      <c r="N21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="104">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22">
+        <f>K20-SUM(N20:N28)</f>
+        <v>442</v>
+      </c>
+      <c r="N22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="104">
+        <v>352</v>
+      </c>
+      <c r="J23">
+        <v>92</v>
+      </c>
+      <c r="N23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="104">
+        <v>26</v>
+      </c>
+      <c r="J24">
+        <f>SUM(J22:J23)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="104">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="104">
+        <v>158</v>
+      </c>
+      <c r="P27">
+        <f>SUM(N20:N22)</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="104">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="17" thickBot="1">
+      <c r="B29" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="107">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="123">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="123">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="123">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="123">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="123">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="123">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="123">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="123">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="17" thickBot="1">
+      <c r="B42" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="126">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I5:M42">
+    <sortCondition ref="I9:I42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -11694,30 +12488,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
@@ -11730,6 +12500,30 @@
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FFA7B-25BD-DC41-9310-D0927AB71B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63ECA9-7564-9A4D-AC08-A699B69B1146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="8" activeTab="23" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="24" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,8 @@
     <sheet name="9.20.2021" sheetId="27" r:id="rId22"/>
     <sheet name="9.27.2021" sheetId="29" r:id="rId23"/>
     <sheet name="10.04.2021" sheetId="30" r:id="rId24"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId25"/>
+    <sheet name="10.11.2021" sheetId="31" r:id="rId25"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="262">
   <si>
     <t>Agent</t>
   </si>
@@ -808,6 +809,42 @@
   </si>
   <si>
     <t>haspaid</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>pyr155</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>pyr156</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>pyr153</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>pyr149</t>
+  </si>
+  <si>
+    <t>ike baldwin</t>
+  </si>
+  <si>
+    <t>pyr154</t>
+  </si>
+  <si>
+    <t>craig gaver</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -2179,6 +2216,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17818282-200A-7345-9CD3-9F638833B6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="596900"/>
+          <a:ext cx="6908800" cy="2578100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10392,8 +10478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CA7AE-8493-2B44-A730-231869841FAA}">
   <dimension ref="B3:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11115,6 +11201,766 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4318EB-B2E9-A24B-89CD-D0B254A6856A}">
+  <dimension ref="B3:G46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="138">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="138">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="138">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17" thickBot="1">
+      <c r="B10" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="92">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="92">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="92">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="92">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="92">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" thickBot="1">
+      <c r="B19" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="104">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="104">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="104">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="104">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="104">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="104">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="104">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="104">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17" thickBot="1">
+      <c r="B30" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="123">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="123">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="123">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="123">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="123">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="123">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="123">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="123">
+        <v>303</v>
+      </c>
+      <c r="G41" s="142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="123">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="123">
+        <v>184</v>
+      </c>
+      <c r="G43" s="142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="123">
+        <v>70</v>
+      </c>
+      <c r="G45" s="142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="17" thickBot="1">
+      <c r="B46" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="126">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -12488,6 +13334,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
@@ -12500,30 +13370,6 @@
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63ECA9-7564-9A4D-AC08-A699B69B1146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645200EF-C111-A847-A6DE-6D006882E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="24" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="11" activeTab="25" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,8 @@
     <sheet name="9.27.2021" sheetId="29" r:id="rId23"/>
     <sheet name="10.04.2021" sheetId="30" r:id="rId24"/>
     <sheet name="10.11.2021" sheetId="31" r:id="rId25"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId26"/>
+    <sheet name="10.18.2021" sheetId="32" r:id="rId26"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="269">
   <si>
     <t>Agent</t>
   </si>
@@ -845,13 +846,34 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>pyr157</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Christian:</t>
+  </si>
+  <si>
+    <t>we each pay christian $16 total, $8 for kickbacks and $8 for 5 active players</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>remainder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,8 +950,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1753,6 +1787,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2254,6 +2294,55 @@
         <a:xfrm>
           <a:off x="5308600" y="596900"/>
           <a:ext cx="6908800" cy="2578100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2268D3C4-CC97-DC40-A89B-E236E0733203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6180667" y="1467555"/>
+          <a:ext cx="3886200" cy="1816100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11204,8 +11293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4318EB-B2E9-A24B-89CD-D0B254A6856A}">
   <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11961,6 +12050,929 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E9F75-CFC4-834B-91E8-E0F7C8A11E90}">
+  <dimension ref="B3:O49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="17" thickBot="1"/>
+    <row r="4" spans="2:15" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="216" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>235</v>
+      </c>
+      <c r="H5" s="216" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="138">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="138">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="138">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="92">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="92">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="92">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="92">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1">
+      <c r="B19" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="104">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="104">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="104">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="104">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="104">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="104">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="104">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="104">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="17" thickBot="1">
+      <c r="B32" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="107">
+        <v>111</v>
+      </c>
+      <c r="H32" s="218" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="123">
+        <v>57</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>57</v>
+      </c>
+      <c r="I33" s="219">
+        <f>F33-H33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="123">
+        <v>9</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34" s="219">
+        <f t="shared" ref="I34:I46" si="0">F34-H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="123">
+        <v>33</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="123">
+        <v>70</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+      <c r="I36" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="123">
+        <v>706</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37">
+        <v>706</v>
+      </c>
+      <c r="I37" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="123">
+        <v>197</v>
+      </c>
+      <c r="G38" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38">
+        <v>197</v>
+      </c>
+      <c r="I38" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="123">
+        <v>57</v>
+      </c>
+      <c r="G39" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39">
+        <v>57</v>
+      </c>
+      <c r="I39" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="123">
+        <v>940</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40">
+        <v>940</v>
+      </c>
+      <c r="I40" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="123">
+        <v>1364.4</v>
+      </c>
+      <c r="G41" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41">
+        <v>1364.4</v>
+      </c>
+      <c r="I41" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="123">
+        <v>741</v>
+      </c>
+      <c r="G42" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42">
+        <v>741</v>
+      </c>
+      <c r="I42" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="123">
+        <v>190</v>
+      </c>
+      <c r="G43" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43">
+        <v>190</v>
+      </c>
+      <c r="I43" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="123">
+        <v>92</v>
+      </c>
+      <c r="G44" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44">
+        <v>92</v>
+      </c>
+      <c r="I44" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="123">
+        <v>437</v>
+      </c>
+      <c r="G45" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45">
+        <v>437</v>
+      </c>
+      <c r="I45" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="17" thickBot="1">
+      <c r="B46" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="126">
+        <v>1012.5</v>
+      </c>
+      <c r="G46" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46">
+        <v>500</v>
+      </c>
+      <c r="I46" s="219">
+        <f t="shared" si="0"/>
+        <v>512.5</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49">
+        <f>SUM(I37:I46)</f>
+        <v>512.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -13334,30 +14346,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
@@ -13370,6 +14358,30 @@
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645200EF-C111-A847-A6DE-6D006882E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5F2D8-E93E-8D43-911C-DA95CB854E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="11" activeTab="25" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="26" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,8 @@
     <sheet name="10.04.2021" sheetId="30" r:id="rId24"/>
     <sheet name="10.11.2021" sheetId="31" r:id="rId25"/>
     <sheet name="10.18.2021" sheetId="32" r:id="rId26"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId27"/>
+    <sheet name="10.25.2021" sheetId="33" r:id="rId27"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="275">
   <si>
     <t>Agent</t>
   </si>
@@ -867,13 +868,31 @@
   </si>
   <si>
     <t>remainder</t>
+  </si>
+  <si>
+    <t>ok so -700 from monster teaser, -50 from 7 pick parlay, -250 from 7 point teaser, +500 from 13 point monster, -700 from virginia monster, +500 from penn st alternate, -750 from colts ml, -600 on bengals teaser, -250 on colts parlay, jags teaser is still alive</t>
+  </si>
+  <si>
+    <t>we each pay christian $21 total, $21 for kickbacks and $0 for 5 active players</t>
+  </si>
+  <si>
+    <t>amount paid</t>
+  </si>
+  <si>
+    <t>amount left</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Oustanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -949,6 +968,13 @@
       <color rgb="FF555555"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1535,10 +1561,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1787,17 +1814,35 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2211,16 +2256,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2243,7 +2288,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="596900"/>
+          <a:off x="5829300" y="711200"/>
           <a:ext cx="6921500" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2261,15 +2306,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>256822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>561622</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>121355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2292,8 +2337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5308600" y="596900"/>
-          <a:ext cx="6908800" cy="2578100"/>
+          <a:off x="5576711" y="656166"/>
+          <a:ext cx="6965244" cy="2513189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2309,16 +2354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28223</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>536223</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52211</xdr:rowOff>
+      <xdr:colOff>259645</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2341,7 +2386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6180667" y="1467555"/>
+          <a:off x="5856112" y="1312333"/>
           <a:ext cx="3886200" cy="1816100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2392,6 +2437,55 @@
         <a:xfrm>
           <a:off x="5943600" y="876300"/>
           <a:ext cx="3898900" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522111</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18906F41-9CDC-394F-8C72-7A461047165B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1169811"/>
+          <a:ext cx="3812823" cy="1842911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9639,7 +9733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2739710E-14F1-464B-A50D-878A173AA683}">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F40"/>
     </sheetView>
   </sheetViews>
@@ -10567,8 +10661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CA7AE-8493-2B44-A730-231869841FAA}">
   <dimension ref="B3:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12051,15 +12145,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E9F75-CFC4-834B-91E8-E0F7C8A11E90}">
-  <dimension ref="B3:O49"/>
+  <dimension ref="B3:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="17" thickBot="1"/>
@@ -12304,7 +12399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:13">
       <c r="B17" s="90" t="s">
         <v>17</v>
       </c>
@@ -12321,7 +12416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:13">
       <c r="B18" s="90" t="s">
         <v>17</v>
       </c>
@@ -12338,7 +12433,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17" thickBot="1">
+    <row r="19" spans="2:13" ht="17" thickBot="1">
       <c r="B19" s="93" t="s">
         <v>17</v>
       </c>
@@ -12355,7 +12450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:13">
       <c r="B20" s="102" t="s">
         <v>27</v>
       </c>
@@ -12372,7 +12467,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:13">
       <c r="B21" s="102" t="s">
         <v>27</v>
       </c>
@@ -12388,8 +12483,11 @@
       <c r="F21" s="104">
         <v>364</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="M21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="102" t="s">
         <v>27</v>
       </c>
@@ -12406,7 +12504,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:13">
       <c r="B23" s="102" t="s">
         <v>27</v>
       </c>
@@ -12423,7 +12521,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:13">
       <c r="B24" s="102" t="s">
         <v>27</v>
       </c>
@@ -12440,7 +12538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:13">
       <c r="B25" s="102" t="s">
         <v>27</v>
       </c>
@@ -12457,7 +12555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:13">
       <c r="B26" s="102" t="s">
         <v>27</v>
       </c>
@@ -12474,7 +12572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:13">
       <c r="B27" s="102" t="s">
         <v>27</v>
       </c>
@@ -12491,7 +12589,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:13">
       <c r="B28" s="102" t="s">
         <v>27</v>
       </c>
@@ -12508,7 +12606,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:13">
       <c r="B29" s="102" t="s">
         <v>27</v>
       </c>
@@ -12525,7 +12623,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:13">
       <c r="B30" s="102" t="s">
         <v>27</v>
       </c>
@@ -12542,7 +12640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:13">
       <c r="B31" s="102" t="s">
         <v>27</v>
       </c>
@@ -12559,7 +12657,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="17" thickBot="1">
+    <row r="32" spans="2:13" ht="17" thickBot="1">
       <c r="B32" s="105" t="s">
         <v>27</v>
       </c>
@@ -12582,7 +12680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:13">
       <c r="B33" s="122" t="s">
         <v>40</v>
       </c>
@@ -12609,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:13">
       <c r="B34" s="122" t="s">
         <v>40</v>
       </c>
@@ -12636,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:13">
       <c r="B35" s="122" t="s">
         <v>40</v>
       </c>
@@ -12663,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:13">
       <c r="B36" s="122" t="s">
         <v>40</v>
       </c>
@@ -12690,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:13">
       <c r="B37" s="122" t="s">
         <v>40</v>
       </c>
@@ -12716,8 +12814,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="M37">
+        <f>190-300</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="122" t="s">
         <v>40</v>
       </c>
@@ -12743,8 +12845,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="M38">
+        <f>-450+158</f>
+        <v>-292</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="122" t="s">
         <v>40</v>
       </c>
@@ -12771,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:13">
       <c r="B40" s="122" t="s">
         <v>40</v>
       </c>
@@ -12798,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:13">
       <c r="B41" s="122" t="s">
         <v>40</v>
       </c>
@@ -12825,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:13">
       <c r="B42" s="122" t="s">
         <v>40</v>
       </c>
@@ -12852,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:13">
       <c r="B43" s="122" t="s">
         <v>40</v>
       </c>
@@ -12879,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:13">
       <c r="B44" s="122" t="s">
         <v>40</v>
       </c>
@@ -12906,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:13">
       <c r="B45" s="122" t="s">
         <v>40</v>
       </c>
@@ -12933,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="17" thickBot="1">
+    <row r="46" spans="2:13" ht="17" thickBot="1">
       <c r="B46" s="124" t="s">
         <v>40</v>
       </c>
@@ -12953,17 +13059,28 @@
         <v>261</v>
       </c>
       <c r="H46">
-        <v>500</v>
+        <v>1012.5</v>
       </c>
       <c r="I46" s="219">
         <f t="shared" si="0"/>
-        <v>512.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="12:12">
       <c r="L49">
         <f>SUM(I37:I46)</f>
-        <v>512.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" ht="409.6">
+      <c r="N70" s="220" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78">
+        <f>-700-50-250+500-700+500-750-600-250</f>
+        <v>-2300</v>
       </c>
     </row>
   </sheetData>
@@ -12973,6 +13090,916 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
+  <dimension ref="B3:P44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="17" thickBot="1"/>
+    <row r="4" spans="2:16" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="221" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>130</v>
+      </c>
+      <c r="H5" s="221" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1">
+      <c r="B7" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="132">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="111">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="92">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="92">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="92">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="92">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1">
+      <c r="B18" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="95">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="101">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="104">
+        <v>0</v>
+      </c>
+      <c r="O20" s="223">
+        <f>3237/5208</f>
+        <v>0.62154377880184331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="104">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="104">
+        <v>1269.9000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="104">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="104">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="104">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="104">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="104">
+        <v>315</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P28">
+        <f>1481/5208</f>
+        <v>0.28437019969278032</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="104">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <f>SUM(I31:I44)</f>
+        <v>3839.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="17" thickBot="1">
+      <c r="B30" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="107">
+        <v>1083.5999999999999</v>
+      </c>
+      <c r="G30" s="218" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="218" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="135">
+        <v>138</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31">
+        <v>138</v>
+      </c>
+      <c r="I31">
+        <f>IF(C31="Pay",H31-F31,F31-H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="123">
+        <v>351</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32">
+        <v>351</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I44" si="0">IF(C32="Pay",H32-F32,F32-H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="123">
+        <v>257</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>257</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="123">
+        <v>446</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34">
+        <v>446</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="123">
+        <v>837</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="123">
+        <v>500</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="123">
+        <v>81</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="123">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="123">
+        <v>598</v>
+      </c>
+      <c r="G39" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39">
+        <v>598</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="123">
+        <v>2853.9</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40">
+        <v>2853.9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="123">
+        <v>378</v>
+      </c>
+      <c r="G41" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41">
+        <v>378</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="123">
+        <v>811</v>
+      </c>
+      <c r="G42" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42">
+        <v>811</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="123">
+        <v>914</v>
+      </c>
+      <c r="G43" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43">
+        <v>914</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="17" thickBot="1">
+      <c r="B44" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="126">
+        <v>1502.1</v>
+      </c>
+      <c r="G44" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1502.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G31:G44">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="c">
+      <formula>NOT(ISERROR(SEARCH("c",G31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5F2D8-E93E-8D43-911C-DA95CB854E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB280C-8D9C-114F-B4D2-B1F91C6D1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="26" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="27" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,8 @@
     <sheet name="10.11.2021" sheetId="31" r:id="rId25"/>
     <sheet name="10.18.2021" sheetId="32" r:id="rId26"/>
     <sheet name="10.25.2021" sheetId="33" r:id="rId27"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId28"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId28"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3559" uniqueCount="440">
   <si>
     <t>Agent</t>
   </si>
@@ -886,13 +887,508 @@
   </si>
   <si>
     <t>Oustanding</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Current Balance</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Available Balance</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Credit Limit</t>
+  </si>
+  <si>
+    <t>Max / Min Wager Web</t>
+  </si>
+  <si>
+    <t>Max / Min Wager Phone</t>
+  </si>
+  <si>
+    <t>Last Wager</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Sport / Casino / Race</t>
+  </si>
+  <si>
+    <t>PYR101</t>
+  </si>
+  <si>
+    <t>betatwork</t>
+  </si>
+  <si>
+    <t>500 / 25</t>
+  </si>
+  <si>
+    <t>No Info</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>YesYesYes</t>
+  </si>
+  <si>
+    <t>madridsuck</t>
+  </si>
+  <si>
+    <t>acct_frz</t>
+  </si>
+  <si>
+    <t>300 / 10</t>
+  </si>
+  <si>
+    <t>800 / 10</t>
+  </si>
+  <si>
+    <t>eric123</t>
+  </si>
+  <si>
+    <t>max1</t>
+  </si>
+  <si>
+    <t>500 / 10</t>
+  </si>
+  <si>
+    <t>gata123</t>
+  </si>
+  <si>
+    <t>750 / 10</t>
+  </si>
+  <si>
+    <t>reddevils7</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>250 / 10</t>
+  </si>
+  <si>
+    <t>YesNoYes</t>
+  </si>
+  <si>
+    <t>godawgs</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>david1</t>
+  </si>
+  <si>
+    <t>nico1</t>
+  </si>
+  <si>
+    <t>xmarcos</t>
+  </si>
+  <si>
+    <t>350 / 10</t>
+  </si>
+  <si>
+    <t>gogata1</t>
+  </si>
+  <si>
+    <t>509 / 10</t>
+  </si>
+  <si>
+    <t>parlaylock</t>
+  </si>
+  <si>
+    <t>stewart1</t>
+  </si>
+  <si>
+    <t>aruenes</t>
+  </si>
+  <si>
+    <t>400 / 10</t>
+  </si>
+  <si>
+    <t>gobucs</t>
+  </si>
+  <si>
+    <t>zane</t>
+  </si>
+  <si>
+    <t>gp123</t>
+  </si>
+  <si>
+    <t>259 / 10</t>
+  </si>
+  <si>
+    <t>PYR121</t>
+  </si>
+  <si>
+    <t>sports123</t>
+  </si>
+  <si>
+    <t>PYR122</t>
+  </si>
+  <si>
+    <t>natty5567</t>
+  </si>
+  <si>
+    <t>PYR123</t>
+  </si>
+  <si>
+    <t>gobolts</t>
+  </si>
+  <si>
+    <t>PYR124</t>
+  </si>
+  <si>
+    <t>dres1</t>
+  </si>
+  <si>
+    <t>PYR125</t>
+  </si>
+  <si>
+    <t>grieves125</t>
+  </si>
+  <si>
+    <t>PYR126</t>
+  </si>
+  <si>
+    <t>justin1</t>
+  </si>
+  <si>
+    <t>PYR127</t>
+  </si>
+  <si>
+    <t>PYR128</t>
+  </si>
+  <si>
+    <t>brad123</t>
+  </si>
+  <si>
+    <t>PYR129</t>
+  </si>
+  <si>
+    <t>wagner1</t>
+  </si>
+  <si>
+    <t>PYR130</t>
+  </si>
+  <si>
+    <t>verlander3</t>
+  </si>
+  <si>
+    <t>PYR131</t>
+  </si>
+  <si>
+    <t>sly</t>
+  </si>
+  <si>
+    <t>PYR132</t>
+  </si>
+  <si>
+    <t>siva1</t>
+  </si>
+  <si>
+    <t>PYR133</t>
+  </si>
+  <si>
+    <t>h6n9j7m</t>
+  </si>
+  <si>
+    <t>YesNoNo</t>
+  </si>
+  <si>
+    <t>PYR134</t>
+  </si>
+  <si>
+    <t>kevin123</t>
+  </si>
+  <si>
+    <t>PYR135</t>
+  </si>
+  <si>
+    <t>alex1</t>
+  </si>
+  <si>
+    <t>PYR136</t>
+  </si>
+  <si>
+    <t>welcome1</t>
+  </si>
+  <si>
+    <t>PYR137</t>
+  </si>
+  <si>
+    <t>zach1</t>
+  </si>
+  <si>
+    <t>PYR138</t>
+  </si>
+  <si>
+    <t>kaz 1</t>
+  </si>
+  <si>
+    <t>PYR139</t>
+  </si>
+  <si>
+    <t>how01</t>
+  </si>
+  <si>
+    <t>200 / 10</t>
+  </si>
+  <si>
+    <t>PYR140</t>
+  </si>
+  <si>
+    <t>pat1</t>
+  </si>
+  <si>
+    <t>PYR141</t>
+  </si>
+  <si>
+    <t>luc1</t>
+  </si>
+  <si>
+    <t>PYR142</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PYR143</t>
+  </si>
+  <si>
+    <t>cary1</t>
+  </si>
+  <si>
+    <t>PYR144</t>
+  </si>
+  <si>
+    <t>logan1</t>
+  </si>
+  <si>
+    <t>PYR145</t>
+  </si>
+  <si>
+    <t>rrojas</t>
+  </si>
+  <si>
+    <t>PYR146</t>
+  </si>
+  <si>
+    <t>keenan1</t>
+  </si>
+  <si>
+    <t>PYR147</t>
+  </si>
+  <si>
+    <t>owen1</t>
+  </si>
+  <si>
+    <t>PYR148</t>
+  </si>
+  <si>
+    <t>wass1</t>
+  </si>
+  <si>
+    <t>PYR149</t>
+  </si>
+  <si>
+    <t>iball69</t>
+  </si>
+  <si>
+    <t>PYR150</t>
+  </si>
+  <si>
+    <t>nmiller</t>
+  </si>
+  <si>
+    <t>PYR151</t>
+  </si>
+  <si>
+    <t>gogata123</t>
+  </si>
+  <si>
+    <t>PYR152</t>
+  </si>
+  <si>
+    <t>brownie1</t>
+  </si>
+  <si>
+    <t>PYR153</t>
+  </si>
+  <si>
+    <t>bennett1</t>
+  </si>
+  <si>
+    <t>PYR154</t>
+  </si>
+  <si>
+    <t>PYR155</t>
+  </si>
+  <si>
+    <t>tyler1</t>
+  </si>
+  <si>
+    <t>PYR156</t>
+  </si>
+  <si>
+    <t>quentin1</t>
+  </si>
+  <si>
+    <t>PYR157</t>
+  </si>
+  <si>
+    <t>gogata15</t>
+  </si>
+  <si>
+    <t>PYR158</t>
+  </si>
+  <si>
+    <t>jax123</t>
+  </si>
+  <si>
+    <t>PYR159</t>
+  </si>
+  <si>
+    <t>PYR160</t>
+  </si>
+  <si>
+    <t>Trevor Jax</t>
+  </si>
+  <si>
+    <t>Brother! Great news. We’ve changed platforms to a sick new website. More lines, better user experience, and overall upgraded live betting. /n You have the same username/password. Your future bets are already converted to the new site.</t>
+  </si>
+  <si>
+    <t>As a reminder your username/password is as follows:</t>
+  </si>
+  <si>
+    <t>website: allaction365.net</t>
+  </si>
+  <si>
+    <t>username: pyr103</t>
+  </si>
+  <si>
+    <t>Lastly, we are giving out free $50 straight bet for the the minor inconvenience of the switch.</t>
+  </si>
+  <si>
+    <t>username: pyr105</t>
+  </si>
+  <si>
+    <t>password: max1</t>
+  </si>
+  <si>
+    <t>username: pyr116</t>
+  </si>
+  <si>
+    <t>password: stewart1</t>
+  </si>
+  <si>
+    <t>username: pyr124</t>
+  </si>
+  <si>
+    <t>password: dres1</t>
+  </si>
+  <si>
+    <t>username: pyr125</t>
+  </si>
+  <si>
+    <t>password: grieves125</t>
+  </si>
+  <si>
+    <t>username: pyr126</t>
+  </si>
+  <si>
+    <t>password: justin1</t>
+  </si>
+  <si>
+    <t>username: pyr128</t>
+  </si>
+  <si>
+    <t>password: brad123</t>
+  </si>
+  <si>
+    <t>username: pyr129</t>
+  </si>
+  <si>
+    <t>password: wagner1</t>
+  </si>
+  <si>
+    <t>username: pyr133</t>
+  </si>
+  <si>
+    <t>password: h6n9j7m</t>
+  </si>
+  <si>
+    <t>username: pyr141</t>
+  </si>
+  <si>
+    <t>password: luc1</t>
+  </si>
+  <si>
+    <t>username: pyr142</t>
+  </si>
+  <si>
+    <t>password: open</t>
+  </si>
+  <si>
+    <t>username: pyr144</t>
+  </si>
+  <si>
+    <t>password: logan1</t>
+  </si>
+  <si>
+    <t>username: pyr147</t>
+  </si>
+  <si>
+    <t>password: owen1</t>
+  </si>
+  <si>
+    <t>username: pyr148</t>
+  </si>
+  <si>
+    <t>password: wass1</t>
+  </si>
+  <si>
+    <t>username: pyr149</t>
+  </si>
+  <si>
+    <t>password: iball69</t>
+  </si>
+  <si>
+    <t>username: pyr152</t>
+  </si>
+  <si>
+    <t>password: brownie1</t>
+  </si>
+  <si>
+    <t>username: pyr153</t>
+  </si>
+  <si>
+    <t>password: bennett1</t>
+  </si>
+  <si>
+    <t>username: pyr154</t>
+  </si>
+  <si>
+    <t>password: freeze</t>
+  </si>
+  <si>
+    <t>password:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,6 +1477,27 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1565,7 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1826,6 +2343,12 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13093,8 +13616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
   <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14000,6 +14523,2981 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
+  <dimension ref="B3:Q146"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" s="224" customFormat="1" ht="19">
+      <c r="B3" s="225" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="225" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="225" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="225" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="225" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="225" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="225" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="225" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="225" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="225" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="225" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="225" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="225" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="224" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="17">
+      <c r="B4" s="229" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="226" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="226">
+        <v>1</v>
+      </c>
+      <c r="E4" s="226">
+        <v>0</v>
+      </c>
+      <c r="F4" s="226">
+        <v>0</v>
+      </c>
+      <c r="G4" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="226">
+        <v>-200</v>
+      </c>
+      <c r="I4" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="226" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17">
+      <c r="B5" s="229" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="226" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="226" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="226">
+        <v>0</v>
+      </c>
+      <c r="F5" s="226">
+        <v>0</v>
+      </c>
+      <c r="G5" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="226">
+        <v>-416</v>
+      </c>
+      <c r="I5" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M5" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="17">
+      <c r="B6" s="229" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="226" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="226" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="226">
+        <v>0</v>
+      </c>
+      <c r="F6" s="226">
+        <v>0</v>
+      </c>
+      <c r="G6" s="227">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="227">
+        <v>-5127</v>
+      </c>
+      <c r="I6" s="227">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="228">
+        <v>44357</v>
+      </c>
+      <c r="M6" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="17">
+      <c r="B7" s="229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="226" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="226" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="226">
+        <v>56</v>
+      </c>
+      <c r="F7" s="226">
+        <v>96</v>
+      </c>
+      <c r="G7" s="226">
+        <v>960</v>
+      </c>
+      <c r="H7" s="227">
+        <v>-3015</v>
+      </c>
+      <c r="I7" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="226" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M7" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="17">
+      <c r="B8" s="229" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="226" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="226">
+        <v>-30</v>
+      </c>
+      <c r="F8" s="226">
+        <v>215</v>
+      </c>
+      <c r="G8" s="226">
+        <v>505</v>
+      </c>
+      <c r="H8" s="227">
+        <v>-1388</v>
+      </c>
+      <c r="I8" s="226">
+        <v>750</v>
+      </c>
+      <c r="J8" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M8" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="17">
+      <c r="B9" s="229" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="226" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="226" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="226">
+        <v>0</v>
+      </c>
+      <c r="F9" s="226">
+        <v>280</v>
+      </c>
+      <c r="G9" s="227">
+        <v>1020</v>
+      </c>
+      <c r="H9" s="227">
+        <v>1232</v>
+      </c>
+      <c r="I9" s="227">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="L9" s="228">
+        <v>44498</v>
+      </c>
+      <c r="M9" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17">
+      <c r="B10" s="229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="226" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="226">
+        <v>-170</v>
+      </c>
+      <c r="F10" s="227">
+        <v>2380</v>
+      </c>
+      <c r="G10" s="227">
+        <v>1250</v>
+      </c>
+      <c r="H10" s="227">
+        <v>-13088</v>
+      </c>
+      <c r="I10" s="227">
+        <v>3800</v>
+      </c>
+      <c r="J10" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M10" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17">
+      <c r="B11" s="229" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="226" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="226">
+        <v>0</v>
+      </c>
+      <c r="F11" s="226">
+        <v>0</v>
+      </c>
+      <c r="G11" s="227">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="227">
+        <v>-4135</v>
+      </c>
+      <c r="I11" s="227">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="228">
+        <v>44383</v>
+      </c>
+      <c r="M11" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17">
+      <c r="B12" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="226" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="226">
+        <v>0</v>
+      </c>
+      <c r="F12" s="226">
+        <v>900</v>
+      </c>
+      <c r="G12" s="226">
+        <v>850</v>
+      </c>
+      <c r="H12" s="226">
+        <v>-398</v>
+      </c>
+      <c r="I12" s="227">
+        <v>1750</v>
+      </c>
+      <c r="J12" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M12" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17">
+      <c r="B13" s="229" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="226" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="226" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="226">
+        <v>-595</v>
+      </c>
+      <c r="F13" s="226">
+        <v>200</v>
+      </c>
+      <c r="G13" s="227">
+        <v>1955</v>
+      </c>
+      <c r="H13" s="227">
+        <v>-2932</v>
+      </c>
+      <c r="I13" s="227">
+        <v>2750</v>
+      </c>
+      <c r="J13" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M13" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17">
+      <c r="B14" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="226" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="226">
+        <v>0</v>
+      </c>
+      <c r="F14" s="226">
+        <v>0</v>
+      </c>
+      <c r="G14" s="226">
+        <v>300</v>
+      </c>
+      <c r="H14" s="226">
+        <v>-64</v>
+      </c>
+      <c r="I14" s="226">
+        <v>300</v>
+      </c>
+      <c r="J14" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="228">
+        <v>44458</v>
+      </c>
+      <c r="M14" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17">
+      <c r="B15" s="229" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="226" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="226" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="226">
+        <v>0</v>
+      </c>
+      <c r="F15" s="226">
+        <v>90</v>
+      </c>
+      <c r="G15" s="226">
+        <v>410</v>
+      </c>
+      <c r="H15" s="227">
+        <v>1341</v>
+      </c>
+      <c r="I15" s="226">
+        <v>500</v>
+      </c>
+      <c r="J15" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L15" s="228">
+        <v>44486</v>
+      </c>
+      <c r="M15" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17">
+      <c r="B16" s="229" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="226" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="226" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="226">
+        <v>0</v>
+      </c>
+      <c r="F16" s="226">
+        <v>0</v>
+      </c>
+      <c r="G16" s="226">
+        <v>750</v>
+      </c>
+      <c r="H16" s="226">
+        <v>964</v>
+      </c>
+      <c r="I16" s="226">
+        <v>750</v>
+      </c>
+      <c r="J16" s="226" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="226" t="s">
+        <v>310</v>
+      </c>
+      <c r="L16" s="228">
+        <v>44486</v>
+      </c>
+      <c r="M16" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17">
+      <c r="B17" s="229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="226" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="226">
+        <v>-170</v>
+      </c>
+      <c r="F17" s="226">
+        <v>238</v>
+      </c>
+      <c r="G17" s="226">
+        <v>992</v>
+      </c>
+      <c r="H17" s="227">
+        <v>-2262</v>
+      </c>
+      <c r="I17" s="227">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="226" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M17" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17">
+      <c r="B18" s="229" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="226" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="226">
+        <v>0</v>
+      </c>
+      <c r="F18" s="226">
+        <v>230</v>
+      </c>
+      <c r="G18" s="226">
+        <v>570</v>
+      </c>
+      <c r="H18" s="227">
+        <v>-3854</v>
+      </c>
+      <c r="I18" s="226">
+        <v>800</v>
+      </c>
+      <c r="J18" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M18" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17">
+      <c r="B19" s="229" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="226" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="226" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="226">
+        <v>-21</v>
+      </c>
+      <c r="F19" s="226">
+        <v>25</v>
+      </c>
+      <c r="G19" s="226">
+        <v>454</v>
+      </c>
+      <c r="H19" s="226">
+        <v>-146</v>
+      </c>
+      <c r="I19" s="226">
+        <v>500</v>
+      </c>
+      <c r="J19" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M19" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17">
+      <c r="B20" s="229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="226" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="226" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="226">
+        <v>0</v>
+      </c>
+      <c r="F20" s="226">
+        <v>0</v>
+      </c>
+      <c r="G20" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="226">
+        <v>-110</v>
+      </c>
+      <c r="I20" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M20" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17">
+      <c r="B21" s="229" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="226" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="226" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="226">
+        <v>0</v>
+      </c>
+      <c r="F21" s="226">
+        <v>755</v>
+      </c>
+      <c r="G21" s="227">
+        <v>1245</v>
+      </c>
+      <c r="H21" s="227">
+        <v>-5515</v>
+      </c>
+      <c r="I21" s="227">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="K21" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="L21" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M21" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17">
+      <c r="B22" s="229" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="226" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="226" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="226">
+        <v>0</v>
+      </c>
+      <c r="F22" s="226">
+        <v>0</v>
+      </c>
+      <c r="G22" s="226">
+        <v>500</v>
+      </c>
+      <c r="H22" s="226">
+        <v>-440</v>
+      </c>
+      <c r="I22" s="226">
+        <v>500</v>
+      </c>
+      <c r="J22" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L22" s="228">
+        <v>44430</v>
+      </c>
+      <c r="M22" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17">
+      <c r="B23" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="226" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="226" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="226">
+        <v>0</v>
+      </c>
+      <c r="F23" s="226">
+        <v>0</v>
+      </c>
+      <c r="G23" s="226">
+        <v>500</v>
+      </c>
+      <c r="H23" s="226">
+        <v>-819</v>
+      </c>
+      <c r="I23" s="226">
+        <v>500</v>
+      </c>
+      <c r="J23" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L23" s="228">
+        <v>44478</v>
+      </c>
+      <c r="M23" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="17">
+      <c r="B24" s="229" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="226" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="226" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="226">
+        <v>0</v>
+      </c>
+      <c r="F24" s="226">
+        <v>0</v>
+      </c>
+      <c r="G24" s="226">
+        <v>500</v>
+      </c>
+      <c r="H24" s="227">
+        <v>-1532</v>
+      </c>
+      <c r="I24" s="226">
+        <v>500</v>
+      </c>
+      <c r="J24" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M24" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N24" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="17">
+      <c r="B25" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="226" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="226">
+        <v>0</v>
+      </c>
+      <c r="F25" s="226">
+        <v>0</v>
+      </c>
+      <c r="G25" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="226">
+        <v>-411</v>
+      </c>
+      <c r="I25" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M25" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N25" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="17">
+      <c r="B26" s="229" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="226" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="226">
+        <v>45</v>
+      </c>
+      <c r="F26" s="226">
+        <v>0</v>
+      </c>
+      <c r="G26" s="226">
+        <v>795</v>
+      </c>
+      <c r="H26" s="227">
+        <v>-10091</v>
+      </c>
+      <c r="I26" s="226">
+        <v>750</v>
+      </c>
+      <c r="J26" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="226" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M26" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N26" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17">
+      <c r="B27" s="229" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="226" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="226" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="226">
+        <v>0</v>
+      </c>
+      <c r="F27" s="226">
+        <v>0</v>
+      </c>
+      <c r="G27" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="227">
+        <v>-2169</v>
+      </c>
+      <c r="I27" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K27" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L27" s="228">
+        <v>44483</v>
+      </c>
+      <c r="M27" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N27" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="17">
+      <c r="B28" s="229" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="226">
+        <v>-60</v>
+      </c>
+      <c r="F28" s="226">
+        <v>940</v>
+      </c>
+      <c r="G28" s="226">
+        <v>0</v>
+      </c>
+      <c r="H28" s="227">
+        <v>-9189</v>
+      </c>
+      <c r="I28" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K28" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M28" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N28" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="17">
+      <c r="B29" s="229" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="226" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="226" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="226">
+        <v>-629</v>
+      </c>
+      <c r="F29" s="226">
+        <v>0</v>
+      </c>
+      <c r="G29" s="226">
+        <v>871</v>
+      </c>
+      <c r="H29" s="227">
+        <v>-3665</v>
+      </c>
+      <c r="I29" s="227">
+        <v>1500</v>
+      </c>
+      <c r="J29" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M29" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N29" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="17">
+      <c r="B30" s="229" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="226" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="226">
+        <v>0</v>
+      </c>
+      <c r="F30" s="226">
+        <v>160</v>
+      </c>
+      <c r="G30" s="226">
+        <v>340</v>
+      </c>
+      <c r="H30" s="226">
+        <v>-52</v>
+      </c>
+      <c r="I30" s="226">
+        <v>500</v>
+      </c>
+      <c r="J30" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K30" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L30" s="228">
+        <v>44492</v>
+      </c>
+      <c r="M30" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N30" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="17">
+      <c r="B31" s="229" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="226" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="226" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="226">
+        <v>0</v>
+      </c>
+      <c r="F31" s="226">
+        <v>0</v>
+      </c>
+      <c r="G31" s="226">
+        <v>500</v>
+      </c>
+      <c r="H31" s="227">
+        <v>-2448</v>
+      </c>
+      <c r="I31" s="226">
+        <v>500</v>
+      </c>
+      <c r="J31" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M31" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N31" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="17">
+      <c r="B32" s="229" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="226" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="226" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="226">
+        <v>0</v>
+      </c>
+      <c r="F32" s="226">
+        <v>0</v>
+      </c>
+      <c r="G32" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="226">
+        <v>-58</v>
+      </c>
+      <c r="I32" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" s="228">
+        <v>44499</v>
+      </c>
+      <c r="M32" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N32" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="17">
+      <c r="B33" s="229" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="226" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="226" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="226">
+        <v>0</v>
+      </c>
+      <c r="F33" s="226">
+        <v>0</v>
+      </c>
+      <c r="G33" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="226">
+        <v>381</v>
+      </c>
+      <c r="I33" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M33" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N33" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="17">
+      <c r="B34" s="229" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="226" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="226" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="226">
+        <v>0</v>
+      </c>
+      <c r="F34" s="226">
+        <v>0</v>
+      </c>
+      <c r="G34" s="226">
+        <v>500</v>
+      </c>
+      <c r="H34" s="227">
+        <v>-6696</v>
+      </c>
+      <c r="I34" s="226">
+        <v>500</v>
+      </c>
+      <c r="J34" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" s="228">
+        <v>44496</v>
+      </c>
+      <c r="M34" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="17">
+      <c r="B35" s="229" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="226" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="226" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="226">
+        <v>0</v>
+      </c>
+      <c r="F35" s="226">
+        <v>0</v>
+      </c>
+      <c r="G35" s="226">
+        <v>900</v>
+      </c>
+      <c r="H35" s="227">
+        <v>-1237</v>
+      </c>
+      <c r="I35" s="226">
+        <v>900</v>
+      </c>
+      <c r="J35" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" s="228">
+        <v>44443</v>
+      </c>
+      <c r="M35" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N35" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="17">
+      <c r="B36" s="229" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="226" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="226">
+        <v>0</v>
+      </c>
+      <c r="F36" s="226">
+        <v>0</v>
+      </c>
+      <c r="G36" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="227">
+        <v>-8354</v>
+      </c>
+      <c r="I36" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" s="228">
+        <v>44499</v>
+      </c>
+      <c r="M36" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N36" s="226" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="17">
+      <c r="B37" s="229" t="s">
+        <v>347</v>
+      </c>
+      <c r="C37" s="226" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="226">
+        <v>-104</v>
+      </c>
+      <c r="F37" s="226">
+        <v>240</v>
+      </c>
+      <c r="G37" s="226">
+        <v>156</v>
+      </c>
+      <c r="H37" s="226">
+        <v>-48</v>
+      </c>
+      <c r="I37" s="226">
+        <v>500</v>
+      </c>
+      <c r="J37" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M37" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N37" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="17">
+      <c r="B38" s="229" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="226" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="226" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="226">
+        <v>0</v>
+      </c>
+      <c r="F38" s="226">
+        <v>0</v>
+      </c>
+      <c r="G38" s="226">
+        <v>500</v>
+      </c>
+      <c r="H38" s="226">
+        <v>-11</v>
+      </c>
+      <c r="I38" s="226">
+        <v>500</v>
+      </c>
+      <c r="J38" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" s="228">
+        <v>44462</v>
+      </c>
+      <c r="M38" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N38" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="17">
+      <c r="B39" s="229" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="226" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="226" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="226">
+        <v>0</v>
+      </c>
+      <c r="F39" s="226">
+        <v>35</v>
+      </c>
+      <c r="G39" s="226">
+        <v>465</v>
+      </c>
+      <c r="H39" s="227">
+        <v>-2861</v>
+      </c>
+      <c r="I39" s="226">
+        <v>500</v>
+      </c>
+      <c r="J39" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M39" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N39" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="17">
+      <c r="B40" s="229" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="226" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="226" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="226">
+        <v>0</v>
+      </c>
+      <c r="F40" s="226">
+        <v>50</v>
+      </c>
+      <c r="G40" s="226">
+        <v>450</v>
+      </c>
+      <c r="H40" s="227">
+        <v>-1184</v>
+      </c>
+      <c r="I40" s="226">
+        <v>500</v>
+      </c>
+      <c r="J40" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M40" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N40" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="17">
+      <c r="B41" s="229" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="226" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="226" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="226">
+        <v>0</v>
+      </c>
+      <c r="F41" s="226">
+        <v>20</v>
+      </c>
+      <c r="G41" s="227">
+        <v>2480</v>
+      </c>
+      <c r="H41" s="226">
+        <v>21</v>
+      </c>
+      <c r="I41" s="227">
+        <v>2500</v>
+      </c>
+      <c r="J41" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M41" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N41" s="226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="17">
+      <c r="B42" s="229" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="226" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="226">
+        <v>0</v>
+      </c>
+      <c r="F42" s="226">
+        <v>0</v>
+      </c>
+      <c r="G42" s="226">
+        <v>200</v>
+      </c>
+      <c r="H42" s="226">
+        <v>-358</v>
+      </c>
+      <c r="I42" s="226">
+        <v>200</v>
+      </c>
+      <c r="J42" s="226" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" s="226" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" s="228">
+        <v>44500</v>
+      </c>
+      <c r="M42" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N42" s="226" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="17">
+      <c r="B43" s="229" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="226" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="226" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="226">
+        <v>-36</v>
+      </c>
+      <c r="F43" s="226">
+        <v>387</v>
+      </c>
+      <c r="G43" s="226">
+        <v>577</v>
+      </c>
+      <c r="H43" s="226">
+        <v>-997</v>
+      </c>
+      <c r="I43" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M43" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N43" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="17">
+      <c r="B44" s="229" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" s="226" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="226" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="226">
+        <v>-35</v>
+      </c>
+      <c r="F44" s="226">
+        <v>75</v>
+      </c>
+      <c r="G44" s="226">
+        <v>890</v>
+      </c>
+      <c r="H44" s="226">
+        <v>-240</v>
+      </c>
+      <c r="I44" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K44" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M44" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N44" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="17">
+      <c r="B45" s="229" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="226" t="s">
+        <v>365</v>
+      </c>
+      <c r="D45" s="226" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="226">
+        <v>0</v>
+      </c>
+      <c r="F45" s="226">
+        <v>0</v>
+      </c>
+      <c r="G45" s="227">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="227">
+        <v>-2888</v>
+      </c>
+      <c r="I45" s="227">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L45" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M45" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N45" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="17">
+      <c r="B46" s="229" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="226" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="226" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="226">
+        <v>48</v>
+      </c>
+      <c r="F46" s="226">
+        <v>270</v>
+      </c>
+      <c r="G46" s="227">
+        <v>1778</v>
+      </c>
+      <c r="H46" s="227">
+        <v>-4616</v>
+      </c>
+      <c r="I46" s="227">
+        <v>2000</v>
+      </c>
+      <c r="J46" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M46" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N46" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="17">
+      <c r="B47" s="229" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="226" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="226" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="226">
+        <v>-521</v>
+      </c>
+      <c r="F47" s="226">
+        <v>285</v>
+      </c>
+      <c r="G47" s="226">
+        <v>194</v>
+      </c>
+      <c r="H47" s="226">
+        <v>43</v>
+      </c>
+      <c r="I47" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M47" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="17">
+      <c r="B48" s="229" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" s="226" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="226">
+        <v>0</v>
+      </c>
+      <c r="F48" s="226">
+        <v>0</v>
+      </c>
+      <c r="G48" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="226">
+        <v>-68</v>
+      </c>
+      <c r="I48" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="228">
+        <v>44490</v>
+      </c>
+      <c r="M48" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N48" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="17">
+      <c r="B49" s="229" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="226" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="226" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="226">
+        <v>0</v>
+      </c>
+      <c r="F49" s="226">
+        <v>0</v>
+      </c>
+      <c r="G49" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="226">
+        <v>454</v>
+      </c>
+      <c r="I49" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K49" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L49" s="228">
+        <v>44499</v>
+      </c>
+      <c r="M49" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N49" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="17">
+      <c r="B50" s="229" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" s="226" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="226" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="226">
+        <v>-9</v>
+      </c>
+      <c r="F50" s="226">
+        <v>120</v>
+      </c>
+      <c r="G50" s="226">
+        <v>271</v>
+      </c>
+      <c r="H50" s="227">
+        <v>-1217</v>
+      </c>
+      <c r="I50" s="226">
+        <v>400</v>
+      </c>
+      <c r="J50" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M50" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="17">
+      <c r="B51" s="229" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="226" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="226" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="226">
+        <v>-15</v>
+      </c>
+      <c r="F51" s="226">
+        <v>25</v>
+      </c>
+      <c r="G51" s="226">
+        <v>960</v>
+      </c>
+      <c r="H51" s="226">
+        <v>-40</v>
+      </c>
+      <c r="I51" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K51" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M51" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="17">
+      <c r="B52" s="229" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="226" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="226" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="226">
+        <v>0</v>
+      </c>
+      <c r="F52" s="226">
+        <v>0</v>
+      </c>
+      <c r="G52" s="227">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="226">
+        <v>245</v>
+      </c>
+      <c r="I52" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L52" s="228">
+        <v>44499</v>
+      </c>
+      <c r="M52" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="17">
+      <c r="B53" s="229" t="s">
+        <v>380</v>
+      </c>
+      <c r="C53" s="226" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="226" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="226">
+        <v>0</v>
+      </c>
+      <c r="F53" s="226">
+        <v>0</v>
+      </c>
+      <c r="G53" s="226">
+        <v>500</v>
+      </c>
+      <c r="H53" s="226">
+        <v>-155</v>
+      </c>
+      <c r="I53" s="226">
+        <v>500</v>
+      </c>
+      <c r="J53" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K53" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L53" s="228">
+        <v>44497</v>
+      </c>
+      <c r="M53" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N53" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="17">
+      <c r="B54" s="229" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="226" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="226">
+        <v>517</v>
+      </c>
+      <c r="F54" s="227">
+        <v>2636</v>
+      </c>
+      <c r="G54" s="227">
+        <v>2381</v>
+      </c>
+      <c r="H54" s="227">
+        <v>3755</v>
+      </c>
+      <c r="I54" s="227">
+        <v>4500</v>
+      </c>
+      <c r="J54" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L54" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M54" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N54" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="17">
+      <c r="B55" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" s="226" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="226" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="226">
+        <v>0</v>
+      </c>
+      <c r="F55" s="226">
+        <v>10</v>
+      </c>
+      <c r="G55" s="226">
+        <v>990</v>
+      </c>
+      <c r="H55" s="226">
+        <v>-135</v>
+      </c>
+      <c r="I55" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L55" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M55" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N55" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="17">
+      <c r="B56" s="229" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="226" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="226" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="226">
+        <v>-144</v>
+      </c>
+      <c r="F56" s="226">
+        <v>420</v>
+      </c>
+      <c r="G56" s="226">
+        <v>436</v>
+      </c>
+      <c r="H56" s="226">
+        <v>-589</v>
+      </c>
+      <c r="I56" s="227">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M56" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N56" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="17">
+      <c r="B57" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="226" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="226" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="227">
+        <v>-1200</v>
+      </c>
+      <c r="F57" s="226">
+        <v>250</v>
+      </c>
+      <c r="G57" s="226">
+        <v>550</v>
+      </c>
+      <c r="H57" s="227">
+        <v>-3583</v>
+      </c>
+      <c r="I57" s="227">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="226" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" s="228">
+        <v>44502</v>
+      </c>
+      <c r="M57" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N57" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="17">
+      <c r="B58" s="229" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="226" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="226" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="226">
+        <v>-79</v>
+      </c>
+      <c r="F58" s="226">
+        <v>0</v>
+      </c>
+      <c r="G58" s="226">
+        <v>421</v>
+      </c>
+      <c r="H58" s="226">
+        <v>-185</v>
+      </c>
+      <c r="I58" s="226">
+        <v>500</v>
+      </c>
+      <c r="J58" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K58" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L58" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M58" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N58" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="17">
+      <c r="B59" s="229" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="226" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="226" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="226">
+        <v>-350</v>
+      </c>
+      <c r="F59" s="226">
+        <v>0</v>
+      </c>
+      <c r="G59" s="226">
+        <v>150</v>
+      </c>
+      <c r="H59" s="226">
+        <v>-134</v>
+      </c>
+      <c r="I59" s="226">
+        <v>500</v>
+      </c>
+      <c r="J59" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K59" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L59" s="228">
+        <v>44501</v>
+      </c>
+      <c r="M59" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N59" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="17">
+      <c r="B60" s="229" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="226" t="s">
+        <v>394</v>
+      </c>
+      <c r="D60" s="226" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="226">
+        <v>0</v>
+      </c>
+      <c r="F60" s="226">
+        <v>0</v>
+      </c>
+      <c r="G60" s="226">
+        <v>750</v>
+      </c>
+      <c r="H60" s="226">
+        <v>-111</v>
+      </c>
+      <c r="I60" s="226">
+        <v>750</v>
+      </c>
+      <c r="J60" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K60" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L60" s="228">
+        <v>44493</v>
+      </c>
+      <c r="M60" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N60" s="226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="17">
+      <c r="B61" s="229" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="226" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="226" t="s">
+        <v>399</v>
+      </c>
+      <c r="E61" s="226">
+        <v>0</v>
+      </c>
+      <c r="F61" s="226">
+        <v>0</v>
+      </c>
+      <c r="G61" s="226">
+        <v>750</v>
+      </c>
+      <c r="H61" s="226">
+        <v>0</v>
+      </c>
+      <c r="I61" s="226">
+        <v>750</v>
+      </c>
+      <c r="J61" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K61" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L61" s="226" t="s">
+        <v>289</v>
+      </c>
+      <c r="M61" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N61" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="17">
+      <c r="B62" s="229" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="226" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" s="226"/>
+      <c r="E62" s="226">
+        <v>0</v>
+      </c>
+      <c r="F62" s="226">
+        <v>0</v>
+      </c>
+      <c r="G62" s="226">
+        <v>500</v>
+      </c>
+      <c r="H62" s="226">
+        <v>0</v>
+      </c>
+      <c r="I62" s="226">
+        <v>500</v>
+      </c>
+      <c r="J62" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L62" s="226" t="s">
+        <v>289</v>
+      </c>
+      <c r="M62" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N62" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="17">
+      <c r="B63" s="229" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="226" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226">
+        <v>0</v>
+      </c>
+      <c r="F63" s="226">
+        <v>0</v>
+      </c>
+      <c r="G63" s="226">
+        <v>500</v>
+      </c>
+      <c r="H63" s="226">
+        <v>0</v>
+      </c>
+      <c r="I63" s="226">
+        <v>500</v>
+      </c>
+      <c r="J63" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="K63" s="226" t="s">
+        <v>303</v>
+      </c>
+      <c r="L63" s="226" t="s">
+        <v>289</v>
+      </c>
+      <c r="M63" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="N63" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="Q64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17">
+      <c r="Q69" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17">
+      <c r="Q70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17">
+      <c r="Q75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17">
+      <c r="Q85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17">
+      <c r="Q86" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17">
+      <c r="Q87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17">
+      <c r="Q88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17">
+      <c r="Q91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17">
+      <c r="Q93" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17">
+      <c r="Q101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17">
+      <c r="Q103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17">
+      <c r="Q104" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17">
+      <c r="Q106" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17">
+      <c r="Q107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17">
+      <c r="Q109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17">
+      <c r="Q110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17">
+      <c r="Q111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17">
+      <c r="Q114" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17">
+      <c r="Q119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17">
+      <c r="Q120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="17:17">
+      <c r="Q122" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" spans="17:17">
+      <c r="Q123" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="17:17">
+      <c r="Q125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="17:17">
+      <c r="Q126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="17:17">
+      <c r="Q127" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="17:17">
+      <c r="Q128" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17">
+      <c r="Q130" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17">
+      <c r="Q131" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
+      <c r="Q135" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
+      <c r="Q136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="17:17">
+      <c r="Q144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB280C-8D9C-114F-B4D2-B1F91C6D1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED60AB-3383-0F44-9D7B-CB2D7A83719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="27" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" firstSheet="15" activeTab="27" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,9 @@
     <sheet name="10.11.2021" sheetId="31" r:id="rId25"/>
     <sheet name="10.18.2021" sheetId="32" r:id="rId26"/>
     <sheet name="10.25.2021" sheetId="33" r:id="rId27"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId28"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId29"/>
+    <sheet name="11.1.2021" sheetId="35" r:id="rId28"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId29"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3559" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="443">
   <si>
     <t>Agent</t>
   </si>
@@ -1382,6 +1383,15 @@
   </si>
   <si>
     <t>password:</t>
+  </si>
+  <si>
+    <t>pyr160</t>
+  </si>
+  <si>
+    <t>tate</t>
+  </si>
+  <si>
+    <t>Amount Outstanding</t>
   </si>
 </sst>
 </file>
@@ -2301,6 +2311,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2331,24 +2359,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3009,6 +3019,55 @@
         <a:xfrm>
           <a:off x="7239000" y="1169811"/>
           <a:ext cx="3812823" cy="1842911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C1D63C-29F2-4347-8DB8-D4ABEBF86704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="584200"/>
+          <a:ext cx="6845300" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12697,16 +12756,16 @@
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="216" t="s">
+      <c r="H4" s="198" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="127" t="s">
@@ -12724,16 +12783,16 @@
       <c r="F5" s="129">
         <v>235</v>
       </c>
-      <c r="H5" s="216" t="s">
+      <c r="H5" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="137" t="s">
@@ -13196,10 +13255,10 @@
       <c r="F32" s="107">
         <v>111</v>
       </c>
-      <c r="H32" s="218" t="s">
+      <c r="H32" s="200" t="s">
         <v>267</v>
       </c>
-      <c r="I32" s="218" t="s">
+      <c r="I32" s="200" t="s">
         <v>268</v>
       </c>
     </row>
@@ -13225,7 +13284,7 @@
       <c r="H33">
         <v>57</v>
       </c>
-      <c r="I33" s="219">
+      <c r="I33" s="201">
         <f>F33-H33</f>
         <v>0</v>
       </c>
@@ -13252,7 +13311,7 @@
       <c r="H34">
         <v>9</v>
       </c>
-      <c r="I34" s="219">
+      <c r="I34" s="201">
         <f t="shared" ref="I34:I46" si="0">F34-H34</f>
         <v>0</v>
       </c>
@@ -13279,7 +13338,7 @@
       <c r="H35">
         <v>33</v>
       </c>
-      <c r="I35" s="219">
+      <c r="I35" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13306,7 +13365,7 @@
       <c r="H36">
         <v>70</v>
       </c>
-      <c r="I36" s="219">
+      <c r="I36" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13333,7 +13392,7 @@
       <c r="H37">
         <v>706</v>
       </c>
-      <c r="I37" s="219">
+      <c r="I37" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13364,7 +13423,7 @@
       <c r="H38">
         <v>197</v>
       </c>
-      <c r="I38" s="219">
+      <c r="I38" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13395,7 +13454,7 @@
       <c r="H39">
         <v>57</v>
       </c>
-      <c r="I39" s="219">
+      <c r="I39" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13422,7 +13481,7 @@
       <c r="H40">
         <v>940</v>
       </c>
-      <c r="I40" s="219">
+      <c r="I40" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13449,7 +13508,7 @@
       <c r="H41">
         <v>1364.4</v>
       </c>
-      <c r="I41" s="219">
+      <c r="I41" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13476,7 +13535,7 @@
       <c r="H42">
         <v>741</v>
       </c>
-      <c r="I42" s="219">
+      <c r="I42" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13503,7 +13562,7 @@
       <c r="H43">
         <v>190</v>
       </c>
-      <c r="I43" s="219">
+      <c r="I43" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13530,7 +13589,7 @@
       <c r="H44">
         <v>92</v>
       </c>
-      <c r="I44" s="219">
+      <c r="I44" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13557,7 +13616,7 @@
       <c r="H45">
         <v>437</v>
       </c>
-      <c r="I45" s="219">
+      <c r="I45" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13584,7 +13643,7 @@
       <c r="H46">
         <v>1012.5</v>
       </c>
-      <c r="I46" s="219">
+      <c r="I46" s="201">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13595,8 +13654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="14:14" ht="409.6">
-      <c r="N70" s="220" t="s">
+    <row r="70" spans="14:14" ht="51">
+      <c r="N70" s="202" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13616,8 +13675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
   <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13644,17 +13703,17 @@
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="221" t="s">
+      <c r="H4" s="203" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="127" t="s">
@@ -13672,17 +13731,17 @@
       <c r="F5" s="129">
         <v>130</v>
       </c>
-      <c r="H5" s="221" t="s">
+      <c r="H5" s="203" t="s">
         <v>270</v>
       </c>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="222"/>
-      <c r="O5" s="222"/>
-      <c r="P5" s="222"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="204"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="137" t="s">
@@ -13938,7 +13997,7 @@
       <c r="F20" s="104">
         <v>0</v>
       </c>
-      <c r="O20" s="223">
+      <c r="O20" s="205">
         <f>3237/5208</f>
         <v>0.62154377880184331</v>
       </c>
@@ -14104,7 +14163,7 @@
       </c>
       <c r="K29">
         <f>SUM(I31:I44)</f>
-        <v>3839.1</v>
+        <v>3539.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
@@ -14123,13 +14182,13 @@
       <c r="F30" s="107">
         <v>1083.5999999999999</v>
       </c>
-      <c r="G30" s="218" t="s">
+      <c r="G30" s="200" t="s">
         <v>273</v>
       </c>
-      <c r="H30" s="218" t="s">
+      <c r="H30" s="200" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="218" t="s">
+      <c r="I30" s="200" t="s">
         <v>272</v>
       </c>
     </row>
@@ -14288,11 +14347,11 @@
         <v>261</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -14523,11 +14582,872 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A278B6-55AF-1342-B174-8FE61A53F9FC}">
+  <dimension ref="B3:S49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="92">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="92">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="92">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="92">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="101">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="104">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="104">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="104">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="104">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="104">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="104">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" thickBot="1">
+      <c r="B26" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="107">
+        <v>83</v>
+      </c>
+      <c r="I26" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="L26">
+        <f>SUM(I31:I40)+'10.25.2021'!K29</f>
+        <v>5793.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="135">
+        <v>272</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>272</v>
+      </c>
+      <c r="I27">
+        <f>IF(C27="Pay",H27-F27,F27-H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="123">
+        <v>0</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I40" si="0">IF(C28="Pay",H28-F28,F28-H28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="123">
+        <v>18</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="123">
+        <v>10</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="123">
+        <v>146</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31">
+        <v>146</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="123">
+        <v>21</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L32">
+        <f>1620+2133</f>
+        <v>3753</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="123">
+        <v>837</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="P33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="123">
+        <v>1350</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34">
+        <v>1350</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="123">
+        <v>841</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35">
+        <v>750</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="123">
+        <v>500</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36">
+        <v>500</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="123">
+        <v>587</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37">
+        <v>587</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="123">
+        <v>966</v>
+      </c>
+      <c r="G38" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38">
+        <v>966</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="123">
+        <v>1305</v>
+      </c>
+      <c r="G39" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1305</v>
+      </c>
+      <c r="P39">
+        <v>40</v>
+      </c>
+      <c r="S39">
+        <f>SUM(P32:P39)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="17" thickBot="1">
+      <c r="B40" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="E40" s="125" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="126">
+        <v>229</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40">
+        <v>229</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="P41">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="P42">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="P43">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="P44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="P45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="P46">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19">
+      <c r="S49">
+        <f>SUM(P32:P46)</f>
+        <v>5139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
   <dimension ref="B3:Q146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14547,129 +15467,129 @@
     <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" s="224" customFormat="1" ht="19">
-      <c r="B3" s="225" t="s">
+    <row r="3" spans="2:17" s="206" customFormat="1" ht="19">
+      <c r="B3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="207" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="225" t="s">
+      <c r="E3" s="207" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="207" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="207" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="207" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="225" t="s">
+      <c r="I3" s="207" t="s">
         <v>280</v>
       </c>
-      <c r="J3" s="225" t="s">
+      <c r="J3" s="207" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="225" t="s">
+      <c r="K3" s="207" t="s">
         <v>282</v>
       </c>
-      <c r="L3" s="225" t="s">
+      <c r="L3" s="207" t="s">
         <v>283</v>
       </c>
-      <c r="M3" s="225" t="s">
+      <c r="M3" s="207" t="s">
         <v>284</v>
       </c>
-      <c r="N3" s="225" t="s">
+      <c r="N3" s="207" t="s">
         <v>285</v>
       </c>
-      <c r="Q3" s="224" t="s">
+      <c r="Q3" s="206" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="17">
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="208" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="226">
+      <c r="D4" s="208">
         <v>1</v>
       </c>
-      <c r="E4" s="226">
+      <c r="E4" s="208">
         <v>0</v>
       </c>
-      <c r="F4" s="226">
+      <c r="F4" s="208">
         <v>0</v>
       </c>
-      <c r="G4" s="227">
+      <c r="G4" s="209">
         <v>1000</v>
       </c>
-      <c r="H4" s="226">
+      <c r="H4" s="208">
         <v>-200</v>
       </c>
-      <c r="I4" s="227">
+      <c r="I4" s="209">
         <v>1000</v>
       </c>
-      <c r="J4" s="226" t="s">
+      <c r="J4" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="K4" s="226" t="s">
+      <c r="K4" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="L4" s="226" t="s">
+      <c r="L4" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="M4" s="226" t="s">
+      <c r="M4" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N4" s="226" t="s">
+      <c r="N4" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="17">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="226">
+      <c r="E5" s="208">
         <v>0</v>
       </c>
-      <c r="F5" s="226">
+      <c r="F5" s="208">
         <v>0</v>
       </c>
-      <c r="G5" s="227">
+      <c r="G5" s="209">
         <v>1000</v>
       </c>
-      <c r="H5" s="226">
+      <c r="H5" s="208">
         <v>-416</v>
       </c>
-      <c r="I5" s="227">
+      <c r="I5" s="209">
         <v>1000</v>
       </c>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="K5" s="226" t="s">
+      <c r="K5" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="L5" s="228">
+      <c r="L5" s="210">
         <v>44502</v>
       </c>
-      <c r="M5" s="226" t="s">
+      <c r="M5" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N5" s="226" t="s">
+      <c r="N5" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q5" t="s">
@@ -14677,43 +15597,43 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="17">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="208" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="226">
+      <c r="E6" s="208">
         <v>0</v>
       </c>
-      <c r="F6" s="226">
+      <c r="F6" s="208">
         <v>0</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="209">
         <v>2000</v>
       </c>
-      <c r="H6" s="227">
+      <c r="H6" s="209">
         <v>-5127</v>
       </c>
-      <c r="I6" s="227">
+      <c r="I6" s="209">
         <v>2000</v>
       </c>
-      <c r="J6" s="226" t="s">
+      <c r="J6" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="K6" s="226" t="s">
+      <c r="K6" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="L6" s="228">
+      <c r="L6" s="210">
         <v>44357</v>
       </c>
-      <c r="M6" s="226" t="s">
+      <c r="M6" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N6" s="226" t="s">
+      <c r="N6" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q6" t="s">
@@ -14721,43 +15641,43 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="17">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="226" t="s">
+      <c r="D7" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="226">
+      <c r="E7" s="208">
         <v>56</v>
       </c>
-      <c r="F7" s="226">
+      <c r="F7" s="208">
         <v>96</v>
       </c>
-      <c r="G7" s="226">
+      <c r="G7" s="208">
         <v>960</v>
       </c>
-      <c r="H7" s="227">
+      <c r="H7" s="209">
         <v>-3015</v>
       </c>
-      <c r="I7" s="227">
+      <c r="I7" s="209">
         <v>1000</v>
       </c>
-      <c r="J7" s="226" t="s">
+      <c r="J7" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="K7" s="226" t="s">
+      <c r="K7" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="L7" s="228">
+      <c r="L7" s="210">
         <v>44502</v>
       </c>
-      <c r="M7" s="226" t="s">
+      <c r="M7" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N7" s="226" t="s">
+      <c r="N7" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q7" t="s">
@@ -14765,43 +15685,43 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="17">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="208" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="226">
+      <c r="E8" s="208">
         <v>-30</v>
       </c>
-      <c r="F8" s="226">
+      <c r="F8" s="208">
         <v>215</v>
       </c>
-      <c r="G8" s="226">
+      <c r="G8" s="208">
         <v>505</v>
       </c>
-      <c r="H8" s="227">
+      <c r="H8" s="209">
         <v>-1388</v>
       </c>
-      <c r="I8" s="226">
+      <c r="I8" s="208">
         <v>750</v>
       </c>
-      <c r="J8" s="226" t="s">
+      <c r="J8" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="K8" s="226" t="s">
+      <c r="K8" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L8" s="228">
+      <c r="L8" s="210">
         <v>44502</v>
       </c>
-      <c r="M8" s="226" t="s">
+      <c r="M8" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N8" s="226" t="s">
+      <c r="N8" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q8" t="s">
@@ -14809,84 +15729,84 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="17">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="208" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="226">
+      <c r="E9" s="208">
         <v>0</v>
       </c>
-      <c r="F9" s="226">
+      <c r="F9" s="208">
         <v>280</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="209">
         <v>1020</v>
       </c>
-      <c r="H9" s="227">
+      <c r="H9" s="209">
         <v>1232</v>
       </c>
-      <c r="I9" s="227">
+      <c r="I9" s="209">
         <v>1300</v>
       </c>
-      <c r="J9" s="226" t="s">
+      <c r="J9" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="K9" s="226" t="s">
+      <c r="K9" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="228">
+      <c r="L9" s="210">
         <v>44498</v>
       </c>
-      <c r="M9" s="226" t="s">
+      <c r="M9" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N9" s="226" t="s">
+      <c r="N9" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="17">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="208" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="226" t="s">
+      <c r="D10" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="226">
+      <c r="E10" s="208">
         <v>-170</v>
       </c>
-      <c r="F10" s="227">
+      <c r="F10" s="209">
         <v>2380</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="209">
         <v>1250</v>
       </c>
-      <c r="H10" s="227">
+      <c r="H10" s="209">
         <v>-13088</v>
       </c>
-      <c r="I10" s="227">
+      <c r="I10" s="209">
         <v>3800</v>
       </c>
-      <c r="J10" s="226" t="s">
+      <c r="J10" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K10" s="226" t="s">
+      <c r="K10" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L10" s="228">
+      <c r="L10" s="210">
         <v>44502</v>
       </c>
-      <c r="M10" s="226" t="s">
+      <c r="M10" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N10" s="226" t="s">
+      <c r="N10" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q10" t="s">
@@ -14894,43 +15814,43 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="17">
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="226" t="s">
+      <c r="C11" s="208" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="226" t="s">
+      <c r="D11" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="226">
+      <c r="E11" s="208">
         <v>0</v>
       </c>
-      <c r="F11" s="226">
+      <c r="F11" s="208">
         <v>0</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="209">
         <v>1500</v>
       </c>
-      <c r="H11" s="227">
+      <c r="H11" s="209">
         <v>-4135</v>
       </c>
-      <c r="I11" s="227">
+      <c r="I11" s="209">
         <v>1500</v>
       </c>
-      <c r="J11" s="226" t="s">
+      <c r="J11" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="226" t="s">
+      <c r="K11" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L11" s="228">
+      <c r="L11" s="210">
         <v>44383</v>
       </c>
-      <c r="M11" s="226" t="s">
+      <c r="M11" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N11" s="226" t="s">
+      <c r="N11" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q11" t="s">
@@ -14938,84 +15858,84 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="17">
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="226" t="s">
+      <c r="C12" s="208" t="s">
         <v>305</v>
       </c>
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="226">
+      <c r="E12" s="208">
         <v>0</v>
       </c>
-      <c r="F12" s="226">
+      <c r="F12" s="208">
         <v>900</v>
       </c>
-      <c r="G12" s="226">
+      <c r="G12" s="208">
         <v>850</v>
       </c>
-      <c r="H12" s="226">
+      <c r="H12" s="208">
         <v>-398</v>
       </c>
-      <c r="I12" s="227">
+      <c r="I12" s="209">
         <v>1750</v>
       </c>
-      <c r="J12" s="226" t="s">
+      <c r="J12" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K12" s="226" t="s">
+      <c r="K12" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L12" s="228">
+      <c r="L12" s="210">
         <v>44500</v>
       </c>
-      <c r="M12" s="226" t="s">
+      <c r="M12" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N12" s="226" t="s">
+      <c r="N12" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="17">
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="208" t="s">
         <v>306</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="208">
         <v>-595</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="208">
         <v>200</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="209">
         <v>1955</v>
       </c>
-      <c r="H13" s="227">
+      <c r="H13" s="209">
         <v>-2932</v>
       </c>
-      <c r="I13" s="227">
+      <c r="I13" s="209">
         <v>2750</v>
       </c>
-      <c r="J13" s="226" t="s">
+      <c r="J13" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K13" s="226" t="s">
+      <c r="K13" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L13" s="228">
+      <c r="L13" s="210">
         <v>44502</v>
       </c>
-      <c r="M13" s="226" t="s">
+      <c r="M13" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N13" s="226" t="s">
+      <c r="N13" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q13" t="s">
@@ -15023,43 +15943,43 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="17">
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="208" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="226">
+      <c r="E14" s="208">
         <v>0</v>
       </c>
-      <c r="F14" s="226">
+      <c r="F14" s="208">
         <v>0</v>
       </c>
-      <c r="G14" s="226">
+      <c r="G14" s="208">
         <v>300</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="208">
         <v>-64</v>
       </c>
-      <c r="I14" s="226">
+      <c r="I14" s="208">
         <v>300</v>
       </c>
-      <c r="J14" s="226" t="s">
+      <c r="J14" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K14" s="226" t="s">
+      <c r="K14" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L14" s="228">
+      <c r="L14" s="210">
         <v>44458</v>
       </c>
-      <c r="M14" s="226" t="s">
+      <c r="M14" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N14" s="226" t="s">
+      <c r="N14" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q14" t="s">
@@ -15067,43 +15987,43 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="17">
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="226" t="s">
+      <c r="C15" s="208" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="226" t="s">
+      <c r="D15" s="208" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="226">
+      <c r="E15" s="208">
         <v>0</v>
       </c>
-      <c r="F15" s="226">
+      <c r="F15" s="208">
         <v>90</v>
       </c>
-      <c r="G15" s="226">
+      <c r="G15" s="208">
         <v>410</v>
       </c>
-      <c r="H15" s="227">
+      <c r="H15" s="209">
         <v>1341</v>
       </c>
-      <c r="I15" s="226">
+      <c r="I15" s="208">
         <v>500</v>
       </c>
-      <c r="J15" s="226" t="s">
+      <c r="J15" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="226" t="s">
+      <c r="K15" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L15" s="228">
+      <c r="L15" s="210">
         <v>44486</v>
       </c>
-      <c r="M15" s="226" t="s">
+      <c r="M15" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N15" s="226" t="s">
+      <c r="N15" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q15" t="s">
@@ -15111,43 +16031,43 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="17">
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="208" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="226" t="s">
+      <c r="D16" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="226">
+      <c r="E16" s="208">
         <v>0</v>
       </c>
-      <c r="F16" s="226">
+      <c r="F16" s="208">
         <v>0</v>
       </c>
-      <c r="G16" s="226">
+      <c r="G16" s="208">
         <v>750</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="208">
         <v>964</v>
       </c>
-      <c r="I16" s="226">
+      <c r="I16" s="208">
         <v>750</v>
       </c>
-      <c r="J16" s="226" t="s">
+      <c r="J16" s="208" t="s">
         <v>310</v>
       </c>
-      <c r="K16" s="226" t="s">
+      <c r="K16" s="208" t="s">
         <v>310</v>
       </c>
-      <c r="L16" s="228">
+      <c r="L16" s="210">
         <v>44486</v>
       </c>
-      <c r="M16" s="226" t="s">
+      <c r="M16" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N16" s="226" t="s">
+      <c r="N16" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q16" t="s">
@@ -15155,84 +16075,84 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="17">
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="226" t="s">
+      <c r="C17" s="208" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="226" t="s">
+      <c r="D17" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="226">
+      <c r="E17" s="208">
         <v>-170</v>
       </c>
-      <c r="F17" s="226">
+      <c r="F17" s="208">
         <v>238</v>
       </c>
-      <c r="G17" s="226">
+      <c r="G17" s="208">
         <v>992</v>
       </c>
-      <c r="H17" s="227">
+      <c r="H17" s="209">
         <v>-2262</v>
       </c>
-      <c r="I17" s="227">
+      <c r="I17" s="209">
         <v>1400</v>
       </c>
-      <c r="J17" s="226" t="s">
+      <c r="J17" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="226" t="s">
+      <c r="K17" s="208" t="s">
         <v>312</v>
       </c>
-      <c r="L17" s="228">
+      <c r="L17" s="210">
         <v>44501</v>
       </c>
-      <c r="M17" s="226" t="s">
+      <c r="M17" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N17" s="226" t="s">
+      <c r="N17" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="17">
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="226" t="s">
+      <c r="C18" s="208" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="226" t="s">
+      <c r="D18" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="226">
+      <c r="E18" s="208">
         <v>0</v>
       </c>
-      <c r="F18" s="226">
+      <c r="F18" s="208">
         <v>230</v>
       </c>
-      <c r="G18" s="226">
+      <c r="G18" s="208">
         <v>570</v>
       </c>
-      <c r="H18" s="227">
+      <c r="H18" s="209">
         <v>-3854</v>
       </c>
-      <c r="I18" s="226">
+      <c r="I18" s="208">
         <v>800</v>
       </c>
-      <c r="J18" s="226" t="s">
+      <c r="J18" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="226" t="s">
+      <c r="K18" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="228">
+      <c r="L18" s="210">
         <v>44502</v>
       </c>
-      <c r="M18" s="226" t="s">
+      <c r="M18" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N18" s="226" t="s">
+      <c r="N18" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q18" t="s">
@@ -15240,43 +16160,43 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="17">
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="208" t="s">
         <v>314</v>
       </c>
-      <c r="D19" s="226" t="s">
+      <c r="D19" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="226">
+      <c r="E19" s="208">
         <v>-21</v>
       </c>
-      <c r="F19" s="226">
+      <c r="F19" s="208">
         <v>25</v>
       </c>
-      <c r="G19" s="226">
+      <c r="G19" s="208">
         <v>454</v>
       </c>
-      <c r="H19" s="226">
+      <c r="H19" s="208">
         <v>-146</v>
       </c>
-      <c r="I19" s="226">
+      <c r="I19" s="208">
         <v>500</v>
       </c>
-      <c r="J19" s="226" t="s">
+      <c r="J19" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="226" t="s">
+      <c r="K19" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L19" s="228">
+      <c r="L19" s="210">
         <v>44501</v>
       </c>
-      <c r="M19" s="226" t="s">
+      <c r="M19" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="226" t="s">
+      <c r="N19" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q19" t="s">
@@ -15284,84 +16204,84 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="17">
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="208" t="s">
         <v>315</v>
       </c>
-      <c r="D20" s="226" t="s">
+      <c r="D20" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="226">
+      <c r="E20" s="208">
         <v>0</v>
       </c>
-      <c r="F20" s="226">
+      <c r="F20" s="208">
         <v>0</v>
       </c>
-      <c r="G20" s="227">
+      <c r="G20" s="209">
         <v>1000</v>
       </c>
-      <c r="H20" s="226">
+      <c r="H20" s="208">
         <v>-110</v>
       </c>
-      <c r="I20" s="227">
+      <c r="I20" s="209">
         <v>1000</v>
       </c>
-      <c r="J20" s="226" t="s">
+      <c r="J20" s="208" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="226" t="s">
+      <c r="K20" s="208" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="228">
+      <c r="L20" s="210">
         <v>44500</v>
       </c>
-      <c r="M20" s="226" t="s">
+      <c r="M20" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N20" s="226" t="s">
+      <c r="N20" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="17">
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="208" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="226" t="s">
+      <c r="D21" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="226">
+      <c r="E21" s="208">
         <v>0</v>
       </c>
-      <c r="F21" s="226">
+      <c r="F21" s="208">
         <v>755</v>
       </c>
-      <c r="G21" s="227">
+      <c r="G21" s="209">
         <v>1245</v>
       </c>
-      <c r="H21" s="227">
+      <c r="H21" s="209">
         <v>-5515</v>
       </c>
-      <c r="I21" s="227">
+      <c r="I21" s="209">
         <v>2000</v>
       </c>
-      <c r="J21" s="226" t="s">
+      <c r="J21" s="208" t="s">
         <v>316</v>
       </c>
-      <c r="K21" s="226" t="s">
+      <c r="K21" s="208" t="s">
         <v>316</v>
       </c>
-      <c r="L21" s="228">
+      <c r="L21" s="210">
         <v>44500</v>
       </c>
-      <c r="M21" s="226" t="s">
+      <c r="M21" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N21" s="226" t="s">
+      <c r="N21" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q21" t="s">
@@ -15369,43 +16289,43 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="17">
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="226" t="s">
+      <c r="D22" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="226">
+      <c r="E22" s="208">
         <v>0</v>
       </c>
-      <c r="F22" s="226">
+      <c r="F22" s="208">
         <v>0</v>
       </c>
-      <c r="G22" s="226">
+      <c r="G22" s="208">
         <v>500</v>
       </c>
-      <c r="H22" s="226">
+      <c r="H22" s="208">
         <v>-440</v>
       </c>
-      <c r="I22" s="226">
+      <c r="I22" s="208">
         <v>500</v>
       </c>
-      <c r="J22" s="226" t="s">
+      <c r="J22" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K22" s="226" t="s">
+      <c r="K22" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L22" s="228">
+      <c r="L22" s="210">
         <v>44430</v>
       </c>
-      <c r="M22" s="226" t="s">
+      <c r="M22" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N22" s="226" t="s">
+      <c r="N22" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q22" t="s">
@@ -15413,43 +16333,43 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="17">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="208" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="226" t="s">
+      <c r="D23" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="226">
+      <c r="E23" s="208">
         <v>0</v>
       </c>
-      <c r="F23" s="226">
+      <c r="F23" s="208">
         <v>0</v>
       </c>
-      <c r="G23" s="226">
+      <c r="G23" s="208">
         <v>500</v>
       </c>
-      <c r="H23" s="226">
+      <c r="H23" s="208">
         <v>-819</v>
       </c>
-      <c r="I23" s="226">
+      <c r="I23" s="208">
         <v>500</v>
       </c>
-      <c r="J23" s="226" t="s">
+      <c r="J23" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K23" s="226" t="s">
+      <c r="K23" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L23" s="228">
+      <c r="L23" s="210">
         <v>44478</v>
       </c>
-      <c r="M23" s="226" t="s">
+      <c r="M23" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N23" s="226" t="s">
+      <c r="N23" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q23" t="s">
@@ -15457,43 +16377,43 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="17">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="211" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="208" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="226" t="s">
+      <c r="D24" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="226">
+      <c r="E24" s="208">
         <v>0</v>
       </c>
-      <c r="F24" s="226">
+      <c r="F24" s="208">
         <v>0</v>
       </c>
-      <c r="G24" s="226">
+      <c r="G24" s="208">
         <v>500</v>
       </c>
-      <c r="H24" s="227">
+      <c r="H24" s="209">
         <v>-1532</v>
       </c>
-      <c r="I24" s="226">
+      <c r="I24" s="208">
         <v>500</v>
       </c>
-      <c r="J24" s="226" t="s">
+      <c r="J24" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K24" s="226" t="s">
+      <c r="K24" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="228">
+      <c r="L24" s="210">
         <v>44500</v>
       </c>
-      <c r="M24" s="226" t="s">
+      <c r="M24" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N24" s="226" t="s">
+      <c r="N24" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q24" t="s">
@@ -15501,84 +16421,84 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="17">
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="211" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="226">
+      <c r="E25" s="208">
         <v>0</v>
       </c>
-      <c r="F25" s="226">
+      <c r="F25" s="208">
         <v>0</v>
       </c>
-      <c r="G25" s="227">
+      <c r="G25" s="209">
         <v>1000</v>
       </c>
-      <c r="H25" s="226">
+      <c r="H25" s="208">
         <v>-411</v>
       </c>
-      <c r="I25" s="227">
+      <c r="I25" s="209">
         <v>1000</v>
       </c>
-      <c r="J25" s="226" t="s">
+      <c r="J25" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K25" s="226" t="s">
+      <c r="K25" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L25" s="228">
+      <c r="L25" s="210">
         <v>44500</v>
       </c>
-      <c r="M25" s="226" t="s">
+      <c r="M25" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N25" s="226" t="s">
+      <c r="N25" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="17">
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="226" t="s">
+      <c r="D26" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="226">
+      <c r="E26" s="208">
         <v>45</v>
       </c>
-      <c r="F26" s="226">
+      <c r="F26" s="208">
         <v>0</v>
       </c>
-      <c r="G26" s="226">
+      <c r="G26" s="208">
         <v>795</v>
       </c>
-      <c r="H26" s="227">
+      <c r="H26" s="209">
         <v>-10091</v>
       </c>
-      <c r="I26" s="226">
+      <c r="I26" s="208">
         <v>750</v>
       </c>
-      <c r="J26" s="226" t="s">
+      <c r="J26" s="208" t="s">
         <v>316</v>
       </c>
-      <c r="K26" s="226" t="s">
+      <c r="K26" s="208" t="s">
         <v>310</v>
       </c>
-      <c r="L26" s="228">
+      <c r="L26" s="210">
         <v>44501</v>
       </c>
-      <c r="M26" s="226" t="s">
+      <c r="M26" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N26" s="226" t="s">
+      <c r="N26" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q26" t="s">
@@ -15586,43 +16506,43 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="17">
-      <c r="B27" s="229" t="s">
+      <c r="B27" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="226" t="s">
+      <c r="C27" s="208" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="226" t="s">
+      <c r="D27" s="208" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="226">
+      <c r="E27" s="208">
         <v>0</v>
       </c>
-      <c r="F27" s="226">
+      <c r="F27" s="208">
         <v>0</v>
       </c>
-      <c r="G27" s="227">
+      <c r="G27" s="209">
         <v>1000</v>
       </c>
-      <c r="H27" s="227">
+      <c r="H27" s="209">
         <v>-2169</v>
       </c>
-      <c r="I27" s="227">
+      <c r="I27" s="209">
         <v>1000</v>
       </c>
-      <c r="J27" s="226" t="s">
+      <c r="J27" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K27" s="226" t="s">
+      <c r="K27" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="228">
+      <c r="L27" s="210">
         <v>44483</v>
       </c>
-      <c r="M27" s="226" t="s">
+      <c r="M27" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N27" s="226" t="s">
+      <c r="N27" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q27" t="s">
@@ -15630,84 +16550,84 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="17">
-      <c r="B28" s="229" t="s">
+      <c r="B28" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="208" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="226" t="s">
+      <c r="D28" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="226">
+      <c r="E28" s="208">
         <v>-60</v>
       </c>
-      <c r="F28" s="226">
+      <c r="F28" s="208">
         <v>940</v>
       </c>
-      <c r="G28" s="226">
+      <c r="G28" s="208">
         <v>0</v>
       </c>
-      <c r="H28" s="227">
+      <c r="H28" s="209">
         <v>-9189</v>
       </c>
-      <c r="I28" s="227">
+      <c r="I28" s="209">
         <v>1000</v>
       </c>
-      <c r="J28" s="226" t="s">
+      <c r="J28" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K28" s="226" t="s">
+      <c r="K28" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L28" s="228">
+      <c r="L28" s="210">
         <v>44502</v>
       </c>
-      <c r="M28" s="226" t="s">
+      <c r="M28" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N28" s="226" t="s">
+      <c r="N28" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="17">
-      <c r="B29" s="229" t="s">
+      <c r="B29" s="211" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="208" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="226" t="s">
+      <c r="D29" s="208" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="226">
+      <c r="E29" s="208">
         <v>-629</v>
       </c>
-      <c r="F29" s="226">
+      <c r="F29" s="208">
         <v>0</v>
       </c>
-      <c r="G29" s="226">
+      <c r="G29" s="208">
         <v>871</v>
       </c>
-      <c r="H29" s="227">
+      <c r="H29" s="209">
         <v>-3665</v>
       </c>
-      <c r="I29" s="227">
+      <c r="I29" s="209">
         <v>1500</v>
       </c>
-      <c r="J29" s="226" t="s">
+      <c r="J29" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="226" t="s">
+      <c r="K29" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="L29" s="228">
+      <c r="L29" s="210">
         <v>44500</v>
       </c>
-      <c r="M29" s="226" t="s">
+      <c r="M29" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N29" s="226" t="s">
+      <c r="N29" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q29" t="s">
@@ -15715,43 +16635,43 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="17">
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="226" t="s">
+      <c r="C30" s="208" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="226" t="s">
+      <c r="D30" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="226">
+      <c r="E30" s="208">
         <v>0</v>
       </c>
-      <c r="F30" s="226">
+      <c r="F30" s="208">
         <v>160</v>
       </c>
-      <c r="G30" s="226">
+      <c r="G30" s="208">
         <v>340</v>
       </c>
-      <c r="H30" s="226">
+      <c r="H30" s="208">
         <v>-52</v>
       </c>
-      <c r="I30" s="226">
+      <c r="I30" s="208">
         <v>500</v>
       </c>
-      <c r="J30" s="226" t="s">
+      <c r="J30" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K30" s="226" t="s">
+      <c r="K30" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L30" s="228">
+      <c r="L30" s="210">
         <v>44492</v>
       </c>
-      <c r="M30" s="226" t="s">
+      <c r="M30" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N30" s="226" t="s">
+      <c r="N30" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q30" t="s">
@@ -15759,43 +16679,43 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="17">
-      <c r="B31" s="229" t="s">
+      <c r="B31" s="211" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="208" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="226" t="s">
+      <c r="D31" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="226">
+      <c r="E31" s="208">
         <v>0</v>
       </c>
-      <c r="F31" s="226">
+      <c r="F31" s="208">
         <v>0</v>
       </c>
-      <c r="G31" s="226">
+      <c r="G31" s="208">
         <v>500</v>
       </c>
-      <c r="H31" s="227">
+      <c r="H31" s="209">
         <v>-2448</v>
       </c>
-      <c r="I31" s="226">
+      <c r="I31" s="208">
         <v>500</v>
       </c>
-      <c r="J31" s="226" t="s">
+      <c r="J31" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="K31" s="226" t="s">
+      <c r="K31" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="L31" s="228">
+      <c r="L31" s="210">
         <v>44500</v>
       </c>
-      <c r="M31" s="226" t="s">
+      <c r="M31" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N31" s="226" t="s">
+      <c r="N31" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q31" t="s">
@@ -15803,43 +16723,43 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="17">
-      <c r="B32" s="229" t="s">
+      <c r="B32" s="211" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="226" t="s">
+      <c r="C32" s="208" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="226" t="s">
+      <c r="D32" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="226">
+      <c r="E32" s="208">
         <v>0</v>
       </c>
-      <c r="F32" s="226">
+      <c r="F32" s="208">
         <v>0</v>
       </c>
-      <c r="G32" s="227">
+      <c r="G32" s="209">
         <v>1000</v>
       </c>
-      <c r="H32" s="226">
+      <c r="H32" s="208">
         <v>-58</v>
       </c>
-      <c r="I32" s="227">
+      <c r="I32" s="209">
         <v>1000</v>
       </c>
-      <c r="J32" s="226" t="s">
+      <c r="J32" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K32" s="226" t="s">
+      <c r="K32" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L32" s="228">
+      <c r="L32" s="210">
         <v>44499</v>
       </c>
-      <c r="M32" s="226" t="s">
+      <c r="M32" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N32" s="226" t="s">
+      <c r="N32" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q32" t="s">
@@ -15847,84 +16767,84 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="17">
-      <c r="B33" s="229" t="s">
+      <c r="B33" s="211" t="s">
         <v>338</v>
       </c>
-      <c r="C33" s="226" t="s">
+      <c r="C33" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="226">
+      <c r="E33" s="208">
         <v>0</v>
       </c>
-      <c r="F33" s="226">
+      <c r="F33" s="208">
         <v>0</v>
       </c>
-      <c r="G33" s="227">
+      <c r="G33" s="209">
         <v>1000</v>
       </c>
-      <c r="H33" s="226">
+      <c r="H33" s="208">
         <v>381</v>
       </c>
-      <c r="I33" s="227">
+      <c r="I33" s="209">
         <v>1000</v>
       </c>
-      <c r="J33" s="226" t="s">
+      <c r="J33" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K33" s="226" t="s">
+      <c r="K33" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L33" s="228">
+      <c r="L33" s="210">
         <v>44500</v>
       </c>
-      <c r="M33" s="226" t="s">
+      <c r="M33" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N33" s="226" t="s">
+      <c r="N33" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="17">
-      <c r="B34" s="229" t="s">
+      <c r="B34" s="211" t="s">
         <v>340</v>
       </c>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="208" t="s">
         <v>341</v>
       </c>
-      <c r="D34" s="226" t="s">
+      <c r="D34" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="226">
+      <c r="E34" s="208">
         <v>0</v>
       </c>
-      <c r="F34" s="226">
+      <c r="F34" s="208">
         <v>0</v>
       </c>
-      <c r="G34" s="226">
+      <c r="G34" s="208">
         <v>500</v>
       </c>
-      <c r="H34" s="227">
+      <c r="H34" s="209">
         <v>-6696</v>
       </c>
-      <c r="I34" s="226">
+      <c r="I34" s="208">
         <v>500</v>
       </c>
-      <c r="J34" s="226" t="s">
+      <c r="J34" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K34" s="226" t="s">
+      <c r="K34" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L34" s="228">
+      <c r="L34" s="210">
         <v>44496</v>
       </c>
-      <c r="M34" s="226" t="s">
+      <c r="M34" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N34" s="226" t="s">
+      <c r="N34" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q34" t="s">
@@ -15932,43 +16852,43 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="17">
-      <c r="B35" s="229" t="s">
+      <c r="B35" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="C35" s="226" t="s">
+      <c r="C35" s="208" t="s">
         <v>343</v>
       </c>
-      <c r="D35" s="226" t="s">
+      <c r="D35" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="226">
+      <c r="E35" s="208">
         <v>0</v>
       </c>
-      <c r="F35" s="226">
+      <c r="F35" s="208">
         <v>0</v>
       </c>
-      <c r="G35" s="226">
+      <c r="G35" s="208">
         <v>900</v>
       </c>
-      <c r="H35" s="227">
+      <c r="H35" s="209">
         <v>-1237</v>
       </c>
-      <c r="I35" s="226">
+      <c r="I35" s="208">
         <v>900</v>
       </c>
-      <c r="J35" s="226" t="s">
+      <c r="J35" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="226" t="s">
+      <c r="K35" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="L35" s="228">
+      <c r="L35" s="210">
         <v>44443</v>
       </c>
-      <c r="M35" s="226" t="s">
+      <c r="M35" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N35" s="226" t="s">
+      <c r="N35" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q35" t="s">
@@ -15976,84 +16896,84 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="17">
-      <c r="B36" s="229" t="s">
+      <c r="B36" s="211" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="208" t="s">
         <v>345</v>
       </c>
-      <c r="D36" s="226" t="s">
+      <c r="D36" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="226">
+      <c r="E36" s="208">
         <v>0</v>
       </c>
-      <c r="F36" s="226">
+      <c r="F36" s="208">
         <v>0</v>
       </c>
-      <c r="G36" s="227">
+      <c r="G36" s="209">
         <v>1000</v>
       </c>
-      <c r="H36" s="227">
+      <c r="H36" s="209">
         <v>-8354</v>
       </c>
-      <c r="I36" s="227">
+      <c r="I36" s="209">
         <v>1000</v>
       </c>
-      <c r="J36" s="226" t="s">
+      <c r="J36" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="K36" s="226" t="s">
+      <c r="K36" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="L36" s="228">
+      <c r="L36" s="210">
         <v>44499</v>
       </c>
-      <c r="M36" s="226" t="s">
+      <c r="M36" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N36" s="226" t="s">
+      <c r="N36" s="208" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="17">
-      <c r="B37" s="229" t="s">
+      <c r="B37" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="226" t="s">
+      <c r="C37" s="208" t="s">
         <v>348</v>
       </c>
-      <c r="D37" s="226" t="s">
+      <c r="D37" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="226">
+      <c r="E37" s="208">
         <v>-104</v>
       </c>
-      <c r="F37" s="226">
+      <c r="F37" s="208">
         <v>240</v>
       </c>
-      <c r="G37" s="226">
+      <c r="G37" s="208">
         <v>156</v>
       </c>
-      <c r="H37" s="226">
+      <c r="H37" s="208">
         <v>-48</v>
       </c>
-      <c r="I37" s="226">
+      <c r="I37" s="208">
         <v>500</v>
       </c>
-      <c r="J37" s="226" t="s">
+      <c r="J37" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K37" s="226" t="s">
+      <c r="K37" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L37" s="228">
+      <c r="L37" s="210">
         <v>44501</v>
       </c>
-      <c r="M37" s="226" t="s">
+      <c r="M37" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N37" s="226" t="s">
+      <c r="N37" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q37" t="s">
@@ -16061,43 +16981,43 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="17">
-      <c r="B38" s="229" t="s">
+      <c r="B38" s="211" t="s">
         <v>349</v>
       </c>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="208" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="226" t="s">
+      <c r="D38" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="226">
+      <c r="E38" s="208">
         <v>0</v>
       </c>
-      <c r="F38" s="226">
+      <c r="F38" s="208">
         <v>0</v>
       </c>
-      <c r="G38" s="226">
+      <c r="G38" s="208">
         <v>500</v>
       </c>
-      <c r="H38" s="226">
+      <c r="H38" s="208">
         <v>-11</v>
       </c>
-      <c r="I38" s="226">
+      <c r="I38" s="208">
         <v>500</v>
       </c>
-      <c r="J38" s="226" t="s">
+      <c r="J38" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K38" s="226" t="s">
+      <c r="K38" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L38" s="228">
+      <c r="L38" s="210">
         <v>44462</v>
       </c>
-      <c r="M38" s="226" t="s">
+      <c r="M38" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N38" s="226" t="s">
+      <c r="N38" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q38" t="s">
@@ -16105,43 +17025,43 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="17">
-      <c r="B39" s="229" t="s">
+      <c r="B39" s="211" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="226" t="s">
+      <c r="C39" s="208" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="226" t="s">
+      <c r="D39" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="226">
+      <c r="E39" s="208">
         <v>0</v>
       </c>
-      <c r="F39" s="226">
+      <c r="F39" s="208">
         <v>35</v>
       </c>
-      <c r="G39" s="226">
+      <c r="G39" s="208">
         <v>465</v>
       </c>
-      <c r="H39" s="227">
+      <c r="H39" s="209">
         <v>-2861</v>
       </c>
-      <c r="I39" s="226">
+      <c r="I39" s="208">
         <v>500</v>
       </c>
-      <c r="J39" s="226" t="s">
+      <c r="J39" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K39" s="226" t="s">
+      <c r="K39" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L39" s="228">
+      <c r="L39" s="210">
         <v>44502</v>
       </c>
-      <c r="M39" s="226" t="s">
+      <c r="M39" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N39" s="226" t="s">
+      <c r="N39" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q39" t="s">
@@ -16149,43 +17069,43 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="17">
-      <c r="B40" s="229" t="s">
+      <c r="B40" s="211" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="208" t="s">
         <v>354</v>
       </c>
-      <c r="D40" s="226" t="s">
+      <c r="D40" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="226">
+      <c r="E40" s="208">
         <v>0</v>
       </c>
-      <c r="F40" s="226">
+      <c r="F40" s="208">
         <v>50</v>
       </c>
-      <c r="G40" s="226">
+      <c r="G40" s="208">
         <v>450</v>
       </c>
-      <c r="H40" s="227">
+      <c r="H40" s="209">
         <v>-1184</v>
       </c>
-      <c r="I40" s="226">
+      <c r="I40" s="208">
         <v>500</v>
       </c>
-      <c r="J40" s="226" t="s">
+      <c r="J40" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K40" s="226" t="s">
+      <c r="K40" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L40" s="228">
+      <c r="L40" s="210">
         <v>44500</v>
       </c>
-      <c r="M40" s="226" t="s">
+      <c r="M40" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N40" s="226" t="s">
+      <c r="N40" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q40" t="s">
@@ -16193,84 +17113,84 @@
       </c>
     </row>
     <row r="41" spans="2:17" ht="17">
-      <c r="B41" s="229" t="s">
+      <c r="B41" s="211" t="s">
         <v>355</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="208" t="s">
         <v>356</v>
       </c>
-      <c r="D41" s="226" t="s">
+      <c r="D41" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="226">
+      <c r="E41" s="208">
         <v>0</v>
       </c>
-      <c r="F41" s="226">
+      <c r="F41" s="208">
         <v>20</v>
       </c>
-      <c r="G41" s="227">
+      <c r="G41" s="209">
         <v>2480</v>
       </c>
-      <c r="H41" s="226">
+      <c r="H41" s="208">
         <v>21</v>
       </c>
-      <c r="I41" s="227">
+      <c r="I41" s="209">
         <v>2500</v>
       </c>
-      <c r="J41" s="226" t="s">
+      <c r="J41" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K41" s="226" t="s">
+      <c r="K41" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L41" s="228">
+      <c r="L41" s="210">
         <v>44500</v>
       </c>
-      <c r="M41" s="226" t="s">
+      <c r="M41" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N41" s="226" t="s">
+      <c r="N41" s="208" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="17">
-      <c r="B42" s="229" t="s">
+      <c r="B42" s="211" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="208" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="226" t="s">
+      <c r="D42" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="226">
+      <c r="E42" s="208">
         <v>0</v>
       </c>
-      <c r="F42" s="226">
+      <c r="F42" s="208">
         <v>0</v>
       </c>
-      <c r="G42" s="226">
+      <c r="G42" s="208">
         <v>200</v>
       </c>
-      <c r="H42" s="226">
+      <c r="H42" s="208">
         <v>-358</v>
       </c>
-      <c r="I42" s="226">
+      <c r="I42" s="208">
         <v>200</v>
       </c>
-      <c r="J42" s="226" t="s">
+      <c r="J42" s="208" t="s">
         <v>359</v>
       </c>
-      <c r="K42" s="226" t="s">
+      <c r="K42" s="208" t="s">
         <v>359</v>
       </c>
-      <c r="L42" s="228">
+      <c r="L42" s="210">
         <v>44500</v>
       </c>
-      <c r="M42" s="226" t="s">
+      <c r="M42" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N42" s="226" t="s">
+      <c r="N42" s="208" t="s">
         <v>346</v>
       </c>
       <c r="Q42" t="s">
@@ -16278,43 +17198,43 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="17">
-      <c r="B43" s="229" t="s">
+      <c r="B43" s="211" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="226" t="s">
+      <c r="C43" s="208" t="s">
         <v>361</v>
       </c>
-      <c r="D43" s="226" t="s">
+      <c r="D43" s="208" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="226">
+      <c r="E43" s="208">
         <v>-36</v>
       </c>
-      <c r="F43" s="226">
+      <c r="F43" s="208">
         <v>387</v>
       </c>
-      <c r="G43" s="226">
+      <c r="G43" s="208">
         <v>577</v>
       </c>
-      <c r="H43" s="226">
+      <c r="H43" s="208">
         <v>-997</v>
       </c>
-      <c r="I43" s="227">
+      <c r="I43" s="209">
         <v>1000</v>
       </c>
-      <c r="J43" s="226" t="s">
+      <c r="J43" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K43" s="226" t="s">
+      <c r="K43" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L43" s="228">
+      <c r="L43" s="210">
         <v>44501</v>
       </c>
-      <c r="M43" s="226" t="s">
+      <c r="M43" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N43" s="226" t="s">
+      <c r="N43" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q43" t="s">
@@ -16322,84 +17242,84 @@
       </c>
     </row>
     <row r="44" spans="2:17" ht="17">
-      <c r="B44" s="229" t="s">
+      <c r="B44" s="211" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="208" t="s">
         <v>363</v>
       </c>
-      <c r="D44" s="226" t="s">
+      <c r="D44" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="226">
+      <c r="E44" s="208">
         <v>-35</v>
       </c>
-      <c r="F44" s="226">
+      <c r="F44" s="208">
         <v>75</v>
       </c>
-      <c r="G44" s="226">
+      <c r="G44" s="208">
         <v>890</v>
       </c>
-      <c r="H44" s="226">
+      <c r="H44" s="208">
         <v>-240</v>
       </c>
-      <c r="I44" s="227">
+      <c r="I44" s="209">
         <v>1000</v>
       </c>
-      <c r="J44" s="226" t="s">
+      <c r="J44" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K44" s="226" t="s">
+      <c r="K44" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L44" s="228">
+      <c r="L44" s="210">
         <v>44502</v>
       </c>
-      <c r="M44" s="226" t="s">
+      <c r="M44" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N44" s="226" t="s">
+      <c r="N44" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="17">
-      <c r="B45" s="229" t="s">
+      <c r="B45" s="211" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="226" t="s">
+      <c r="C45" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="226">
+      <c r="E45" s="208">
         <v>0</v>
       </c>
-      <c r="F45" s="226">
+      <c r="F45" s="208">
         <v>0</v>
       </c>
-      <c r="G45" s="227">
+      <c r="G45" s="209">
         <v>3000</v>
       </c>
-      <c r="H45" s="227">
+      <c r="H45" s="209">
         <v>-2888</v>
       </c>
-      <c r="I45" s="227">
+      <c r="I45" s="209">
         <v>3000</v>
       </c>
-      <c r="J45" s="226" t="s">
+      <c r="J45" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K45" s="226" t="s">
+      <c r="K45" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L45" s="228">
+      <c r="L45" s="210">
         <v>44501</v>
       </c>
-      <c r="M45" s="226" t="s">
+      <c r="M45" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N45" s="226" t="s">
+      <c r="N45" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q45" t="s">
@@ -16407,43 +17327,43 @@
       </c>
     </row>
     <row r="46" spans="2:17" ht="17">
-      <c r="B46" s="229" t="s">
+      <c r="B46" s="211" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="226" t="s">
+      <c r="C46" s="208" t="s">
         <v>367</v>
       </c>
-      <c r="D46" s="226" t="s">
+      <c r="D46" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="E46" s="226">
+      <c r="E46" s="208">
         <v>48</v>
       </c>
-      <c r="F46" s="226">
+      <c r="F46" s="208">
         <v>270</v>
       </c>
-      <c r="G46" s="227">
+      <c r="G46" s="209">
         <v>1778</v>
       </c>
-      <c r="H46" s="227">
+      <c r="H46" s="209">
         <v>-4616</v>
       </c>
-      <c r="I46" s="227">
+      <c r="I46" s="209">
         <v>2000</v>
       </c>
-      <c r="J46" s="226" t="s">
+      <c r="J46" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K46" s="226" t="s">
+      <c r="K46" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L46" s="228">
+      <c r="L46" s="210">
         <v>44501</v>
       </c>
-      <c r="M46" s="226" t="s">
+      <c r="M46" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N46" s="226" t="s">
+      <c r="N46" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q46" t="s">
@@ -16451,43 +17371,43 @@
       </c>
     </row>
     <row r="47" spans="2:17" ht="17">
-      <c r="B47" s="229" t="s">
+      <c r="B47" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="C47" s="226" t="s">
+      <c r="C47" s="208" t="s">
         <v>369</v>
       </c>
-      <c r="D47" s="226" t="s">
+      <c r="D47" s="208" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="226">
+      <c r="E47" s="208">
         <v>-521</v>
       </c>
-      <c r="F47" s="226">
+      <c r="F47" s="208">
         <v>285</v>
       </c>
-      <c r="G47" s="226">
+      <c r="G47" s="208">
         <v>194</v>
       </c>
-      <c r="H47" s="226">
+      <c r="H47" s="208">
         <v>43</v>
       </c>
-      <c r="I47" s="227">
+      <c r="I47" s="209">
         <v>1000</v>
       </c>
-      <c r="J47" s="226" t="s">
+      <c r="J47" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K47" s="226" t="s">
+      <c r="K47" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L47" s="228">
+      <c r="L47" s="210">
         <v>44502</v>
       </c>
-      <c r="M47" s="226" t="s">
+      <c r="M47" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N47" s="226" t="s">
+      <c r="N47" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q47" t="s">
@@ -16495,43 +17415,43 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="17">
-      <c r="B48" s="229" t="s">
+      <c r="B48" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="D48" s="226" t="s">
+      <c r="D48" s="208" t="s">
         <v>227</v>
       </c>
-      <c r="E48" s="226">
+      <c r="E48" s="208">
         <v>0</v>
       </c>
-      <c r="F48" s="226">
+      <c r="F48" s="208">
         <v>0</v>
       </c>
-      <c r="G48" s="227">
+      <c r="G48" s="209">
         <v>1000</v>
       </c>
-      <c r="H48" s="226">
+      <c r="H48" s="208">
         <v>-68</v>
       </c>
-      <c r="I48" s="227">
+      <c r="I48" s="209">
         <v>1000</v>
       </c>
-      <c r="J48" s="226" t="s">
+      <c r="J48" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="K48" s="226" t="s">
+      <c r="K48" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L48" s="228">
+      <c r="L48" s="210">
         <v>44490</v>
       </c>
-      <c r="M48" s="226" t="s">
+      <c r="M48" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N48" s="226" t="s">
+      <c r="N48" s="208" t="s">
         <v>291</v>
       </c>
       <c r="Q48" t="s">
@@ -16539,84 +17459,84 @@
       </c>
     </row>
     <row r="49" spans="2:17" ht="17">
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="211" t="s">
         <v>372</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="208" t="s">
         <v>373</v>
       </c>
-      <c r="D49" s="226" t="s">
+      <c r="D49" s="208" t="s">
         <v>230</v>
       </c>
-      <c r="E49" s="226">
+      <c r="E49" s="208">
         <v>0</v>
       </c>
-      <c r="F49" s="226">
+      <c r="F49" s="208">
         <v>0</v>
       </c>
-      <c r="G49" s="227">
+      <c r="G49" s="209">
         <v>1000</v>
       </c>
-      <c r="H49" s="226">
+      <c r="H49" s="208">
         <v>454</v>
       </c>
-      <c r="I49" s="227">
+      <c r="I49" s="209">
         <v>1000</v>
       </c>
-      <c r="J49" s="226" t="s">
+      <c r="J49" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K49" s="226" t="s">
+      <c r="K49" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L49" s="228">
+      <c r="L49" s="210">
         <v>44499</v>
       </c>
-      <c r="M49" s="226" t="s">
+      <c r="M49" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N49" s="226" t="s">
+      <c r="N49" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="50" spans="2:17" ht="17">
-      <c r="B50" s="229" t="s">
+      <c r="B50" s="211" t="s">
         <v>374</v>
       </c>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="208" t="s">
         <v>375</v>
       </c>
-      <c r="D50" s="226" t="s">
+      <c r="D50" s="208" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="226">
+      <c r="E50" s="208">
         <v>-9</v>
       </c>
-      <c r="F50" s="226">
+      <c r="F50" s="208">
         <v>120</v>
       </c>
-      <c r="G50" s="226">
+      <c r="G50" s="208">
         <v>271</v>
       </c>
-      <c r="H50" s="227">
+      <c r="H50" s="209">
         <v>-1217</v>
       </c>
-      <c r="I50" s="226">
+      <c r="I50" s="208">
         <v>400</v>
       </c>
-      <c r="J50" s="226" t="s">
+      <c r="J50" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K50" s="226" t="s">
+      <c r="K50" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L50" s="228">
+      <c r="L50" s="210">
         <v>44502</v>
       </c>
-      <c r="M50" s="226" t="s">
+      <c r="M50" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N50" s="226" t="s">
+      <c r="N50" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q50" t="s">
@@ -16624,43 +17544,43 @@
       </c>
     </row>
     <row r="51" spans="2:17" ht="17">
-      <c r="B51" s="229" t="s">
+      <c r="B51" s="211" t="s">
         <v>376</v>
       </c>
-      <c r="C51" s="226" t="s">
+      <c r="C51" s="208" t="s">
         <v>377</v>
       </c>
-      <c r="D51" s="226" t="s">
+      <c r="D51" s="208" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="226">
+      <c r="E51" s="208">
         <v>-15</v>
       </c>
-      <c r="F51" s="226">
+      <c r="F51" s="208">
         <v>25</v>
       </c>
-      <c r="G51" s="226">
+      <c r="G51" s="208">
         <v>960</v>
       </c>
-      <c r="H51" s="226">
+      <c r="H51" s="208">
         <v>-40</v>
       </c>
-      <c r="I51" s="227">
+      <c r="I51" s="209">
         <v>1000</v>
       </c>
-      <c r="J51" s="226" t="s">
+      <c r="J51" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K51" s="226" t="s">
+      <c r="K51" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L51" s="228">
+      <c r="L51" s="210">
         <v>44502</v>
       </c>
-      <c r="M51" s="226" t="s">
+      <c r="M51" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N51" s="226" t="s">
+      <c r="N51" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q51" t="s">
@@ -16668,84 +17588,84 @@
       </c>
     </row>
     <row r="52" spans="2:17" ht="17">
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="211" t="s">
         <v>378</v>
       </c>
-      <c r="C52" s="226" t="s">
+      <c r="C52" s="208" t="s">
         <v>379</v>
       </c>
-      <c r="D52" s="226" t="s">
+      <c r="D52" s="208" t="s">
         <v>258</v>
       </c>
-      <c r="E52" s="226">
+      <c r="E52" s="208">
         <v>0</v>
       </c>
-      <c r="F52" s="226">
+      <c r="F52" s="208">
         <v>0</v>
       </c>
-      <c r="G52" s="227">
+      <c r="G52" s="209">
         <v>1000</v>
       </c>
-      <c r="H52" s="226">
+      <c r="H52" s="208">
         <v>245</v>
       </c>
-      <c r="I52" s="227">
+      <c r="I52" s="209">
         <v>1000</v>
       </c>
-      <c r="J52" s="226" t="s">
+      <c r="J52" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K52" s="226" t="s">
+      <c r="K52" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L52" s="228">
+      <c r="L52" s="210">
         <v>44499</v>
       </c>
-      <c r="M52" s="226" t="s">
+      <c r="M52" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N52" s="226" t="s">
+      <c r="N52" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="17">
-      <c r="B53" s="229" t="s">
+      <c r="B53" s="211" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="226" t="s">
+      <c r="C53" s="208" t="s">
         <v>381</v>
       </c>
-      <c r="D53" s="226" t="s">
+      <c r="D53" s="208" t="s">
         <v>229</v>
       </c>
-      <c r="E53" s="226">
+      <c r="E53" s="208">
         <v>0</v>
       </c>
-      <c r="F53" s="226">
+      <c r="F53" s="208">
         <v>0</v>
       </c>
-      <c r="G53" s="226">
+      <c r="G53" s="208">
         <v>500</v>
       </c>
-      <c r="H53" s="226">
+      <c r="H53" s="208">
         <v>-155</v>
       </c>
-      <c r="I53" s="226">
+      <c r="I53" s="208">
         <v>500</v>
       </c>
-      <c r="J53" s="226" t="s">
+      <c r="J53" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K53" s="226" t="s">
+      <c r="K53" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L53" s="228">
+      <c r="L53" s="210">
         <v>44497</v>
       </c>
-      <c r="M53" s="226" t="s">
+      <c r="M53" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N53" s="226" t="s">
+      <c r="N53" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q53" t="s">
@@ -16753,43 +17673,43 @@
       </c>
     </row>
     <row r="54" spans="2:17" ht="17">
-      <c r="B54" s="229" t="s">
+      <c r="B54" s="211" t="s">
         <v>382</v>
       </c>
-      <c r="C54" s="226" t="s">
+      <c r="C54" s="208" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="226" t="s">
+      <c r="D54" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="226">
+      <c r="E54" s="208">
         <v>517</v>
       </c>
-      <c r="F54" s="227">
+      <c r="F54" s="209">
         <v>2636</v>
       </c>
-      <c r="G54" s="227">
+      <c r="G54" s="209">
         <v>2381</v>
       </c>
-      <c r="H54" s="227">
+      <c r="H54" s="209">
         <v>3755</v>
       </c>
-      <c r="I54" s="227">
+      <c r="I54" s="209">
         <v>4500</v>
       </c>
-      <c r="J54" s="226" t="s">
+      <c r="J54" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K54" s="226" t="s">
+      <c r="K54" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L54" s="228">
+      <c r="L54" s="210">
         <v>44502</v>
       </c>
-      <c r="M54" s="226" t="s">
+      <c r="M54" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="226" t="s">
+      <c r="N54" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q54" t="s">
@@ -16797,43 +17717,43 @@
       </c>
     </row>
     <row r="55" spans="2:17" ht="17">
-      <c r="B55" s="229" t="s">
+      <c r="B55" s="211" t="s">
         <v>384</v>
       </c>
-      <c r="C55" s="226" t="s">
+      <c r="C55" s="208" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="226" t="s">
+      <c r="D55" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="E55" s="226">
+      <c r="E55" s="208">
         <v>0</v>
       </c>
-      <c r="F55" s="226">
+      <c r="F55" s="208">
         <v>10</v>
       </c>
-      <c r="G55" s="226">
+      <c r="G55" s="208">
         <v>990</v>
       </c>
-      <c r="H55" s="226">
+      <c r="H55" s="208">
         <v>-135</v>
       </c>
-      <c r="I55" s="227">
+      <c r="I55" s="209">
         <v>1000</v>
       </c>
-      <c r="J55" s="226" t="s">
+      <c r="J55" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K55" s="226" t="s">
+      <c r="K55" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L55" s="228">
+      <c r="L55" s="210">
         <v>44502</v>
       </c>
-      <c r="M55" s="226" t="s">
+      <c r="M55" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N55" s="226" t="s">
+      <c r="N55" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q55" t="s">
@@ -16841,43 +17761,43 @@
       </c>
     </row>
     <row r="56" spans="2:17" ht="17">
-      <c r="B56" s="229" t="s">
+      <c r="B56" s="211" t="s">
         <v>386</v>
       </c>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="208" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="226" t="s">
+      <c r="D56" s="208" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="226">
+      <c r="E56" s="208">
         <v>-144</v>
       </c>
-      <c r="F56" s="226">
+      <c r="F56" s="208">
         <v>420</v>
       </c>
-      <c r="G56" s="226">
+      <c r="G56" s="208">
         <v>436</v>
       </c>
-      <c r="H56" s="226">
+      <c r="H56" s="208">
         <v>-589</v>
       </c>
-      <c r="I56" s="227">
+      <c r="I56" s="209">
         <v>1000</v>
       </c>
-      <c r="J56" s="226" t="s">
+      <c r="J56" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K56" s="226" t="s">
+      <c r="K56" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L56" s="228">
+      <c r="L56" s="210">
         <v>44502</v>
       </c>
-      <c r="M56" s="226" t="s">
+      <c r="M56" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N56" s="226" t="s">
+      <c r="N56" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q56" t="s">
@@ -16885,84 +17805,84 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="17">
-      <c r="B57" s="229" t="s">
+      <c r="B57" s="211" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="226" t="s">
+      <c r="C57" s="208" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="226" t="s">
+      <c r="D57" s="208" t="s">
         <v>260</v>
       </c>
-      <c r="E57" s="227">
+      <c r="E57" s="209">
         <v>-1200</v>
       </c>
-      <c r="F57" s="226">
+      <c r="F57" s="208">
         <v>250</v>
       </c>
-      <c r="G57" s="226">
+      <c r="G57" s="208">
         <v>550</v>
       </c>
-      <c r="H57" s="227">
+      <c r="H57" s="209">
         <v>-3583</v>
       </c>
-      <c r="I57" s="227">
+      <c r="I57" s="209">
         <v>2000</v>
       </c>
-      <c r="J57" s="226" t="s">
+      <c r="J57" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="K57" s="226" t="s">
+      <c r="K57" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="L57" s="228">
+      <c r="L57" s="210">
         <v>44502</v>
       </c>
-      <c r="M57" s="226" t="s">
+      <c r="M57" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N57" s="226" t="s">
+      <c r="N57" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="58" spans="2:17" ht="17">
-      <c r="B58" s="229" t="s">
+      <c r="B58" s="211" t="s">
         <v>389</v>
       </c>
-      <c r="C58" s="226" t="s">
+      <c r="C58" s="208" t="s">
         <v>390</v>
       </c>
-      <c r="D58" s="226" t="s">
+      <c r="D58" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="E58" s="226">
+      <c r="E58" s="208">
         <v>-79</v>
       </c>
-      <c r="F58" s="226">
+      <c r="F58" s="208">
         <v>0</v>
       </c>
-      <c r="G58" s="226">
+      <c r="G58" s="208">
         <v>421</v>
       </c>
-      <c r="H58" s="226">
+      <c r="H58" s="208">
         <v>-185</v>
       </c>
-      <c r="I58" s="226">
+      <c r="I58" s="208">
         <v>500</v>
       </c>
-      <c r="J58" s="226" t="s">
+      <c r="J58" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K58" s="226" t="s">
+      <c r="K58" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L58" s="228">
+      <c r="L58" s="210">
         <v>44501</v>
       </c>
-      <c r="M58" s="226" t="s">
+      <c r="M58" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N58" s="226" t="s">
+      <c r="N58" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q58" t="s">
@@ -16970,43 +17890,43 @@
       </c>
     </row>
     <row r="59" spans="2:17" ht="17">
-      <c r="B59" s="229" t="s">
+      <c r="B59" s="211" t="s">
         <v>391</v>
       </c>
-      <c r="C59" s="226" t="s">
+      <c r="C59" s="208" t="s">
         <v>392</v>
       </c>
-      <c r="D59" s="226" t="s">
+      <c r="D59" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="226">
+      <c r="E59" s="208">
         <v>-350</v>
       </c>
-      <c r="F59" s="226">
+      <c r="F59" s="208">
         <v>0</v>
       </c>
-      <c r="G59" s="226">
+      <c r="G59" s="208">
         <v>150</v>
       </c>
-      <c r="H59" s="226">
+      <c r="H59" s="208">
         <v>-134</v>
       </c>
-      <c r="I59" s="226">
+      <c r="I59" s="208">
         <v>500</v>
       </c>
-      <c r="J59" s="226" t="s">
+      <c r="J59" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K59" s="226" t="s">
+      <c r="K59" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L59" s="228">
+      <c r="L59" s="210">
         <v>44501</v>
       </c>
-      <c r="M59" s="226" t="s">
+      <c r="M59" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N59" s="226" t="s">
+      <c r="N59" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q59" t="s">
@@ -17014,84 +17934,84 @@
       </c>
     </row>
     <row r="60" spans="2:17" ht="17">
-      <c r="B60" s="229" t="s">
+      <c r="B60" s="211" t="s">
         <v>393</v>
       </c>
-      <c r="C60" s="226" t="s">
+      <c r="C60" s="208" t="s">
         <v>394</v>
       </c>
-      <c r="D60" s="226" t="s">
+      <c r="D60" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="E60" s="226">
+      <c r="E60" s="208">
         <v>0</v>
       </c>
-      <c r="F60" s="226">
+      <c r="F60" s="208">
         <v>0</v>
       </c>
-      <c r="G60" s="226">
+      <c r="G60" s="208">
         <v>750</v>
       </c>
-      <c r="H60" s="226">
+      <c r="H60" s="208">
         <v>-111</v>
       </c>
-      <c r="I60" s="226">
+      <c r="I60" s="208">
         <v>750</v>
       </c>
-      <c r="J60" s="226" t="s">
+      <c r="J60" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K60" s="226" t="s">
+      <c r="K60" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L60" s="228">
+      <c r="L60" s="210">
         <v>44493</v>
       </c>
-      <c r="M60" s="226" t="s">
+      <c r="M60" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N60" s="226" t="s">
+      <c r="N60" s="208" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="61" spans="2:17" ht="17">
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="211" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="226" t="s">
+      <c r="C61" s="208" t="s">
         <v>396</v>
       </c>
-      <c r="D61" s="226" t="s">
+      <c r="D61" s="208" t="s">
         <v>399</v>
       </c>
-      <c r="E61" s="226">
+      <c r="E61" s="208">
         <v>0</v>
       </c>
-      <c r="F61" s="226">
+      <c r="F61" s="208">
         <v>0</v>
       </c>
-      <c r="G61" s="226">
+      <c r="G61" s="208">
         <v>750</v>
       </c>
-      <c r="H61" s="226">
+      <c r="H61" s="208">
         <v>0</v>
       </c>
-      <c r="I61" s="226">
+      <c r="I61" s="208">
         <v>750</v>
       </c>
-      <c r="J61" s="226" t="s">
+      <c r="J61" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K61" s="226" t="s">
+      <c r="K61" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L61" s="226" t="s">
+      <c r="L61" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="M61" s="226" t="s">
+      <c r="M61" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N61" s="226" t="s">
+      <c r="N61" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q61" t="s">
@@ -17099,41 +18019,41 @@
       </c>
     </row>
     <row r="62" spans="2:17" ht="17">
-      <c r="B62" s="229" t="s">
+      <c r="B62" s="211" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="226" t="s">
+      <c r="C62" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="226"/>
-      <c r="E62" s="226">
+      <c r="D62" s="208"/>
+      <c r="E62" s="208">
         <v>0</v>
       </c>
-      <c r="F62" s="226">
+      <c r="F62" s="208">
         <v>0</v>
       </c>
-      <c r="G62" s="226">
+      <c r="G62" s="208">
         <v>500</v>
       </c>
-      <c r="H62" s="226">
+      <c r="H62" s="208">
         <v>0</v>
       </c>
-      <c r="I62" s="226">
+      <c r="I62" s="208">
         <v>500</v>
       </c>
-      <c r="J62" s="226" t="s">
+      <c r="J62" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K62" s="226" t="s">
+      <c r="K62" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L62" s="226" t="s">
+      <c r="L62" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="M62" s="226" t="s">
+      <c r="M62" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N62" s="226" t="s">
+      <c r="N62" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q62" t="s">
@@ -17141,41 +18061,41 @@
       </c>
     </row>
     <row r="63" spans="2:17" ht="17">
-      <c r="B63" s="229" t="s">
+      <c r="B63" s="211" t="s">
         <v>398</v>
       </c>
-      <c r="C63" s="226" t="s">
+      <c r="C63" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226">
+      <c r="D63" s="208"/>
+      <c r="E63" s="208">
         <v>0</v>
       </c>
-      <c r="F63" s="226">
+      <c r="F63" s="208">
         <v>0</v>
       </c>
-      <c r="G63" s="226">
+      <c r="G63" s="208">
         <v>500</v>
       </c>
-      <c r="H63" s="226">
+      <c r="H63" s="208">
         <v>0</v>
       </c>
-      <c r="I63" s="226">
+      <c r="I63" s="208">
         <v>500</v>
       </c>
-      <c r="J63" s="226" t="s">
+      <c r="J63" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="K63" s="226" t="s">
+      <c r="K63" s="208" t="s">
         <v>303</v>
       </c>
-      <c r="L63" s="226" t="s">
+      <c r="L63" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="M63" s="226" t="s">
+      <c r="M63" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="N63" s="226" t="s">
+      <c r="N63" s="208" t="s">
         <v>304</v>
       </c>
       <c r="Q63" t="s">
@@ -17493,1421 +18413,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
-  <dimension ref="B2:L66"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="17" thickBot="1"/>
-    <row r="3" spans="2:12" ht="20" thickBot="1">
-      <c r="B3" s="143" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="144" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="144" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="144" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="144" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="145" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="143" t="s">
-        <v>204</v>
-      </c>
-      <c r="L3" s="145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="209" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="209">
-        <v>-110</v>
-      </c>
-      <c r="H4" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="211">
-        <v>44459.832638888889</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="186">
-        <f t="shared" ref="L4:L12" si="0">SUMIF($B$4:$B$65,$K4,$G$4:$G$65)</f>
-        <v>-415</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="208"/>
-      <c r="C5" s="148">
-        <v>44459.845138888886</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="149" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="212"/>
-      <c r="K5" s="181" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="182">
-        <f t="shared" si="0"/>
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="198" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="150" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="201" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="201">
-        <v>-50</v>
-      </c>
-      <c r="H6" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="204">
-        <v>44462.619444444441</v>
-      </c>
-      <c r="K6" s="181" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="182">
-        <f t="shared" si="0"/>
-        <v>-110.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="199"/>
-      <c r="C7" s="152">
-        <v>44462.632638888892</v>
-      </c>
-      <c r="D7" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="153" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="205"/>
-      <c r="K7" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="182">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="199"/>
-      <c r="C8" s="152">
-        <v>44462.652777777781</v>
-      </c>
-      <c r="D8" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="205"/>
-      <c r="K8" s="181" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8" s="182">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="199"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="205"/>
-      <c r="K9" s="181" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="182">
-        <f t="shared" si="0"/>
-        <v>-50.4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="200"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="206"/>
-      <c r="K10" s="181" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="182">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="169" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="169">
-        <v>-252</v>
-      </c>
-      <c r="H11" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="170">
-        <v>44462.906944444447</v>
-      </c>
-      <c r="K11" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="182">
-        <f t="shared" si="0"/>
-        <v>-60.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1">
-      <c r="B12" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="172">
-        <v>44462.912499999999</v>
-      </c>
-      <c r="D12" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174">
-        <f>$G$11/5</f>
-        <v>-50.4</v>
-      </c>
-      <c r="H12" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="175">
-        <v>44462.906944444447</v>
-      </c>
-      <c r="K12" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="184">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1">
-      <c r="B13" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174">
-        <f t="shared" ref="G13:G16" si="1">$G$11/5</f>
-        <v>-50.4</v>
-      </c>
-      <c r="H13" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="175">
-        <v>44462.906944444447</v>
-      </c>
-      <c r="K13" s="187" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="188">
-        <f>SUM(L4:L12)</f>
-        <v>-486</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174">
-        <f t="shared" si="1"/>
-        <v>-50.4</v>
-      </c>
-      <c r="H14" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="175">
-        <v>44462.906944444447</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174">
-        <f t="shared" si="1"/>
-        <v>-50.4</v>
-      </c>
-      <c r="H15" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="175">
-        <v>44462.906944444447</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="17" thickBot="1">
-      <c r="B16" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="179">
-        <f t="shared" si="1"/>
-        <v>-50.4</v>
-      </c>
-      <c r="H16" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="180">
-        <v>44462.906944444447</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="198" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="150" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="201" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="201">
-        <v>-31</v>
-      </c>
-      <c r="H17" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="204">
-        <v>44462.643055555556</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="199"/>
-      <c r="C18" s="152">
-        <v>44462.930555555555</v>
-      </c>
-      <c r="D18" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="205"/>
-    </row>
-    <row r="19" spans="2:9" ht="17" thickBot="1">
-      <c r="B19" s="200"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="206"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="209" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="209">
-        <v>-40</v>
-      </c>
-      <c r="H20" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="211">
-        <v>44462.643750000003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="213"/>
-      <c r="C21" s="172">
-        <v>44462.930555555555</v>
-      </c>
-      <c r="D21" s="173" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="173" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="173" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="215"/>
-    </row>
-    <row r="22" spans="2:9" ht="17" thickBot="1">
-      <c r="B22" s="208"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="212"/>
-    </row>
-    <row r="23" spans="2:9" ht="17" thickBot="1">
-      <c r="B23" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156">
-        <v>-225</v>
-      </c>
-      <c r="H23" s="156"/>
-      <c r="I23" s="157">
-        <v>44463.479166666664</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="207" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="209" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="209">
-        <v>-20</v>
-      </c>
-      <c r="H24" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="211">
-        <v>44463.495833333334</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="213"/>
-      <c r="C25" s="172">
-        <v>44463.597916666666</v>
-      </c>
-      <c r="D25" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="173" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="215"/>
-    </row>
-    <row r="26" spans="2:9" ht="17" thickBot="1">
-      <c r="B26" s="208"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="212"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="198" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="201" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="201">
-        <v>52</v>
-      </c>
-      <c r="H27" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="204">
-        <v>44463.520833333336</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="199"/>
-      <c r="C28" s="152">
-        <v>44463.597916666666</v>
-      </c>
-      <c r="D28" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="205"/>
-    </row>
-    <row r="29" spans="2:9" ht="17" thickBot="1">
-      <c r="B29" s="200"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="206"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="169">
-        <v>250</v>
-      </c>
-      <c r="H30" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="170">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="172">
-        <v>44463.597916666666</v>
-      </c>
-      <c r="D31" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174">
-        <f>$G$30/5</f>
-        <v>50</v>
-      </c>
-      <c r="H31" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="175">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174">
-        <f t="shared" ref="G32:G35" si="2">$G$30/5</f>
-        <v>50</v>
-      </c>
-      <c r="H32" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="175">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H33" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="175">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="171" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H34" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="175">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="17" thickBot="1">
-      <c r="B35" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H35" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="I35" s="180">
-        <v>44463.521527777775</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="198" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="201">
-        <v>43</v>
-      </c>
-      <c r="H36" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="204">
-        <v>44463.568055555559</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="199"/>
-      <c r="C37" s="152">
-        <v>44463.597916666666</v>
-      </c>
-      <c r="D37" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="205"/>
-    </row>
-    <row r="38" spans="2:9" ht="17" thickBot="1">
-      <c r="B38" s="200"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="203"/>
-      <c r="G38" s="203"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="206"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="146" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="169" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="169">
-        <v>350</v>
-      </c>
-      <c r="H39" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="170">
-        <v>44463.700694444444</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="172">
-        <v>44463.795138888891</v>
-      </c>
-      <c r="D40" s="173" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174">
-        <f>$G$39/4</f>
-        <v>87.5</v>
-      </c>
-      <c r="H40" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I40" s="175">
-        <v>44463.700694444444</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="173"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174">
-        <f t="shared" ref="G41:G43" si="3">$G$39/4</f>
-        <v>87.5</v>
-      </c>
-      <c r="H41" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="175">
-        <v>44463.700694444444</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="173"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="H42" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="175">
-        <v>44463.700694444444</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="17" thickBot="1">
-      <c r="B43" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="173"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="H43" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="175">
-        <v>44463.700694444444</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="158" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="159" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="159">
-        <v>250</v>
-      </c>
-      <c r="H44" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="I44" s="160">
-        <v>44464.444444444445</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="161" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="152">
-        <v>44464.503472222219</v>
-      </c>
-      <c r="D45" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162">
-        <f>$G$44/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="H45" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="163">
-        <v>44464.444444444445</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="161" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="153"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162">
-        <f>$G$44/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="H46" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="163">
-        <v>44464.444444444445</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162">
-        <f>$G$44/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="H47" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="163">
-        <v>44464.444444444445</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="17" thickBot="1">
-      <c r="B48" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="153"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162">
-        <f>$G$44/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="H48" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" s="163">
-        <v>44464.444444444445</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="169" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="169">
-        <v>-263</v>
-      </c>
-      <c r="H49" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" s="170">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="172">
-        <v>44464.504166666666</v>
-      </c>
-      <c r="D50" s="173" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="173" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174">
-        <f>$G$49/5</f>
-        <v>-52.6</v>
-      </c>
-      <c r="H50" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="175">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="172"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="173" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="174"/>
-      <c r="G51" s="174">
-        <f t="shared" ref="G51:G54" si="4">$G$49/5</f>
-        <v>-52.6</v>
-      </c>
-      <c r="H51" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="175">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="172"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174">
-        <f t="shared" si="4"/>
-        <v>-52.6</v>
-      </c>
-      <c r="H52" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" s="175">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="172"/>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174">
-        <f t="shared" si="4"/>
-        <v>-52.6</v>
-      </c>
-      <c r="H53" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" s="175">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="17" thickBot="1">
-      <c r="B54" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179">
-        <f t="shared" si="4"/>
-        <v>-52.6</v>
-      </c>
-      <c r="H54" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" s="180">
-        <v>44464.439583333333</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="158" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="151"/>
-      <c r="E55" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="159">
-        <v>-230</v>
-      </c>
-      <c r="H55" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="160">
-        <v>44464.572916666664</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="152">
-        <v>44464.584027777775</v>
-      </c>
-      <c r="D56" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="153" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162">
-        <f>$G$55/4</f>
-        <v>-57.5</v>
-      </c>
-      <c r="H56" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="163">
-        <v>44464.572916666664</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="161" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162">
-        <f t="shared" ref="G57:G59" si="5">$G$55/4</f>
-        <v>-57.5</v>
-      </c>
-      <c r="H57" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="163">
-        <v>44464.572916666664</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="161" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="153"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="162">
-        <f t="shared" si="5"/>
-        <v>-57.5</v>
-      </c>
-      <c r="H58" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" s="163">
-        <v>44464.572916666664</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="17" thickBot="1">
-      <c r="B59" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="167"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="162">
-        <f t="shared" si="5"/>
-        <v>-57.5</v>
-      </c>
-      <c r="H59" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I59" s="163">
-        <v>44464.572916666664</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="207" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="147"/>
-      <c r="E60" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="209" t="s">
-        <v>193</v>
-      </c>
-      <c r="G60" s="209">
-        <v>50</v>
-      </c>
-      <c r="H60" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="I60" s="211">
-        <v>44464.740277777775</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="17" thickBot="1">
-      <c r="B61" s="208"/>
-      <c r="C61" s="148">
-        <v>44464.815972222219</v>
-      </c>
-      <c r="D61" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="I61" s="212"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="198" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="150" t="s">
-        <v>195</v>
-      </c>
-      <c r="F62" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="201">
-        <v>-260</v>
-      </c>
-      <c r="H62" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" s="204">
-        <v>44460.601388888892</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="199"/>
-      <c r="C63" s="152">
-        <v>44464.934027777781</v>
-      </c>
-      <c r="D63" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="153" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="202"/>
-      <c r="G63" s="202"/>
-      <c r="H63" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" s="205"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="199"/>
-      <c r="C64" s="152">
-        <v>44464.940972222219</v>
-      </c>
-      <c r="D64" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="153" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="202"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="I64" s="205"/>
-    </row>
-    <row r="65" spans="2:9" ht="17" thickBot="1">
-      <c r="B65" s="200"/>
-      <c r="C65" s="167">
-        <v>44464.815972222219</v>
-      </c>
-      <c r="D65" s="154" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="154" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="154" t="s">
-        <v>171</v>
-      </c>
-      <c r="I65" s="206"/>
-    </row>
-    <row r="66" spans="2:9" ht="17" thickBot="1">
-      <c r="B66" s="189" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="190"/>
-      <c r="D66" s="190" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="190" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="190"/>
-      <c r="G66" s="190">
-        <v>486</v>
-      </c>
-      <c r="H66" s="190"/>
-      <c r="I66" s="191">
-        <v>44466.124305555553</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19284,6 +18789,1421 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
+  <dimension ref="B2:L66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17" thickBot="1"/>
+    <row r="3" spans="2:12" ht="20" thickBot="1">
+      <c r="B3" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="147"/>
+      <c r="E4" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="223" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="223">
+        <v>-110</v>
+      </c>
+      <c r="H4" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="225">
+        <v>44459.832638888889</v>
+      </c>
+      <c r="K4" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="186">
+        <f t="shared" ref="L4:L12" si="0">SUMIF($B$4:$B$65,$K4,$G$4:$G$65)</f>
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1">
+      <c r="B5" s="222"/>
+      <c r="C5" s="148">
+        <v>44459.845138888886</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="226"/>
+      <c r="K5" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="182">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="215" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="215">
+        <v>-50</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="218">
+        <v>44462.619444444441</v>
+      </c>
+      <c r="K6" s="181" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="182">
+        <f t="shared" si="0"/>
+        <v>-110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="213"/>
+      <c r="C7" s="152">
+        <v>44462.632638888892</v>
+      </c>
+      <c r="D7" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="153" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="219"/>
+      <c r="K7" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="182">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="213"/>
+      <c r="C8" s="152">
+        <v>44462.652777777781</v>
+      </c>
+      <c r="D8" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="219"/>
+      <c r="K8" s="181" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="213"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="219"/>
+      <c r="K9" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="182">
+        <f t="shared" si="0"/>
+        <v>-50.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17" thickBot="1">
+      <c r="B10" s="214"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="220"/>
+      <c r="K10" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="182">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="147"/>
+      <c r="E11" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="169" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="169">
+        <v>-252</v>
+      </c>
+      <c r="H11" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="170">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K11" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="182">
+        <f t="shared" si="0"/>
+        <v>-60.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1">
+      <c r="B12" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="172">
+        <v>44462.912499999999</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174">
+        <f>$G$11/5</f>
+        <v>-50.4</v>
+      </c>
+      <c r="H12" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="175">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K12" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="17" thickBot="1">
+      <c r="B13" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="173"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174">
+        <f t="shared" ref="G13:G16" si="1">$G$11/5</f>
+        <v>-50.4</v>
+      </c>
+      <c r="H13" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="175">
+        <v>44462.906944444447</v>
+      </c>
+      <c r="K13" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="188">
+        <f>SUM(L4:L12)</f>
+        <v>-486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174">
+        <f t="shared" si="1"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H14" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="175">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174">
+        <f t="shared" si="1"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H15" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="175">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="17" thickBot="1">
+      <c r="B16" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="179">
+        <f t="shared" si="1"/>
+        <v>-50.4</v>
+      </c>
+      <c r="H16" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="180">
+        <v>44462.906944444447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="150" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="215" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="215">
+        <v>-31</v>
+      </c>
+      <c r="H17" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="218">
+        <v>44462.643055555556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="213"/>
+      <c r="C18" s="152">
+        <v>44462.930555555555</v>
+      </c>
+      <c r="D18" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="153" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="219"/>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1">
+      <c r="B19" s="214"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="220"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="147"/>
+      <c r="E20" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="223" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="223">
+        <v>-40</v>
+      </c>
+      <c r="H20" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="225">
+        <v>44462.643750000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="227"/>
+      <c r="C21" s="172">
+        <v>44462.930555555555</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="229"/>
+    </row>
+    <row r="22" spans="2:9" ht="17" thickBot="1">
+      <c r="B22" s="222"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="226"/>
+    </row>
+    <row r="23" spans="2:9" ht="17" thickBot="1">
+      <c r="B23" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156">
+        <v>-225</v>
+      </c>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157">
+        <v>44463.479166666664</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="147"/>
+      <c r="E24" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="223" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="223">
+        <v>-20</v>
+      </c>
+      <c r="H24" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="225">
+        <v>44463.495833333334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="227"/>
+      <c r="C25" s="172">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D25" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="173" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="229"/>
+    </row>
+    <row r="26" spans="2:9" ht="17" thickBot="1">
+      <c r="B26" s="222"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="226"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="215" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="215">
+        <v>52</v>
+      </c>
+      <c r="H27" s="150" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="218">
+        <v>44463.520833333336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="213"/>
+      <c r="C28" s="152">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D28" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="219"/>
+    </row>
+    <row r="29" spans="2:9" ht="17" thickBot="1">
+      <c r="B29" s="214"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="220"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="169" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="169">
+        <v>250</v>
+      </c>
+      <c r="H30" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="170">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="172">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174">
+        <f>$G$30/5</f>
+        <v>50</v>
+      </c>
+      <c r="H31" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="175">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174">
+        <f t="shared" ref="G32:G35" si="2">$G$30/5</f>
+        <v>50</v>
+      </c>
+      <c r="H32" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="175">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H33" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="175">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="172"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H34" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="175">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17" thickBot="1">
+      <c r="B35" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H35" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="180">
+        <v>44463.521527777775</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="151"/>
+      <c r="E36" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="215">
+        <v>43</v>
+      </c>
+      <c r="H36" s="150" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="218">
+        <v>44463.568055555559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="213"/>
+      <c r="C37" s="152">
+        <v>44463.597916666666</v>
+      </c>
+      <c r="D37" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="219"/>
+    </row>
+    <row r="38" spans="2:9" ht="17" thickBot="1">
+      <c r="B38" s="214"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="220"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="146" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="147"/>
+      <c r="E39" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="169">
+        <v>350</v>
+      </c>
+      <c r="H39" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="170">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="172">
+        <v>44463.795138888891</v>
+      </c>
+      <c r="D40" s="173" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174">
+        <f>$G$39/4</f>
+        <v>87.5</v>
+      </c>
+      <c r="H40" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="175">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="173"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174">
+        <f t="shared" ref="G41:G43" si="3">$G$39/4</f>
+        <v>87.5</v>
+      </c>
+      <c r="H41" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="175">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="173"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="H42" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="175">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="17" thickBot="1">
+      <c r="B43" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="173"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="H43" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="175">
+        <v>44463.700694444444</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="151"/>
+      <c r="E44" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="159" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="159">
+        <v>250</v>
+      </c>
+      <c r="H44" s="150" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="160">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="152">
+        <v>44464.503472222219</v>
+      </c>
+      <c r="D45" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H45" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="163">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="153"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H46" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="163">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="153"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H47" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="163">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="17" thickBot="1">
+      <c r="B48" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="153"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162">
+        <f>$G$44/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="H48" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="163">
+        <v>44464.444444444445</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="147"/>
+      <c r="E49" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="169">
+        <v>-263</v>
+      </c>
+      <c r="H49" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="170">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="172">
+        <v>44464.504166666666</v>
+      </c>
+      <c r="D50" s="173" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174">
+        <f>$G$49/5</f>
+        <v>-52.6</v>
+      </c>
+      <c r="H50" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="175">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="172"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174">
+        <f t="shared" ref="G51:G54" si="4">$G$49/5</f>
+        <v>-52.6</v>
+      </c>
+      <c r="H51" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="175">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="172"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174">
+        <f t="shared" si="4"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H52" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="175">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="172"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174">
+        <f t="shared" si="4"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H53" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="175">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="17" thickBot="1">
+      <c r="B54" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179">
+        <f t="shared" si="4"/>
+        <v>-52.6</v>
+      </c>
+      <c r="H54" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="180">
+        <v>44464.439583333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="151"/>
+      <c r="E55" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="159">
+        <v>-230</v>
+      </c>
+      <c r="H55" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="160">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="152">
+        <v>44464.584027777775</v>
+      </c>
+      <c r="D56" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162">
+        <f>$G$55/4</f>
+        <v>-57.5</v>
+      </c>
+      <c r="H56" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="163">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="153"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162">
+        <f t="shared" ref="G57:G59" si="5">$G$55/4</f>
+        <v>-57.5</v>
+      </c>
+      <c r="H57" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" s="163">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="153"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162">
+        <f t="shared" si="5"/>
+        <v>-57.5</v>
+      </c>
+      <c r="H58" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="163">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="17" thickBot="1">
+      <c r="B59" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="167"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="162">
+        <f t="shared" si="5"/>
+        <v>-57.5</v>
+      </c>
+      <c r="H59" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" s="163">
+        <v>44464.572916666664</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="147"/>
+      <c r="E60" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="223" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="223">
+        <v>50</v>
+      </c>
+      <c r="H60" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" s="225">
+        <v>44464.740277777775</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="17" thickBot="1">
+      <c r="B61" s="222"/>
+      <c r="C61" s="148">
+        <v>44464.815972222219</v>
+      </c>
+      <c r="D61" s="149" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="224"/>
+      <c r="G61" s="224"/>
+      <c r="H61" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="226"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="151"/>
+      <c r="E62" s="150" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="215" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="215">
+        <v>-260</v>
+      </c>
+      <c r="H62" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="218">
+        <v>44460.601388888892</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="213"/>
+      <c r="C63" s="152">
+        <v>44464.934027777781</v>
+      </c>
+      <c r="D63" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="153" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="216"/>
+      <c r="G63" s="216"/>
+      <c r="H63" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="219"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="213"/>
+      <c r="C64" s="152">
+        <v>44464.940972222219</v>
+      </c>
+      <c r="D64" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="153" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="216"/>
+      <c r="G64" s="216"/>
+      <c r="H64" s="153" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="219"/>
+    </row>
+    <row r="65" spans="2:9" ht="17" thickBot="1">
+      <c r="B65" s="214"/>
+      <c r="C65" s="167">
+        <v>44464.815972222219</v>
+      </c>
+      <c r="D65" s="154" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="154" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="217"/>
+      <c r="G65" s="217"/>
+      <c r="H65" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="220"/>
+    </row>
+    <row r="66" spans="2:9" ht="17" thickBot="1">
+      <c r="B66" s="189" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="190"/>
+      <c r="D66" s="190" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="190"/>
+      <c r="G66" s="190">
+        <v>486</v>
+      </c>
+      <c r="H66" s="190"/>
+      <c r="I66" s="191">
+        <v>44466.124305555553</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="I6:I10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED60AB-3383-0F44-9D7B-CB2D7A83719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEB9AF2-83D9-3848-ADD1-1060288A894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" firstSheet="15" activeTab="27" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="16" activeTab="29" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,10 @@
     <sheet name="10.18.2021" sheetId="32" r:id="rId26"/>
     <sheet name="10.25.2021" sheetId="33" r:id="rId27"/>
     <sheet name="11.1.2021" sheetId="35" r:id="rId28"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId29"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId30"/>
+    <sheet name="11.8.2021" sheetId="37" r:id="rId29"/>
+    <sheet name="11.15.2021" sheetId="38" r:id="rId30"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId31"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="444">
   <si>
     <t>Agent</t>
   </si>
@@ -1392,6 +1394,9 @@
   </si>
   <si>
     <t>Amount Outstanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED FEES </t>
   </si>
 </sst>
 </file>
@@ -3079,6 +3084,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722FEB86-A760-5B42-8FCF-AEFCD288CC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5664200" y="571500"/>
+          <a:ext cx="6858000" cy="2527300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C1F4C4-70F5-B741-A23F-2C05EE6D980A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="609600"/>
+          <a:ext cx="6883400" cy="2603500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13675,8 +13778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
   <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14585,8 +14688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A278B6-55AF-1342-B174-8FE61A53F9FC}">
   <dimension ref="B3:S49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15443,2977 +15546,717 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
-  <dimension ref="B3:Q146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F57E8C-E631-5948-9E37-3339CFEF5B9C}">
+  <dimension ref="B3:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" s="206" customFormat="1" ht="19">
-      <c r="B3" s="207" t="s">
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="207" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="207" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="207" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="207" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="207" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="207" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="207" t="s">
-        <v>280</v>
-      </c>
-      <c r="J3" s="207" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" s="207" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" s="207" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="207" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="207" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q3" s="206" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="17">
-      <c r="B4" s="211" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="208">
-        <v>1</v>
-      </c>
-      <c r="E4" s="208">
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="129">
         <v>0</v>
       </c>
-      <c r="F4" s="208">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="138">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" thickBot="1">
+      <c r="B8" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="132">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="89">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="92">
         <v>0</v>
       </c>
-      <c r="G4" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="208">
-        <v>-200</v>
-      </c>
-      <c r="I4" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="L4" s="208" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N4" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="17">
-      <c r="B5" s="211" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="208" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="208">
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="92">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="92">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="92">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1">
+      <c r="B18" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="101">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="104">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="104">
+        <v>96</v>
+      </c>
+      <c r="R21">
+        <f>SUM(O24:O30)</f>
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="104">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="104">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="104">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <f>SUM(I26:I36)+'11.1.2021'!L26</f>
+        <v>8492.2000000000007</v>
+      </c>
+      <c r="O24">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="17" thickBot="1">
+      <c r="B25" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="107">
+        <v>460</v>
+      </c>
+      <c r="I25" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="O25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="121">
+        <v>30</v>
+      </c>
+      <c r="G26" s="142"/>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <f>IF(C26="Pay",H26-F26,F26-H26)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="208">
+      <c r="O26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="123">
+        <v>70</v>
+      </c>
+      <c r="G27" s="142"/>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I36" si="0">IF(C27="Pay",H27-F27,F27-H27)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="208">
-        <v>-416</v>
-      </c>
-      <c r="I5" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="L5" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M5" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N5" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="17">
-      <c r="B6" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="208" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="208" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="208">
+      <c r="O27">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="123">
         <v>0</v>
       </c>
-      <c r="F6" s="208">
+      <c r="G28" s="142"/>
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="G6" s="209">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="209">
-        <v>-5127</v>
-      </c>
-      <c r="I6" s="209">
-        <v>2000</v>
-      </c>
-      <c r="J6" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="K6" s="208" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="210">
-        <v>44357</v>
-      </c>
-      <c r="M6" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="17">
-      <c r="B7" s="211" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="208" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="208" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="208">
-        <v>56</v>
-      </c>
-      <c r="F7" s="208">
-        <v>96</v>
-      </c>
-      <c r="G7" s="208">
-        <v>960</v>
-      </c>
-      <c r="H7" s="209">
-        <v>-3015</v>
-      </c>
-      <c r="I7" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="208" t="s">
-        <v>288</v>
-      </c>
-      <c r="L7" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M7" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N7" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="17">
-      <c r="B8" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="208" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="208" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="208">
-        <v>-30</v>
-      </c>
-      <c r="F8" s="208">
-        <v>215</v>
-      </c>
-      <c r="G8" s="208">
-        <v>505</v>
-      </c>
-      <c r="H8" s="209">
-        <v>-1388</v>
-      </c>
-      <c r="I8" s="208">
-        <v>750</v>
-      </c>
-      <c r="J8" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="K8" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M8" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N8" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="17">
-      <c r="B9" s="211" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="208" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="208" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="208">
+      <c r="I28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="208">
-        <v>280</v>
-      </c>
-      <c r="G9" s="209">
-        <v>1020</v>
-      </c>
-      <c r="H9" s="209">
-        <v>1232</v>
-      </c>
-      <c r="I9" s="209">
-        <v>1300</v>
-      </c>
-      <c r="J9" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="K9" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="L9" s="210">
-        <v>44498</v>
-      </c>
-      <c r="M9" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N9" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="17">
-      <c r="B10" s="211" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="208" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="208" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="208">
-        <v>-170</v>
-      </c>
-      <c r="F10" s="209">
-        <v>2380</v>
-      </c>
-      <c r="G10" s="209">
-        <v>1250</v>
-      </c>
-      <c r="H10" s="209">
-        <v>-13088</v>
-      </c>
-      <c r="I10" s="209">
-        <v>3800</v>
-      </c>
-      <c r="J10" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K10" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L10" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M10" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N10" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="17">
-      <c r="B11" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="208" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="208" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="208">
+      <c r="O28">
+        <v>135</v>
+      </c>
+      <c r="R28">
+        <f>SUM(O24:O25)</f>
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="123">
+        <v>529</v>
+      </c>
+      <c r="G29" s="142"/>
+      <c r="H29">
+        <v>529</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="208">
+      <c r="O29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="123">
+        <v>130</v>
+      </c>
+      <c r="G30" s="142"/>
+      <c r="H30">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="209">
-        <v>1500</v>
-      </c>
-      <c r="H11" s="209">
-        <v>-4135</v>
-      </c>
-      <c r="I11" s="209">
-        <v>1500</v>
-      </c>
-      <c r="J11" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K11" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" s="210">
-        <v>44383</v>
-      </c>
-      <c r="M11" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N11" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="17">
-      <c r="B12" s="211" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="208" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="208" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="208">
+      <c r="O30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="123">
+        <v>1066</v>
+      </c>
+      <c r="G31" s="142"/>
+      <c r="H31">
+        <v>1066</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="208">
-        <v>900</v>
-      </c>
-      <c r="G12" s="208">
-        <v>850</v>
-      </c>
-      <c r="H12" s="208">
-        <v>-398</v>
-      </c>
-      <c r="I12" s="209">
-        <v>1750</v>
-      </c>
-      <c r="J12" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K12" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L12" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M12" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N12" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="17">
-      <c r="B13" s="211" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="208" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="208" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="208">
-        <v>-595</v>
-      </c>
-      <c r="F13" s="208">
-        <v>200</v>
-      </c>
-      <c r="G13" s="209">
-        <v>1955</v>
-      </c>
-      <c r="H13" s="209">
-        <v>-2932</v>
-      </c>
-      <c r="I13" s="209">
-        <v>2750</v>
-      </c>
-      <c r="J13" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K13" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M13" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N13" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="17">
-      <c r="B14" s="211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="208" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="208">
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>441</v>
+      </c>
+      <c r="F32" s="123">
+        <v>193</v>
+      </c>
+      <c r="G32" s="142"/>
+      <c r="H32">
+        <v>193</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="208">
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="123">
+        <v>5</v>
+      </c>
+      <c r="G33" s="142"/>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="208">
-        <v>300</v>
-      </c>
-      <c r="H14" s="208">
-        <v>-64</v>
-      </c>
-      <c r="I14" s="208">
-        <v>300</v>
-      </c>
-      <c r="J14" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="210">
-        <v>44458</v>
-      </c>
-      <c r="M14" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N14" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="17">
-      <c r="B15" s="211" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="208" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="208" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="208">
+      <c r="M33">
+        <f>SUM(I26:I32)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="208">
-        <v>90</v>
-      </c>
-      <c r="G15" s="208">
-        <v>410</v>
-      </c>
-      <c r="H15" s="209">
-        <v>1341</v>
-      </c>
-      <c r="I15" s="208">
-        <v>500</v>
-      </c>
-      <c r="J15" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L15" s="210">
-        <v>44486</v>
-      </c>
-      <c r="M15" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N15" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="17">
-      <c r="B16" s="211" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="208" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" s="208" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="208">
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="123">
+        <v>2699.1</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2699.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="123">
+        <v>94</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35">
+        <v>94</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="208">
+    </row>
+    <row r="36" spans="2:13" ht="17" thickBot="1">
+      <c r="B36" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="126">
+        <v>26</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36">
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G16" s="208">
-        <v>750</v>
-      </c>
-      <c r="H16" s="208">
-        <v>964</v>
-      </c>
-      <c r="I16" s="208">
-        <v>750</v>
-      </c>
-      <c r="J16" s="208" t="s">
-        <v>310</v>
-      </c>
-      <c r="K16" s="208" t="s">
-        <v>310</v>
-      </c>
-      <c r="L16" s="210">
-        <v>44486</v>
-      </c>
-      <c r="M16" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N16" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="17">
-      <c r="B17" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="208" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="208" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="208">
-        <v>-170</v>
-      </c>
-      <c r="F17" s="208">
-        <v>238</v>
-      </c>
-      <c r="G17" s="208">
-        <v>992</v>
-      </c>
-      <c r="H17" s="209">
-        <v>-2262</v>
-      </c>
-      <c r="I17" s="209">
-        <v>1400</v>
-      </c>
-      <c r="J17" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K17" s="208" t="s">
-        <v>312</v>
-      </c>
-      <c r="L17" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M17" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N17" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17">
-      <c r="B18" s="211" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="208" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" s="208" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="208">
-        <v>0</v>
-      </c>
-      <c r="F18" s="208">
-        <v>230</v>
-      </c>
-      <c r="G18" s="208">
-        <v>570</v>
-      </c>
-      <c r="H18" s="209">
-        <v>-3854</v>
-      </c>
-      <c r="I18" s="208">
-        <v>800</v>
-      </c>
-      <c r="J18" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K18" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M18" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N18" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="17">
-      <c r="B19" s="211" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="208" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="208" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="208">
-        <v>-21</v>
-      </c>
-      <c r="F19" s="208">
-        <v>25</v>
-      </c>
-      <c r="G19" s="208">
-        <v>454</v>
-      </c>
-      <c r="H19" s="208">
-        <v>-146</v>
-      </c>
-      <c r="I19" s="208">
-        <v>500</v>
-      </c>
-      <c r="J19" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M19" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N19" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="17">
-      <c r="B20" s="211" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="208" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="208" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="208">
-        <v>0</v>
-      </c>
-      <c r="F20" s="208">
-        <v>0</v>
-      </c>
-      <c r="G20" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="208">
-        <v>-110</v>
-      </c>
-      <c r="I20" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="208" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" s="208" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M20" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N20" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="17">
-      <c r="B21" s="211" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="208" t="s">
-        <v>317</v>
-      </c>
-      <c r="D21" s="208" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="208">
-        <v>0</v>
-      </c>
-      <c r="F21" s="208">
-        <v>755</v>
-      </c>
-      <c r="G21" s="209">
-        <v>1245</v>
-      </c>
-      <c r="H21" s="209">
-        <v>-5515</v>
-      </c>
-      <c r="I21" s="209">
-        <v>2000</v>
-      </c>
-      <c r="J21" s="208" t="s">
-        <v>316</v>
-      </c>
-      <c r="K21" s="208" t="s">
-        <v>316</v>
-      </c>
-      <c r="L21" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M21" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N21" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="17">
-      <c r="B22" s="211" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="208" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="208" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="208">
-        <v>0</v>
-      </c>
-      <c r="F22" s="208">
-        <v>0</v>
-      </c>
-      <c r="G22" s="208">
-        <v>500</v>
-      </c>
-      <c r="H22" s="208">
-        <v>-440</v>
-      </c>
-      <c r="I22" s="208">
-        <v>500</v>
-      </c>
-      <c r="J22" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L22" s="210">
-        <v>44430</v>
-      </c>
-      <c r="M22" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N22" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17">
-      <c r="B23" s="211" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="208" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="208" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="208">
-        <v>0</v>
-      </c>
-      <c r="F23" s="208">
-        <v>0</v>
-      </c>
-      <c r="G23" s="208">
-        <v>500</v>
-      </c>
-      <c r="H23" s="208">
-        <v>-819</v>
-      </c>
-      <c r="I23" s="208">
-        <v>500</v>
-      </c>
-      <c r="J23" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K23" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L23" s="210">
-        <v>44478</v>
-      </c>
-      <c r="M23" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N23" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="17">
-      <c r="B24" s="211" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="208" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="208" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="208">
-        <v>0</v>
-      </c>
-      <c r="F24" s="208">
-        <v>0</v>
-      </c>
-      <c r="G24" s="208">
-        <v>500</v>
-      </c>
-      <c r="H24" s="209">
-        <v>-1532</v>
-      </c>
-      <c r="I24" s="208">
-        <v>500</v>
-      </c>
-      <c r="J24" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K24" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M24" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N24" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="17">
-      <c r="B25" s="211" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="208" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="208">
-        <v>0</v>
-      </c>
-      <c r="F25" s="208">
-        <v>0</v>
-      </c>
-      <c r="G25" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="208">
-        <v>-411</v>
-      </c>
-      <c r="I25" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K25" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L25" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M25" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N25" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="17">
-      <c r="B26" s="211" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="208" t="s">
-        <v>326</v>
-      </c>
-      <c r="D26" s="208" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="208">
-        <v>45</v>
-      </c>
-      <c r="F26" s="208">
-        <v>0</v>
-      </c>
-      <c r="G26" s="208">
-        <v>795</v>
-      </c>
-      <c r="H26" s="209">
-        <v>-10091</v>
-      </c>
-      <c r="I26" s="208">
-        <v>750</v>
-      </c>
-      <c r="J26" s="208" t="s">
-        <v>316</v>
-      </c>
-      <c r="K26" s="208" t="s">
-        <v>310</v>
-      </c>
-      <c r="L26" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M26" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N26" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="17">
-      <c r="B27" s="211" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" s="208" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" s="208" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="208">
-        <v>0</v>
-      </c>
-      <c r="F27" s="208">
-        <v>0</v>
-      </c>
-      <c r="G27" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="209">
-        <v>-2169</v>
-      </c>
-      <c r="I27" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J27" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K27" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L27" s="210">
-        <v>44483</v>
-      </c>
-      <c r="M27" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N27" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="17">
-      <c r="B28" s="211" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="208" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="208" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="208">
-        <v>-60</v>
-      </c>
-      <c r="F28" s="208">
-        <v>940</v>
-      </c>
-      <c r="G28" s="208">
-        <v>0</v>
-      </c>
-      <c r="H28" s="209">
-        <v>-9189</v>
-      </c>
-      <c r="I28" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K28" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L28" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M28" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N28" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="17">
-      <c r="B29" s="211" t="s">
-        <v>331</v>
-      </c>
-      <c r="C29" s="208" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="208" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="208">
-        <v>-629</v>
-      </c>
-      <c r="F29" s="208">
-        <v>0</v>
-      </c>
-      <c r="G29" s="208">
-        <v>871</v>
-      </c>
-      <c r="H29" s="209">
-        <v>-3665</v>
-      </c>
-      <c r="I29" s="209">
-        <v>1500</v>
-      </c>
-      <c r="J29" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="K29" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="L29" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M29" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N29" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="17">
-      <c r="B30" s="211" t="s">
-        <v>333</v>
-      </c>
-      <c r="C30" s="208" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="208" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="208">
-        <v>0</v>
-      </c>
-      <c r="F30" s="208">
-        <v>160</v>
-      </c>
-      <c r="G30" s="208">
-        <v>340</v>
-      </c>
-      <c r="H30" s="208">
-        <v>-52</v>
-      </c>
-      <c r="I30" s="208">
-        <v>500</v>
-      </c>
-      <c r="J30" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K30" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L30" s="210">
-        <v>44492</v>
-      </c>
-      <c r="M30" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N30" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="17">
-      <c r="B31" s="211" t="s">
-        <v>334</v>
-      </c>
-      <c r="C31" s="208" t="s">
-        <v>335</v>
-      </c>
-      <c r="D31" s="208" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="208">
-        <v>0</v>
-      </c>
-      <c r="F31" s="208">
-        <v>0</v>
-      </c>
-      <c r="G31" s="208">
-        <v>500</v>
-      </c>
-      <c r="H31" s="209">
-        <v>-2448</v>
-      </c>
-      <c r="I31" s="208">
-        <v>500</v>
-      </c>
-      <c r="J31" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="L31" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M31" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N31" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="17">
-      <c r="B32" s="211" t="s">
-        <v>336</v>
-      </c>
-      <c r="C32" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="208" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="208">
-        <v>0</v>
-      </c>
-      <c r="F32" s="208">
-        <v>0</v>
-      </c>
-      <c r="G32" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="208">
-        <v>-58</v>
-      </c>
-      <c r="I32" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K32" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L32" s="210">
-        <v>44499</v>
-      </c>
-      <c r="M32" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N32" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="17">
-      <c r="B33" s="211" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="208" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="208" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="208">
-        <v>0</v>
-      </c>
-      <c r="F33" s="208">
-        <v>0</v>
-      </c>
-      <c r="G33" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="208">
-        <v>381</v>
-      </c>
-      <c r="I33" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L33" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M33" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N33" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="17">
-      <c r="B34" s="211" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34" s="208" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" s="208" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="208">
-        <v>0</v>
-      </c>
-      <c r="F34" s="208">
-        <v>0</v>
-      </c>
-      <c r="G34" s="208">
-        <v>500</v>
-      </c>
-      <c r="H34" s="209">
-        <v>-6696</v>
-      </c>
-      <c r="I34" s="208">
-        <v>500</v>
-      </c>
-      <c r="J34" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K34" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L34" s="210">
-        <v>44496</v>
-      </c>
-      <c r="M34" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N34" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="17">
-      <c r="B35" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="208">
-        <v>0</v>
-      </c>
-      <c r="F35" s="208">
-        <v>0</v>
-      </c>
-      <c r="G35" s="208">
-        <v>900</v>
-      </c>
-      <c r="H35" s="209">
-        <v>-1237</v>
-      </c>
-      <c r="I35" s="208">
-        <v>900</v>
-      </c>
-      <c r="J35" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="K35" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="L35" s="210">
-        <v>44443</v>
-      </c>
-      <c r="M35" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N35" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" ht="17">
-      <c r="B36" s="211" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="208" t="s">
-        <v>345</v>
-      </c>
-      <c r="D36" s="208" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="208">
-        <v>0</v>
-      </c>
-      <c r="F36" s="208">
-        <v>0</v>
-      </c>
-      <c r="G36" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="209">
-        <v>-8354</v>
-      </c>
-      <c r="I36" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="K36" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="L36" s="210">
-        <v>44499</v>
-      </c>
-      <c r="M36" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N36" s="208" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="17">
-      <c r="B37" s="211" t="s">
-        <v>347</v>
-      </c>
-      <c r="C37" s="208" t="s">
-        <v>348</v>
-      </c>
-      <c r="D37" s="208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="208">
-        <v>-104</v>
-      </c>
-      <c r="F37" s="208">
-        <v>240</v>
-      </c>
-      <c r="G37" s="208">
-        <v>156</v>
-      </c>
-      <c r="H37" s="208">
-        <v>-48</v>
-      </c>
-      <c r="I37" s="208">
-        <v>500</v>
-      </c>
-      <c r="J37" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K37" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L37" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M37" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N37" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" ht="17">
-      <c r="B38" s="211" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" s="208" t="s">
-        <v>350</v>
-      </c>
-      <c r="D38" s="208" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="208">
-        <v>0</v>
-      </c>
-      <c r="F38" s="208">
-        <v>0</v>
-      </c>
-      <c r="G38" s="208">
-        <v>500</v>
-      </c>
-      <c r="H38" s="208">
-        <v>-11</v>
-      </c>
-      <c r="I38" s="208">
-        <v>500</v>
-      </c>
-      <c r="J38" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K38" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L38" s="210">
-        <v>44462</v>
-      </c>
-      <c r="M38" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N38" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="17">
-      <c r="B39" s="211" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" s="208" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="208">
-        <v>0</v>
-      </c>
-      <c r="F39" s="208">
-        <v>35</v>
-      </c>
-      <c r="G39" s="208">
-        <v>465</v>
-      </c>
-      <c r="H39" s="209">
-        <v>-2861</v>
-      </c>
-      <c r="I39" s="208">
-        <v>500</v>
-      </c>
-      <c r="J39" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K39" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L39" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M39" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N39" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" ht="17">
-      <c r="B40" s="211" t="s">
-        <v>353</v>
-      </c>
-      <c r="C40" s="208" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="208" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="208">
-        <v>0</v>
-      </c>
-      <c r="F40" s="208">
-        <v>50</v>
-      </c>
-      <c r="G40" s="208">
-        <v>450</v>
-      </c>
-      <c r="H40" s="209">
-        <v>-1184</v>
-      </c>
-      <c r="I40" s="208">
-        <v>500</v>
-      </c>
-      <c r="J40" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K40" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L40" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M40" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N40" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="17">
-      <c r="B41" s="211" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="208" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="208" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="208">
-        <v>0</v>
-      </c>
-      <c r="F41" s="208">
-        <v>20</v>
-      </c>
-      <c r="G41" s="209">
-        <v>2480</v>
-      </c>
-      <c r="H41" s="208">
-        <v>21</v>
-      </c>
-      <c r="I41" s="209">
-        <v>2500</v>
-      </c>
-      <c r="J41" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K41" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L41" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M41" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N41" s="208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="17">
-      <c r="B42" s="211" t="s">
-        <v>357</v>
-      </c>
-      <c r="C42" s="208" t="s">
-        <v>358</v>
-      </c>
-      <c r="D42" s="208" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="208">
-        <v>0</v>
-      </c>
-      <c r="F42" s="208">
-        <v>0</v>
-      </c>
-      <c r="G42" s="208">
-        <v>200</v>
-      </c>
-      <c r="H42" s="208">
-        <v>-358</v>
-      </c>
-      <c r="I42" s="208">
-        <v>200</v>
-      </c>
-      <c r="J42" s="208" t="s">
-        <v>359</v>
-      </c>
-      <c r="K42" s="208" t="s">
-        <v>359</v>
-      </c>
-      <c r="L42" s="210">
-        <v>44500</v>
-      </c>
-      <c r="M42" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N42" s="208" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="17">
-      <c r="B43" s="211" t="s">
-        <v>360</v>
-      </c>
-      <c r="C43" s="208" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="208" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="208">
-        <v>-36</v>
-      </c>
-      <c r="F43" s="208">
-        <v>387</v>
-      </c>
-      <c r="G43" s="208">
-        <v>577</v>
-      </c>
-      <c r="H43" s="208">
-        <v>-997</v>
-      </c>
-      <c r="I43" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K43" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L43" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M43" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N43" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" ht="17">
-      <c r="B44" s="211" t="s">
-        <v>362</v>
-      </c>
-      <c r="C44" s="208" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="208" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="208">
-        <v>-35</v>
-      </c>
-      <c r="F44" s="208">
-        <v>75</v>
-      </c>
-      <c r="G44" s="208">
-        <v>890</v>
-      </c>
-      <c r="H44" s="208">
-        <v>-240</v>
-      </c>
-      <c r="I44" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K44" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M44" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N44" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" ht="17">
-      <c r="B45" s="211" t="s">
-        <v>364</v>
-      </c>
-      <c r="C45" s="208" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="208" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="208">
-        <v>0</v>
-      </c>
-      <c r="F45" s="208">
-        <v>0</v>
-      </c>
-      <c r="G45" s="209">
-        <v>3000</v>
-      </c>
-      <c r="H45" s="209">
-        <v>-2888</v>
-      </c>
-      <c r="I45" s="209">
-        <v>3000</v>
-      </c>
-      <c r="J45" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K45" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L45" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M45" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N45" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" ht="17">
-      <c r="B46" s="211" t="s">
-        <v>366</v>
-      </c>
-      <c r="C46" s="208" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="208" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="208">
-        <v>48</v>
-      </c>
-      <c r="F46" s="208">
-        <v>270</v>
-      </c>
-      <c r="G46" s="209">
-        <v>1778</v>
-      </c>
-      <c r="H46" s="209">
-        <v>-4616</v>
-      </c>
-      <c r="I46" s="209">
-        <v>2000</v>
-      </c>
-      <c r="J46" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K46" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L46" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M46" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N46" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" ht="17">
-      <c r="B47" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="C47" s="208" t="s">
-        <v>369</v>
-      </c>
-      <c r="D47" s="208" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="208">
-        <v>-521</v>
-      </c>
-      <c r="F47" s="208">
-        <v>285</v>
-      </c>
-      <c r="G47" s="208">
-        <v>194</v>
-      </c>
-      <c r="H47" s="208">
-        <v>43</v>
-      </c>
-      <c r="I47" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J47" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K47" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L47" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M47" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N47" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" ht="17">
-      <c r="B48" s="211" t="s">
-        <v>370</v>
-      </c>
-      <c r="C48" s="208" t="s">
-        <v>371</v>
-      </c>
-      <c r="D48" s="208" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="208">
-        <v>0</v>
-      </c>
-      <c r="F48" s="208">
-        <v>0</v>
-      </c>
-      <c r="G48" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="208">
-        <v>-68</v>
-      </c>
-      <c r="I48" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="K48" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L48" s="210">
-        <v>44490</v>
-      </c>
-      <c r="M48" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N48" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="17">
-      <c r="B49" s="211" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="208" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="208" t="s">
-        <v>230</v>
-      </c>
-      <c r="E49" s="208">
-        <v>0</v>
-      </c>
-      <c r="F49" s="208">
-        <v>0</v>
-      </c>
-      <c r="G49" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="208">
-        <v>454</v>
-      </c>
-      <c r="I49" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K49" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L49" s="210">
-        <v>44499</v>
-      </c>
-      <c r="M49" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N49" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" ht="17">
-      <c r="B50" s="211" t="s">
-        <v>374</v>
-      </c>
-      <c r="C50" s="208" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="208" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="208">
-        <v>-9</v>
-      </c>
-      <c r="F50" s="208">
-        <v>120</v>
-      </c>
-      <c r="G50" s="208">
-        <v>271</v>
-      </c>
-      <c r="H50" s="209">
-        <v>-1217</v>
-      </c>
-      <c r="I50" s="208">
-        <v>400</v>
-      </c>
-      <c r="J50" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K50" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L50" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M50" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N50" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" ht="17">
-      <c r="B51" s="211" t="s">
-        <v>376</v>
-      </c>
-      <c r="C51" s="208" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" s="208" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" s="208">
-        <v>-15</v>
-      </c>
-      <c r="F51" s="208">
-        <v>25</v>
-      </c>
-      <c r="G51" s="208">
-        <v>960</v>
-      </c>
-      <c r="H51" s="208">
-        <v>-40</v>
-      </c>
-      <c r="I51" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J51" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K51" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L51" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M51" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N51" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" ht="17">
-      <c r="B52" s="211" t="s">
-        <v>378</v>
-      </c>
-      <c r="C52" s="208" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="208" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="208">
-        <v>0</v>
-      </c>
-      <c r="F52" s="208">
-        <v>0</v>
-      </c>
-      <c r="G52" s="209">
-        <v>1000</v>
-      </c>
-      <c r="H52" s="208">
-        <v>245</v>
-      </c>
-      <c r="I52" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K52" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L52" s="210">
-        <v>44499</v>
-      </c>
-      <c r="M52" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N52" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" ht="17">
-      <c r="B53" s="211" t="s">
-        <v>380</v>
-      </c>
-      <c r="C53" s="208" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="208" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="208">
-        <v>0</v>
-      </c>
-      <c r="F53" s="208">
-        <v>0</v>
-      </c>
-      <c r="G53" s="208">
-        <v>500</v>
-      </c>
-      <c r="H53" s="208">
-        <v>-155</v>
-      </c>
-      <c r="I53" s="208">
-        <v>500</v>
-      </c>
-      <c r="J53" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K53" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L53" s="210">
-        <v>44497</v>
-      </c>
-      <c r="M53" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N53" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" ht="17">
-      <c r="B54" s="211" t="s">
-        <v>382</v>
-      </c>
-      <c r="C54" s="208" t="s">
-        <v>383</v>
-      </c>
-      <c r="D54" s="208" t="s">
-        <v>245</v>
-      </c>
-      <c r="E54" s="208">
-        <v>517</v>
-      </c>
-      <c r="F54" s="209">
-        <v>2636</v>
-      </c>
-      <c r="G54" s="209">
-        <v>2381</v>
-      </c>
-      <c r="H54" s="209">
-        <v>3755</v>
-      </c>
-      <c r="I54" s="209">
-        <v>4500</v>
-      </c>
-      <c r="J54" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K54" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L54" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M54" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N54" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" ht="17">
-      <c r="B55" s="211" t="s">
-        <v>384</v>
-      </c>
-      <c r="C55" s="208" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" s="208" t="s">
-        <v>247</v>
-      </c>
-      <c r="E55" s="208">
-        <v>0</v>
-      </c>
-      <c r="F55" s="208">
-        <v>10</v>
-      </c>
-      <c r="G55" s="208">
-        <v>990</v>
-      </c>
-      <c r="H55" s="208">
-        <v>-135</v>
-      </c>
-      <c r="I55" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J55" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K55" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L55" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M55" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N55" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="17">
-      <c r="B56" s="211" t="s">
-        <v>386</v>
-      </c>
-      <c r="C56" s="208" t="s">
-        <v>387</v>
-      </c>
-      <c r="D56" s="208" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="208">
-        <v>-144</v>
-      </c>
-      <c r="F56" s="208">
-        <v>420</v>
-      </c>
-      <c r="G56" s="208">
-        <v>436</v>
-      </c>
-      <c r="H56" s="208">
-        <v>-589</v>
-      </c>
-      <c r="I56" s="209">
-        <v>1000</v>
-      </c>
-      <c r="J56" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K56" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L56" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M56" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N56" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" ht="17">
-      <c r="B57" s="211" t="s">
-        <v>388</v>
-      </c>
-      <c r="C57" s="208" t="s">
-        <v>302</v>
-      </c>
-      <c r="D57" s="208" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" s="209">
-        <v>-1200</v>
-      </c>
-      <c r="F57" s="208">
-        <v>250</v>
-      </c>
-      <c r="G57" s="208">
-        <v>550</v>
-      </c>
-      <c r="H57" s="209">
-        <v>-3583</v>
-      </c>
-      <c r="I57" s="209">
-        <v>2000</v>
-      </c>
-      <c r="J57" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="K57" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="L57" s="210">
-        <v>44502</v>
-      </c>
-      <c r="M57" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N57" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" ht="17">
-      <c r="B58" s="211" t="s">
-        <v>389</v>
-      </c>
-      <c r="C58" s="208" t="s">
-        <v>390</v>
-      </c>
-      <c r="D58" s="208" t="s">
-        <v>252</v>
-      </c>
-      <c r="E58" s="208">
-        <v>-79</v>
-      </c>
-      <c r="F58" s="208">
-        <v>0</v>
-      </c>
-      <c r="G58" s="208">
-        <v>421</v>
-      </c>
-      <c r="H58" s="208">
-        <v>-185</v>
-      </c>
-      <c r="I58" s="208">
-        <v>500</v>
-      </c>
-      <c r="J58" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K58" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L58" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M58" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N58" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" ht="17">
-      <c r="B59" s="211" t="s">
-        <v>391</v>
-      </c>
-      <c r="C59" s="208" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="208" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="208">
-        <v>-350</v>
-      </c>
-      <c r="F59" s="208">
-        <v>0</v>
-      </c>
-      <c r="G59" s="208">
-        <v>150</v>
-      </c>
-      <c r="H59" s="208">
-        <v>-134</v>
-      </c>
-      <c r="I59" s="208">
-        <v>500</v>
-      </c>
-      <c r="J59" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K59" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L59" s="210">
-        <v>44501</v>
-      </c>
-      <c r="M59" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N59" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" ht="17">
-      <c r="B60" s="211" t="s">
-        <v>393</v>
-      </c>
-      <c r="C60" s="208" t="s">
-        <v>394</v>
-      </c>
-      <c r="D60" s="208" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="208">
-        <v>0</v>
-      </c>
-      <c r="F60" s="208">
-        <v>0</v>
-      </c>
-      <c r="G60" s="208">
-        <v>750</v>
-      </c>
-      <c r="H60" s="208">
-        <v>-111</v>
-      </c>
-      <c r="I60" s="208">
-        <v>750</v>
-      </c>
-      <c r="J60" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K60" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L60" s="210">
-        <v>44493</v>
-      </c>
-      <c r="M60" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N60" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" ht="17">
-      <c r="B61" s="211" t="s">
-        <v>395</v>
-      </c>
-      <c r="C61" s="208" t="s">
-        <v>396</v>
-      </c>
-      <c r="D61" s="208" t="s">
-        <v>399</v>
-      </c>
-      <c r="E61" s="208">
-        <v>0</v>
-      </c>
-      <c r="F61" s="208">
-        <v>0</v>
-      </c>
-      <c r="G61" s="208">
-        <v>750</v>
-      </c>
-      <c r="H61" s="208">
-        <v>0</v>
-      </c>
-      <c r="I61" s="208">
-        <v>750</v>
-      </c>
-      <c r="J61" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K61" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L61" s="208" t="s">
-        <v>289</v>
-      </c>
-      <c r="M61" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N61" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" ht="17">
-      <c r="B62" s="211" t="s">
-        <v>397</v>
-      </c>
-      <c r="C62" s="208" t="s">
-        <v>365</v>
-      </c>
-      <c r="D62" s="208"/>
-      <c r="E62" s="208">
-        <v>0</v>
-      </c>
-      <c r="F62" s="208">
-        <v>0</v>
-      </c>
-      <c r="G62" s="208">
-        <v>500</v>
-      </c>
-      <c r="H62" s="208">
-        <v>0</v>
-      </c>
-      <c r="I62" s="208">
-        <v>500</v>
-      </c>
-      <c r="J62" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K62" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L62" s="208" t="s">
-        <v>289</v>
-      </c>
-      <c r="M62" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N62" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" ht="17">
-      <c r="B63" s="211" t="s">
-        <v>398</v>
-      </c>
-      <c r="C63" s="208" t="s">
-        <v>365</v>
-      </c>
-      <c r="D63" s="208"/>
-      <c r="E63" s="208">
-        <v>0</v>
-      </c>
-      <c r="F63" s="208">
-        <v>0</v>
-      </c>
-      <c r="G63" s="208">
-        <v>500</v>
-      </c>
-      <c r="H63" s="208">
-        <v>0</v>
-      </c>
-      <c r="I63" s="208">
-        <v>500</v>
-      </c>
-      <c r="J63" s="208" t="s">
-        <v>320</v>
-      </c>
-      <c r="K63" s="208" t="s">
-        <v>303</v>
-      </c>
-      <c r="L63" s="208" t="s">
-        <v>289</v>
-      </c>
-      <c r="M63" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="N63" s="208" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17">
-      <c r="Q64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="17:17">
-      <c r="Q66" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="17:17">
-      <c r="Q67" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="17:17">
-      <c r="Q69" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="17:17">
-      <c r="Q70" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71" spans="17:17">
-      <c r="Q71" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="72" spans="17:17">
-      <c r="Q72" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="74" spans="17:17">
-      <c r="Q74" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="17:17">
-      <c r="Q75" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="17:17">
-      <c r="Q77" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="78" spans="17:17">
-      <c r="Q78" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79" spans="17:17">
-      <c r="Q79" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="17:17">
-      <c r="Q80" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="82" spans="17:17">
-      <c r="Q82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="83" spans="17:17">
-      <c r="Q83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="85" spans="17:17">
-      <c r="Q85" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="86" spans="17:17">
-      <c r="Q86" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="87" spans="17:17">
-      <c r="Q87" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="88" spans="17:17">
-      <c r="Q88" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="90" spans="17:17">
-      <c r="Q90" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="91" spans="17:17">
-      <c r="Q91" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="93" spans="17:17">
-      <c r="Q93" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" spans="17:17">
-      <c r="Q94" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="95" spans="17:17">
-      <c r="Q95" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="96" spans="17:17">
-      <c r="Q96" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="17:17">
-      <c r="Q98" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="99" spans="17:17">
-      <c r="Q99" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="17:17">
-      <c r="Q101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="17:17">
-      <c r="Q102" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="103" spans="17:17">
-      <c r="Q103" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="104" spans="17:17">
-      <c r="Q104" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="106" spans="17:17">
-      <c r="Q106" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="17:17">
-      <c r="Q107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="17:17">
-      <c r="Q109" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="110" spans="17:17">
-      <c r="Q110" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="111" spans="17:17">
-      <c r="Q111" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="112" spans="17:17">
-      <c r="Q112" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="17:17">
-      <c r="Q114" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="115" spans="17:17">
-      <c r="Q115" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="17:17">
-      <c r="Q117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="17:17">
-      <c r="Q118" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="17:17">
-      <c r="Q119" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="120" spans="17:17">
-      <c r="Q120" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="122" spans="17:17">
-      <c r="Q122" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="123" spans="17:17">
-      <c r="Q123" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="17:17">
-      <c r="Q125" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="126" spans="17:17">
-      <c r="Q126" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="17:17">
-      <c r="Q127" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="17:17">
-      <c r="Q128" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="130" spans="17:17">
-      <c r="Q130" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="17:17">
-      <c r="Q131" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="17:17">
-      <c r="Q133" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134" spans="17:17">
-      <c r="Q134" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135" spans="17:17">
-      <c r="Q135" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="136" spans="17:17">
-      <c r="Q136" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="138" spans="17:17">
-      <c r="Q138" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="17:17">
-      <c r="Q139" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="141" spans="17:17">
-      <c r="Q141" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="17:17">
-      <c r="Q142" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="143" spans="17:17">
-      <c r="Q143" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="144" spans="17:17">
-      <c r="Q144" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="17:17">
-      <c r="Q146" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18794,6 +16637,3536 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5445FD-48AF-014C-94CC-88769ABB7CCC}">
+  <dimension ref="B3:F34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="129">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="138">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="92">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="92">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="92">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="92">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="92">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="92">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="92">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="92">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" thickBot="1">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="104">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="104">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="104">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="104">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17" thickBot="1">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="121">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="123">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="123">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="123">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="123">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="123">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="123">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="123">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" thickBot="1">
+      <c r="B34" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="E34" s="125" t="s">
+        <v>441</v>
+      </c>
+      <c r="F34" s="126">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
+  <dimension ref="B1:Q146"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="O1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P1">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="206" customFormat="1" ht="19">
+      <c r="B3" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="207" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="207" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="207" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="207" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="207" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="207" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="207" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="207" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="207" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="207" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="207" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="206" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="17">
+      <c r="B4" s="211" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="208" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="208">
+        <v>1</v>
+      </c>
+      <c r="E4" s="208">
+        <v>0</v>
+      </c>
+      <c r="F4" s="208">
+        <v>0</v>
+      </c>
+      <c r="G4" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="208">
+        <v>-200</v>
+      </c>
+      <c r="I4" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17">
+      <c r="B5" s="211" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="208" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="208">
+        <v>0</v>
+      </c>
+      <c r="F5" s="208">
+        <v>0</v>
+      </c>
+      <c r="G5" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="208">
+        <v>-416</v>
+      </c>
+      <c r="I5" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M5" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="17">
+      <c r="B6" s="211" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="208" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="208" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="208">
+        <v>0</v>
+      </c>
+      <c r="F6" s="208">
+        <v>0</v>
+      </c>
+      <c r="G6" s="209">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="209">
+        <v>-5127</v>
+      </c>
+      <c r="I6" s="209">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="208" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="210">
+        <v>44357</v>
+      </c>
+      <c r="M6" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="17">
+      <c r="B7" s="211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="208" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="208">
+        <v>56</v>
+      </c>
+      <c r="F7" s="208">
+        <v>96</v>
+      </c>
+      <c r="G7" s="208">
+        <v>960</v>
+      </c>
+      <c r="H7" s="209">
+        <v>-3015</v>
+      </c>
+      <c r="I7" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="208" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M7" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="17">
+      <c r="B8" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="208" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="208" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="208">
+        <v>-30</v>
+      </c>
+      <c r="F8" s="208">
+        <v>215</v>
+      </c>
+      <c r="G8" s="208">
+        <v>505</v>
+      </c>
+      <c r="H8" s="209">
+        <v>-1388</v>
+      </c>
+      <c r="I8" s="208">
+        <v>750</v>
+      </c>
+      <c r="J8" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M8" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="17">
+      <c r="B9" s="211" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="208" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="208" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="208">
+        <v>0</v>
+      </c>
+      <c r="F9" s="208">
+        <v>280</v>
+      </c>
+      <c r="G9" s="209">
+        <v>1020</v>
+      </c>
+      <c r="H9" s="209">
+        <v>1232</v>
+      </c>
+      <c r="I9" s="209">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="L9" s="210">
+        <v>44498</v>
+      </c>
+      <c r="M9" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17">
+      <c r="B10" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="208" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="208" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="208">
+        <v>-170</v>
+      </c>
+      <c r="F10" s="209">
+        <v>2380</v>
+      </c>
+      <c r="G10" s="209">
+        <v>1250</v>
+      </c>
+      <c r="H10" s="209">
+        <v>-13088</v>
+      </c>
+      <c r="I10" s="209">
+        <v>3800</v>
+      </c>
+      <c r="J10" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M10" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17">
+      <c r="B11" s="211" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="208">
+        <v>0</v>
+      </c>
+      <c r="F11" s="208">
+        <v>0</v>
+      </c>
+      <c r="G11" s="209">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="209">
+        <v>-4135</v>
+      </c>
+      <c r="I11" s="209">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="210">
+        <v>44383</v>
+      </c>
+      <c r="M11" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17">
+      <c r="B12" s="211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="208" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="208">
+        <v>0</v>
+      </c>
+      <c r="F12" s="208">
+        <v>900</v>
+      </c>
+      <c r="G12" s="208">
+        <v>850</v>
+      </c>
+      <c r="H12" s="208">
+        <v>-398</v>
+      </c>
+      <c r="I12" s="209">
+        <v>1750</v>
+      </c>
+      <c r="J12" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M12" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17">
+      <c r="B13" s="211" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="208" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="208">
+        <v>-595</v>
+      </c>
+      <c r="F13" s="208">
+        <v>200</v>
+      </c>
+      <c r="G13" s="209">
+        <v>1955</v>
+      </c>
+      <c r="H13" s="209">
+        <v>-2932</v>
+      </c>
+      <c r="I13" s="209">
+        <v>2750</v>
+      </c>
+      <c r="J13" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M13" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17">
+      <c r="B14" s="211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="208" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="208">
+        <v>0</v>
+      </c>
+      <c r="F14" s="208">
+        <v>0</v>
+      </c>
+      <c r="G14" s="208">
+        <v>300</v>
+      </c>
+      <c r="H14" s="208">
+        <v>-64</v>
+      </c>
+      <c r="I14" s="208">
+        <v>300</v>
+      </c>
+      <c r="J14" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="210">
+        <v>44458</v>
+      </c>
+      <c r="M14" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17">
+      <c r="B15" s="211" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="208" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="208" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="208">
+        <v>0</v>
+      </c>
+      <c r="F15" s="208">
+        <v>90</v>
+      </c>
+      <c r="G15" s="208">
+        <v>410</v>
+      </c>
+      <c r="H15" s="209">
+        <v>1341</v>
+      </c>
+      <c r="I15" s="208">
+        <v>500</v>
+      </c>
+      <c r="J15" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L15" s="210">
+        <v>44486</v>
+      </c>
+      <c r="M15" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17">
+      <c r="B16" s="211" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="208" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="208" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="208">
+        <v>0</v>
+      </c>
+      <c r="F16" s="208">
+        <v>0</v>
+      </c>
+      <c r="G16" s="208">
+        <v>750</v>
+      </c>
+      <c r="H16" s="208">
+        <v>964</v>
+      </c>
+      <c r="I16" s="208">
+        <v>750</v>
+      </c>
+      <c r="J16" s="208" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="208" t="s">
+        <v>310</v>
+      </c>
+      <c r="L16" s="210">
+        <v>44486</v>
+      </c>
+      <c r="M16" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17">
+      <c r="B17" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="208" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="208">
+        <v>-170</v>
+      </c>
+      <c r="F17" s="208">
+        <v>238</v>
+      </c>
+      <c r="G17" s="208">
+        <v>992</v>
+      </c>
+      <c r="H17" s="209">
+        <v>-2262</v>
+      </c>
+      <c r="I17" s="209">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="208" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M17" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17">
+      <c r="B18" s="211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="208" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="208">
+        <v>0</v>
+      </c>
+      <c r="F18" s="208">
+        <v>230</v>
+      </c>
+      <c r="G18" s="208">
+        <v>570</v>
+      </c>
+      <c r="H18" s="209">
+        <v>-3854</v>
+      </c>
+      <c r="I18" s="208">
+        <v>800</v>
+      </c>
+      <c r="J18" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M18" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17">
+      <c r="B19" s="211" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="208" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="208" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="208">
+        <v>-21</v>
+      </c>
+      <c r="F19" s="208">
+        <v>25</v>
+      </c>
+      <c r="G19" s="208">
+        <v>454</v>
+      </c>
+      <c r="H19" s="208">
+        <v>-146</v>
+      </c>
+      <c r="I19" s="208">
+        <v>500</v>
+      </c>
+      <c r="J19" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M19" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17">
+      <c r="B20" s="211" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="208" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="208" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="208">
+        <v>0</v>
+      </c>
+      <c r="F20" s="208">
+        <v>0</v>
+      </c>
+      <c r="G20" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="208">
+        <v>-110</v>
+      </c>
+      <c r="I20" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M20" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17">
+      <c r="B21" s="211" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="208" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="208" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="208">
+        <v>0</v>
+      </c>
+      <c r="F21" s="208">
+        <v>755</v>
+      </c>
+      <c r="G21" s="209">
+        <v>1245</v>
+      </c>
+      <c r="H21" s="209">
+        <v>-5515</v>
+      </c>
+      <c r="I21" s="209">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="K21" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="L21" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M21" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17">
+      <c r="B22" s="211" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="208" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="208" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="208">
+        <v>0</v>
+      </c>
+      <c r="F22" s="208">
+        <v>0</v>
+      </c>
+      <c r="G22" s="208">
+        <v>500</v>
+      </c>
+      <c r="H22" s="208">
+        <v>-440</v>
+      </c>
+      <c r="I22" s="208">
+        <v>500</v>
+      </c>
+      <c r="J22" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L22" s="210">
+        <v>44430</v>
+      </c>
+      <c r="M22" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17">
+      <c r="B23" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="208" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="208" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="208">
+        <v>0</v>
+      </c>
+      <c r="F23" s="208">
+        <v>0</v>
+      </c>
+      <c r="G23" s="208">
+        <v>500</v>
+      </c>
+      <c r="H23" s="208">
+        <v>-819</v>
+      </c>
+      <c r="I23" s="208">
+        <v>500</v>
+      </c>
+      <c r="J23" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L23" s="210">
+        <v>44478</v>
+      </c>
+      <c r="M23" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="17">
+      <c r="B24" s="211" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="208" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="208" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="208">
+        <v>0</v>
+      </c>
+      <c r="F24" s="208">
+        <v>0</v>
+      </c>
+      <c r="G24" s="208">
+        <v>500</v>
+      </c>
+      <c r="H24" s="209">
+        <v>-1532</v>
+      </c>
+      <c r="I24" s="208">
+        <v>500</v>
+      </c>
+      <c r="J24" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M24" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N24" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="17">
+      <c r="B25" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="208" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="208">
+        <v>0</v>
+      </c>
+      <c r="F25" s="208">
+        <v>0</v>
+      </c>
+      <c r="G25" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="208">
+        <v>-411</v>
+      </c>
+      <c r="I25" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M25" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N25" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="17">
+      <c r="B26" s="211" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="208">
+        <v>45</v>
+      </c>
+      <c r="F26" s="208">
+        <v>0</v>
+      </c>
+      <c r="G26" s="208">
+        <v>795</v>
+      </c>
+      <c r="H26" s="209">
+        <v>-10091</v>
+      </c>
+      <c r="I26" s="208">
+        <v>750</v>
+      </c>
+      <c r="J26" s="208" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="208" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M26" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N26" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17">
+      <c r="B27" s="211" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="208" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="208" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="208">
+        <v>0</v>
+      </c>
+      <c r="F27" s="208">
+        <v>0</v>
+      </c>
+      <c r="G27" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="209">
+        <v>-2169</v>
+      </c>
+      <c r="I27" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K27" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L27" s="210">
+        <v>44483</v>
+      </c>
+      <c r="M27" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N27" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="17">
+      <c r="B28" s="211" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="208" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="208" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="208">
+        <v>-60</v>
+      </c>
+      <c r="F28" s="208">
+        <v>940</v>
+      </c>
+      <c r="G28" s="208">
+        <v>0</v>
+      </c>
+      <c r="H28" s="209">
+        <v>-9189</v>
+      </c>
+      <c r="I28" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K28" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M28" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N28" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="17">
+      <c r="B29" s="211" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="208" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="208" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="208">
+        <v>-629</v>
+      </c>
+      <c r="F29" s="208">
+        <v>0</v>
+      </c>
+      <c r="G29" s="208">
+        <v>871</v>
+      </c>
+      <c r="H29" s="209">
+        <v>-3665</v>
+      </c>
+      <c r="I29" s="209">
+        <v>1500</v>
+      </c>
+      <c r="J29" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M29" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N29" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="17">
+      <c r="B30" s="211" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="208" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="208">
+        <v>0</v>
+      </c>
+      <c r="F30" s="208">
+        <v>160</v>
+      </c>
+      <c r="G30" s="208">
+        <v>340</v>
+      </c>
+      <c r="H30" s="208">
+        <v>-52</v>
+      </c>
+      <c r="I30" s="208">
+        <v>500</v>
+      </c>
+      <c r="J30" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K30" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L30" s="210">
+        <v>44492</v>
+      </c>
+      <c r="M30" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N30" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="17">
+      <c r="B31" s="211" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="208" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="208" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="208">
+        <v>0</v>
+      </c>
+      <c r="F31" s="208">
+        <v>0</v>
+      </c>
+      <c r="G31" s="208">
+        <v>500</v>
+      </c>
+      <c r="H31" s="209">
+        <v>-2448</v>
+      </c>
+      <c r="I31" s="208">
+        <v>500</v>
+      </c>
+      <c r="J31" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M31" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N31" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="17">
+      <c r="B32" s="211" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="208" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="208" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="208">
+        <v>0</v>
+      </c>
+      <c r="F32" s="208">
+        <v>0</v>
+      </c>
+      <c r="G32" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="208">
+        <v>-58</v>
+      </c>
+      <c r="I32" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" s="210">
+        <v>44499</v>
+      </c>
+      <c r="M32" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N32" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="17">
+      <c r="B33" s="211" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="208" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="208" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="208">
+        <v>0</v>
+      </c>
+      <c r="F33" s="208">
+        <v>0</v>
+      </c>
+      <c r="G33" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="208">
+        <v>381</v>
+      </c>
+      <c r="I33" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M33" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N33" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="17">
+      <c r="B34" s="211" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="208" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="208" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="208">
+        <v>0</v>
+      </c>
+      <c r="F34" s="208">
+        <v>0</v>
+      </c>
+      <c r="G34" s="208">
+        <v>500</v>
+      </c>
+      <c r="H34" s="209">
+        <v>-6696</v>
+      </c>
+      <c r="I34" s="208">
+        <v>500</v>
+      </c>
+      <c r="J34" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" s="210">
+        <v>44496</v>
+      </c>
+      <c r="M34" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="17">
+      <c r="B35" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="208">
+        <v>0</v>
+      </c>
+      <c r="F35" s="208">
+        <v>0</v>
+      </c>
+      <c r="G35" s="208">
+        <v>900</v>
+      </c>
+      <c r="H35" s="209">
+        <v>-1237</v>
+      </c>
+      <c r="I35" s="208">
+        <v>900</v>
+      </c>
+      <c r="J35" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" s="208" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" s="210">
+        <v>44443</v>
+      </c>
+      <c r="M35" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N35" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="17">
+      <c r="B36" s="211" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="208" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" s="208" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="208">
+        <v>0</v>
+      </c>
+      <c r="F36" s="208">
+        <v>0</v>
+      </c>
+      <c r="G36" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="209">
+        <v>-8354</v>
+      </c>
+      <c r="I36" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" s="210">
+        <v>44499</v>
+      </c>
+      <c r="M36" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N36" s="208" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="17">
+      <c r="B37" s="211" t="s">
+        <v>347</v>
+      </c>
+      <c r="C37" s="208" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="208">
+        <v>-104</v>
+      </c>
+      <c r="F37" s="208">
+        <v>240</v>
+      </c>
+      <c r="G37" s="208">
+        <v>156</v>
+      </c>
+      <c r="H37" s="208">
+        <v>-48</v>
+      </c>
+      <c r="I37" s="208">
+        <v>500</v>
+      </c>
+      <c r="J37" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M37" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N37" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="17">
+      <c r="B38" s="211" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="208" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="208">
+        <v>0</v>
+      </c>
+      <c r="F38" s="208">
+        <v>0</v>
+      </c>
+      <c r="G38" s="208">
+        <v>500</v>
+      </c>
+      <c r="H38" s="208">
+        <v>-11</v>
+      </c>
+      <c r="I38" s="208">
+        <v>500</v>
+      </c>
+      <c r="J38" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" s="210">
+        <v>44462</v>
+      </c>
+      <c r="M38" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N38" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="17">
+      <c r="B39" s="211" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="208" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="208">
+        <v>0</v>
+      </c>
+      <c r="F39" s="208">
+        <v>35</v>
+      </c>
+      <c r="G39" s="208">
+        <v>465</v>
+      </c>
+      <c r="H39" s="209">
+        <v>-2861</v>
+      </c>
+      <c r="I39" s="208">
+        <v>500</v>
+      </c>
+      <c r="J39" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M39" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N39" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="17">
+      <c r="B40" s="211" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="208" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="208">
+        <v>0</v>
+      </c>
+      <c r="F40" s="208">
+        <v>50</v>
+      </c>
+      <c r="G40" s="208">
+        <v>450</v>
+      </c>
+      <c r="H40" s="209">
+        <v>-1184</v>
+      </c>
+      <c r="I40" s="208">
+        <v>500</v>
+      </c>
+      <c r="J40" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M40" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N40" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="17">
+      <c r="B41" s="211" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="208" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="208" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="208">
+        <v>0</v>
+      </c>
+      <c r="F41" s="208">
+        <v>20</v>
+      </c>
+      <c r="G41" s="209">
+        <v>2480</v>
+      </c>
+      <c r="H41" s="208">
+        <v>21</v>
+      </c>
+      <c r="I41" s="209">
+        <v>2500</v>
+      </c>
+      <c r="J41" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M41" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N41" s="208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="17">
+      <c r="B42" s="211" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="208" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="208" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="208">
+        <v>0</v>
+      </c>
+      <c r="F42" s="208">
+        <v>0</v>
+      </c>
+      <c r="G42" s="208">
+        <v>200</v>
+      </c>
+      <c r="H42" s="208">
+        <v>-358</v>
+      </c>
+      <c r="I42" s="208">
+        <v>200</v>
+      </c>
+      <c r="J42" s="208" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" s="208" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" s="210">
+        <v>44500</v>
+      </c>
+      <c r="M42" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N42" s="208" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="17">
+      <c r="B43" s="211" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="208" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="208">
+        <v>-36</v>
+      </c>
+      <c r="F43" s="208">
+        <v>387</v>
+      </c>
+      <c r="G43" s="208">
+        <v>577</v>
+      </c>
+      <c r="H43" s="208">
+        <v>-997</v>
+      </c>
+      <c r="I43" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M43" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N43" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="17">
+      <c r="B44" s="211" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" s="208" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="208">
+        <v>-35</v>
+      </c>
+      <c r="F44" s="208">
+        <v>75</v>
+      </c>
+      <c r="G44" s="208">
+        <v>890</v>
+      </c>
+      <c r="H44" s="208">
+        <v>-240</v>
+      </c>
+      <c r="I44" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K44" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M44" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N44" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="17">
+      <c r="B45" s="211" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="D45" s="208" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="208">
+        <v>0</v>
+      </c>
+      <c r="F45" s="208">
+        <v>0</v>
+      </c>
+      <c r="G45" s="209">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="209">
+        <v>-2888</v>
+      </c>
+      <c r="I45" s="209">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K45" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L45" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M45" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N45" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="17">
+      <c r="B46" s="211" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="208" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="208" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="208">
+        <v>48</v>
+      </c>
+      <c r="F46" s="208">
+        <v>270</v>
+      </c>
+      <c r="G46" s="209">
+        <v>1778</v>
+      </c>
+      <c r="H46" s="209">
+        <v>-4616</v>
+      </c>
+      <c r="I46" s="209">
+        <v>2000</v>
+      </c>
+      <c r="J46" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M46" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N46" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="17">
+      <c r="B47" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="208" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="208" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="208">
+        <v>-521</v>
+      </c>
+      <c r="F47" s="208">
+        <v>285</v>
+      </c>
+      <c r="G47" s="208">
+        <v>194</v>
+      </c>
+      <c r="H47" s="208">
+        <v>43</v>
+      </c>
+      <c r="I47" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M47" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="17">
+      <c r="B48" s="211" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" s="208" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" s="208" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="208">
+        <v>0</v>
+      </c>
+      <c r="F48" s="208">
+        <v>0</v>
+      </c>
+      <c r="G48" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="208">
+        <v>-68</v>
+      </c>
+      <c r="I48" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="210">
+        <v>44490</v>
+      </c>
+      <c r="M48" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N48" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="17">
+      <c r="B49" s="211" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="208" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="208" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="208">
+        <v>0</v>
+      </c>
+      <c r="F49" s="208">
+        <v>0</v>
+      </c>
+      <c r="G49" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="208">
+        <v>454</v>
+      </c>
+      <c r="I49" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K49" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L49" s="210">
+        <v>44499</v>
+      </c>
+      <c r="M49" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N49" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="17">
+      <c r="B50" s="211" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" s="208" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="208" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="208">
+        <v>-9</v>
+      </c>
+      <c r="F50" s="208">
+        <v>120</v>
+      </c>
+      <c r="G50" s="208">
+        <v>271</v>
+      </c>
+      <c r="H50" s="209">
+        <v>-1217</v>
+      </c>
+      <c r="I50" s="208">
+        <v>400</v>
+      </c>
+      <c r="J50" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M50" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="17">
+      <c r="B51" s="211" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="208" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="208" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="208">
+        <v>-15</v>
+      </c>
+      <c r="F51" s="208">
+        <v>25</v>
+      </c>
+      <c r="G51" s="208">
+        <v>960</v>
+      </c>
+      <c r="H51" s="208">
+        <v>-40</v>
+      </c>
+      <c r="I51" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K51" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M51" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="17">
+      <c r="B52" s="211" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="208" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="208" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="208">
+        <v>0</v>
+      </c>
+      <c r="F52" s="208">
+        <v>0</v>
+      </c>
+      <c r="G52" s="209">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="208">
+        <v>245</v>
+      </c>
+      <c r="I52" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L52" s="210">
+        <v>44499</v>
+      </c>
+      <c r="M52" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="17">
+      <c r="B53" s="211" t="s">
+        <v>380</v>
+      </c>
+      <c r="C53" s="208" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="208" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="208">
+        <v>0</v>
+      </c>
+      <c r="F53" s="208">
+        <v>0</v>
+      </c>
+      <c r="G53" s="208">
+        <v>500</v>
+      </c>
+      <c r="H53" s="208">
+        <v>-155</v>
+      </c>
+      <c r="I53" s="208">
+        <v>500</v>
+      </c>
+      <c r="J53" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K53" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L53" s="210">
+        <v>44497</v>
+      </c>
+      <c r="M53" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N53" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="17">
+      <c r="B54" s="211" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="208" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="208" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="208">
+        <v>517</v>
+      </c>
+      <c r="F54" s="209">
+        <v>2636</v>
+      </c>
+      <c r="G54" s="209">
+        <v>2381</v>
+      </c>
+      <c r="H54" s="209">
+        <v>3755</v>
+      </c>
+      <c r="I54" s="209">
+        <v>4500</v>
+      </c>
+      <c r="J54" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L54" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M54" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N54" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="17">
+      <c r="B55" s="211" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" s="208" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="208" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="208">
+        <v>0</v>
+      </c>
+      <c r="F55" s="208">
+        <v>10</v>
+      </c>
+      <c r="G55" s="208">
+        <v>990</v>
+      </c>
+      <c r="H55" s="208">
+        <v>-135</v>
+      </c>
+      <c r="I55" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L55" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M55" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N55" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="17">
+      <c r="B56" s="211" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="208" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="208" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="208">
+        <v>-144</v>
+      </c>
+      <c r="F56" s="208">
+        <v>420</v>
+      </c>
+      <c r="G56" s="208">
+        <v>436</v>
+      </c>
+      <c r="H56" s="208">
+        <v>-589</v>
+      </c>
+      <c r="I56" s="209">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M56" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N56" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="17">
+      <c r="B57" s="211" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="208" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="208" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="209">
+        <v>-1200</v>
+      </c>
+      <c r="F57" s="208">
+        <v>250</v>
+      </c>
+      <c r="G57" s="208">
+        <v>550</v>
+      </c>
+      <c r="H57" s="209">
+        <v>-3583</v>
+      </c>
+      <c r="I57" s="209">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="208" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" s="210">
+        <v>44502</v>
+      </c>
+      <c r="M57" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N57" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="17">
+      <c r="B58" s="211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="208" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="208" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="208">
+        <v>-79</v>
+      </c>
+      <c r="F58" s="208">
+        <v>0</v>
+      </c>
+      <c r="G58" s="208">
+        <v>421</v>
+      </c>
+      <c r="H58" s="208">
+        <v>-185</v>
+      </c>
+      <c r="I58" s="208">
+        <v>500</v>
+      </c>
+      <c r="J58" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K58" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L58" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M58" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N58" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="17">
+      <c r="B59" s="211" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="208" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="208" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="208">
+        <v>-350</v>
+      </c>
+      <c r="F59" s="208">
+        <v>0</v>
+      </c>
+      <c r="G59" s="208">
+        <v>150</v>
+      </c>
+      <c r="H59" s="208">
+        <v>-134</v>
+      </c>
+      <c r="I59" s="208">
+        <v>500</v>
+      </c>
+      <c r="J59" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K59" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L59" s="210">
+        <v>44501</v>
+      </c>
+      <c r="M59" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N59" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="17">
+      <c r="B60" s="211" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="208" t="s">
+        <v>394</v>
+      </c>
+      <c r="D60" s="208" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="208">
+        <v>0</v>
+      </c>
+      <c r="F60" s="208">
+        <v>0</v>
+      </c>
+      <c r="G60" s="208">
+        <v>750</v>
+      </c>
+      <c r="H60" s="208">
+        <v>-111</v>
+      </c>
+      <c r="I60" s="208">
+        <v>750</v>
+      </c>
+      <c r="J60" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K60" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L60" s="210">
+        <v>44493</v>
+      </c>
+      <c r="M60" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N60" s="208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="17">
+      <c r="B61" s="211" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="208" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="208" t="s">
+        <v>399</v>
+      </c>
+      <c r="E61" s="208">
+        <v>0</v>
+      </c>
+      <c r="F61" s="208">
+        <v>0</v>
+      </c>
+      <c r="G61" s="208">
+        <v>750</v>
+      </c>
+      <c r="H61" s="208">
+        <v>0</v>
+      </c>
+      <c r="I61" s="208">
+        <v>750</v>
+      </c>
+      <c r="J61" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K61" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L61" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="M61" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N61" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="17">
+      <c r="B62" s="211" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" s="208"/>
+      <c r="E62" s="208">
+        <v>0</v>
+      </c>
+      <c r="F62" s="208">
+        <v>0</v>
+      </c>
+      <c r="G62" s="208">
+        <v>500</v>
+      </c>
+      <c r="H62" s="208">
+        <v>0</v>
+      </c>
+      <c r="I62" s="208">
+        <v>500</v>
+      </c>
+      <c r="J62" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L62" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="M62" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N62" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="17">
+      <c r="B63" s="211" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="208"/>
+      <c r="E63" s="208">
+        <v>0</v>
+      </c>
+      <c r="F63" s="208">
+        <v>0</v>
+      </c>
+      <c r="G63" s="208">
+        <v>500</v>
+      </c>
+      <c r="H63" s="208">
+        <v>0</v>
+      </c>
+      <c r="I63" s="208">
+        <v>500</v>
+      </c>
+      <c r="J63" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K63" s="208" t="s">
+        <v>303</v>
+      </c>
+      <c r="L63" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="M63" s="208" t="s">
+        <v>290</v>
+      </c>
+      <c r="N63" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="Q64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17">
+      <c r="Q69" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17">
+      <c r="Q70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17">
+      <c r="Q75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17">
+      <c r="Q85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17">
+      <c r="Q86" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17">
+      <c r="Q87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17">
+      <c r="Q88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17">
+      <c r="Q91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17">
+      <c r="Q93" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17">
+      <c r="Q101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17">
+      <c r="Q103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17">
+      <c r="Q104" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17">
+      <c r="Q106" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17">
+      <c r="Q107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17">
+      <c r="Q109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17">
+      <c r="Q110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17">
+      <c r="Q111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17">
+      <c r="Q114" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17">
+      <c r="Q119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17">
+      <c r="Q120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="17:17">
+      <c r="Q122" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" spans="17:17">
+      <c r="Q123" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="17:17">
+      <c r="Q125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="17:17">
+      <c r="Q126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="17:17">
+      <c r="Q127" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="17:17">
+      <c r="Q128" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17">
+      <c r="Q130" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17">
+      <c r="Q131" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
+      <c r="Q135" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
+      <c r="Q136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="17:17">
+      <c r="Q144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -20167,30 +21540,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
@@ -20203,6 +21552,30 @@
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEB9AF2-83D9-3848-ADD1-1060288A894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338E181-078A-274C-82B7-39DCB3EAB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="16" activeTab="29" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="444">
   <si>
     <t>Agent</t>
   </si>
@@ -3138,15 +3138,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3169,7 +3169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="609600"/>
+          <a:off x="5549900" y="482600"/>
           <a:ext cx="6883400" cy="2603500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12832,8 +12832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E9F75-CFC4-834B-91E8-E0F7C8A11E90}">
   <dimension ref="B3:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13779,7 +13779,7 @@
   <dimension ref="B3:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14689,7 +14689,7 @@
   <dimension ref="B3:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="L26">
         <f>SUM(I31:I40)+'10.25.2021'!K29</f>
-        <v>5793.1</v>
+        <v>5772.1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -15253,9 +15253,12 @@
       <c r="G32" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f>1620+2133</f>
@@ -15550,7 +15553,7 @@
   <dimension ref="B3:R36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F36"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15924,7 +15927,7 @@
       </c>
       <c r="L24">
         <f>SUM(I26:I36)+'11.1.2021'!L26</f>
-        <v>8492.2000000000007</v>
+        <v>8471.2000000000007</v>
       </c>
       <c r="O24">
         <v>2133</v>
@@ -16638,10 +16641,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5445FD-48AF-014C-94CC-88769ABB7CCC}">
-  <dimension ref="B3:F34"/>
+  <dimension ref="B3:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16871,7 +16874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1">
       <c r="B17" s="90" t="s">
         <v>17</v>
       </c>
@@ -16888,7 +16891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:13">
       <c r="B18" s="99" t="s">
         <v>27</v>
       </c>
@@ -16905,7 +16908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:13">
       <c r="B19" s="102" t="s">
         <v>27</v>
       </c>
@@ -16922,7 +16925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:13">
       <c r="B20" s="102" t="s">
         <v>27</v>
       </c>
@@ -16939,7 +16942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:13">
       <c r="B21" s="102" t="s">
         <v>27</v>
       </c>
@@ -16956,7 +16959,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:13">
       <c r="B22" s="102" t="s">
         <v>27</v>
       </c>
@@ -16972,8 +16975,11 @@
       <c r="F22" s="104">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="M22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="102" t="s">
         <v>27</v>
       </c>
@@ -16989,8 +16995,12 @@
       <c r="F23" s="104">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="17" thickBot="1">
+      <c r="M23">
+        <f>SUM(I28:I34)+'11.8.2021'!L24</f>
+        <v>9452.2000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
       <c r="B24" s="102" t="s">
         <v>27</v>
       </c>
@@ -17006,8 +17016,11 @@
       <c r="F24" s="104">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="I24" s="200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="119" t="s">
         <v>40</v>
       </c>
@@ -17023,8 +17036,15 @@
       <c r="F25" s="121">
         <v>342</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="H25">
+        <v>342</v>
+      </c>
+      <c r="I25">
+        <f>IF(C25="Pay",H25-F25,F25-H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="122" t="s">
         <v>40</v>
       </c>
@@ -17040,8 +17060,15 @@
       <c r="F26" s="123">
         <v>905</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="H26">
+        <v>905</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I35" si="0">IF(C26="Pay",H26-F26,F26-H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="122" t="s">
         <v>40</v>
       </c>
@@ -17057,8 +17084,15 @@
       <c r="F27" s="123">
         <v>827</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="H27">
+        <v>827</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="122" t="s">
         <v>40</v>
       </c>
@@ -17074,8 +17108,18 @@
       <c r="F28" s="123">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28">
+        <v>48</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="122" t="s">
         <v>40</v>
       </c>
@@ -17091,8 +17135,18 @@
       <c r="F29" s="123">
         <v>293</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29">
+        <v>293</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="122" t="s">
         <v>40</v>
       </c>
@@ -17108,8 +17162,18 @@
       <c r="F30" s="123">
         <v>750</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="122" t="s">
         <v>40</v>
       </c>
@@ -17125,8 +17189,18 @@
       <c r="F31" s="123">
         <v>249</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31">
+        <v>294</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="122" t="s">
         <v>40</v>
       </c>
@@ -17142,8 +17216,18 @@
       <c r="F32" s="123">
         <v>485</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32">
+        <v>485</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="122" t="s">
         <v>40</v>
       </c>
@@ -17159,8 +17243,18 @@
       <c r="F33" s="123">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="17" thickBot="1">
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="17" thickBot="1">
       <c r="B34" s="124" t="s">
         <v>40</v>
       </c>
@@ -17174,6 +17268,16 @@
         <v>441</v>
       </c>
       <c r="F34" s="126">
+        <v>276</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
         <v>276</v>
       </c>
     </row>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338E181-078A-274C-82B7-39DCB3EAB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71B63D-2067-E64E-85B8-4951942257B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="16" activeTab="29" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="16" activeTab="26" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,9 @@
     <sheet name="11.1.2021" sheetId="35" r:id="rId28"/>
     <sheet name="11.8.2021" sheetId="37" r:id="rId29"/>
     <sheet name="11.15.2021" sheetId="38" r:id="rId30"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId31"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId32"/>
+    <sheet name="11.22.2021" sheetId="39" r:id="rId31"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId32"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="445">
   <si>
     <t>Agent</t>
   </si>
@@ -1397,12 +1398,18 @@
   </si>
   <si>
     <t xml:space="preserve">RED FEES </t>
+  </si>
+  <si>
+    <t>Total Outstanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -2093,11 +2100,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2334,6 +2342,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2365,7 +2374,8 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3182,6 +3192,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F569EB0F-A288-0542-913F-8CD2F5CDBCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="584200"/>
+          <a:ext cx="6832600" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13778,8 +13837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
   <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14266,7 +14325,7 @@
       </c>
       <c r="K29">
         <f>SUM(I31:I44)</f>
-        <v>3539.1</v>
+        <v>3071.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
@@ -14423,11 +14482,11 @@
         <v>261</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>837</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -14666,11 +14725,11 @@
         <v>261</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>1502.1</v>
+        <v>1334.1</v>
       </c>
     </row>
   </sheetData>
@@ -14688,7 +14747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A278B6-55AF-1342-B174-8FE61A53F9FC}">
   <dimension ref="B3:S49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -15096,7 +15155,7 @@
       </c>
       <c r="L26">
         <f>SUM(I31:I40)+'10.25.2021'!K29</f>
-        <v>5772.1</v>
+        <v>5304.1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -15927,7 +15986,7 @@
       </c>
       <c r="L24">
         <f>SUM(I26:I36)+'11.1.2021'!L26</f>
-        <v>8471.2000000000007</v>
+        <v>8003.2000000000007</v>
       </c>
       <c r="O24">
         <v>2133</v>
@@ -16643,8 +16702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5445FD-48AF-014C-94CC-88769ABB7CCC}">
   <dimension ref="B3:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16997,7 +17056,7 @@
       </c>
       <c r="M23">
         <f>SUM(I28:I34)+'11.8.2021'!L24</f>
-        <v>9452.2000000000007</v>
+        <v>8753.2000000000007</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1">
@@ -17064,7 +17123,7 @@
         <v>905</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I35" si="0">IF(C26="Pay",H26-F26,F26-H26)</f>
+        <f t="shared" ref="I26:I34" si="0">IF(C26="Pay",H26-F26,F26-H26)</f>
         <v>0</v>
       </c>
     </row>
@@ -17193,11 +17252,11 @@
         <v>261</v>
       </c>
       <c r="H31">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17271,14 +17330,14 @@
         <v>276</v>
       </c>
       <c r="G34" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17288,6 +17347,669 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B50B85-DE31-F443-92C4-CD01DEC41601}">
+  <dimension ref="B3:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="138">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="89">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="92">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="92">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="92">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="92">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="17" thickBot="1">
+      <c r="B17" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="92">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="104">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="104">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="104">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="104">
+        <v>27</v>
+      </c>
+      <c r="L24" s="212">
+        <f>SUM(I26:I35)+'11.15.2021'!M23</f>
+        <v>8999.2000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="17" thickBot="1">
+      <c r="B25" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="107">
+        <v>50</v>
+      </c>
+      <c r="I25" s="200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="135">
+        <v>0</v>
+      </c>
+      <c r="G26" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26">
+        <f>IF(C26="Pay",H26-F26,F26-H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="123">
+        <v>196</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I35" si="0">IF(C27="Pay",H27-F27,F27-H27)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="123">
+        <v>25</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="123">
+        <v>1078.2</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29">
+        <v>1078.2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="123">
+        <v>25</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="123">
+        <v>200</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="123">
+        <v>23</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="123">
+        <v>999</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="123">
+        <v>206</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34">
+        <v>206</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17" thickBot="1">
+      <c r="B35" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="126">
+        <v>66</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
   <dimension ref="B1:Q146"/>
   <sheetViews>
@@ -20270,7 +20992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -20320,7 +21042,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="222" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="146" t="s">
@@ -20330,16 +21052,16 @@
       <c r="E4" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="223" t="s">
+      <c r="F4" s="224" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="223">
+      <c r="G4" s="224">
         <v>-110</v>
       </c>
       <c r="H4" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="225">
+      <c r="I4" s="226">
         <v>44459.832638888889</v>
       </c>
       <c r="K4" s="185" t="s">
@@ -20351,7 +21073,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="222"/>
+      <c r="B5" s="223"/>
       <c r="C5" s="148">
         <v>44459.845138888886</v>
       </c>
@@ -20361,12 +21083,12 @@
       <c r="E5" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
       <c r="H5" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="226"/>
+      <c r="I5" s="227"/>
       <c r="K5" s="181" t="s">
         <v>27</v>
       </c>
@@ -20376,7 +21098,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="213" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="150" t="s">
@@ -20386,16 +21108,16 @@
       <c r="E6" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="216" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="215">
+      <c r="G6" s="216">
         <v>-50</v>
       </c>
       <c r="H6" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="218">
+      <c r="I6" s="219">
         <v>44462.619444444441</v>
       </c>
       <c r="K6" s="181" t="s">
@@ -20407,7 +21129,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="213"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="152">
         <v>44462.632638888892</v>
       </c>
@@ -20417,12 +21139,12 @@
       <c r="E7" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
       <c r="H7" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="219"/>
+      <c r="I7" s="220"/>
       <c r="K7" s="181" t="s">
         <v>17</v>
       </c>
@@ -20432,7 +21154,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="213"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="152">
         <v>44462.652777777781</v>
       </c>
@@ -20442,12 +21164,12 @@
       <c r="E8" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
       <c r="H8" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="219"/>
+      <c r="I8" s="220"/>
       <c r="K8" s="181" t="s">
         <v>203</v>
       </c>
@@ -20457,16 +21179,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="213"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="153"/>
       <c r="D9" s="153"/>
       <c r="E9" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
       <c r="H9" s="153"/>
-      <c r="I9" s="219"/>
+      <c r="I9" s="220"/>
       <c r="K9" s="181" t="s">
         <v>213</v>
       </c>
@@ -20476,16 +21198,16 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="214"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
       <c r="E10" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
       <c r="H10" s="154"/>
-      <c r="I10" s="220"/>
+      <c r="I10" s="221"/>
       <c r="K10" s="181" t="s">
         <v>215</v>
       </c>
@@ -20641,7 +21363,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="213" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="150" t="s">
@@ -20651,21 +21373,21 @@
       <c r="E17" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="215" t="s">
+      <c r="F17" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="215">
+      <c r="G17" s="216">
         <v>-31</v>
       </c>
       <c r="H17" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="218">
+      <c r="I17" s="219">
         <v>44462.643055555556</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="213"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="152">
         <v>44462.930555555555</v>
       </c>
@@ -20675,27 +21397,27 @@
       <c r="E18" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
       <c r="H18" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="219"/>
+      <c r="I18" s="220"/>
     </row>
     <row r="19" spans="2:9" ht="17" thickBot="1">
-      <c r="B19" s="214"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="154"/>
       <c r="D19" s="154"/>
       <c r="E19" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
       <c r="H19" s="154"/>
-      <c r="I19" s="220"/>
+      <c r="I19" s="221"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="221" t="s">
+      <c r="B20" s="222" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="146" t="s">
@@ -20705,21 +21427,21 @@
       <c r="E20" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="223" t="s">
+      <c r="F20" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="223">
+      <c r="G20" s="224">
         <v>-40</v>
       </c>
       <c r="H20" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="225">
+      <c r="I20" s="226">
         <v>44462.643750000003</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="227"/>
+      <c r="B21" s="228"/>
       <c r="C21" s="172">
         <v>44462.930555555555</v>
       </c>
@@ -20729,24 +21451,24 @@
       <c r="E21" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="228"/>
-      <c r="G21" s="228"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="229"/>
       <c r="H21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="229"/>
+      <c r="I21" s="230"/>
     </row>
     <row r="22" spans="2:9" ht="17" thickBot="1">
-      <c r="B22" s="222"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="149"/>
       <c r="D22" s="149"/>
       <c r="E22" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
       <c r="H22" s="149"/>
-      <c r="I22" s="226"/>
+      <c r="I22" s="227"/>
     </row>
     <row r="23" spans="2:9" ht="17" thickBot="1">
       <c r="B23" s="155" t="s">
@@ -20769,7 +21491,7 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="221" t="s">
+      <c r="B24" s="222" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="146" t="s">
@@ -20779,21 +21501,21 @@
       <c r="E24" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="223" t="s">
+      <c r="F24" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="223">
+      <c r="G24" s="224">
         <v>-20</v>
       </c>
       <c r="H24" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="225">
+      <c r="I24" s="226">
         <v>44463.495833333334</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="227"/>
+      <c r="B25" s="228"/>
       <c r="C25" s="172">
         <v>44463.597916666666</v>
       </c>
@@ -20803,27 +21525,27 @@
       <c r="E25" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
       <c r="H25" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="229"/>
+      <c r="I25" s="230"/>
     </row>
     <row r="26" spans="2:9" ht="17" thickBot="1">
-      <c r="B26" s="222"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
       <c r="E26" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
       <c r="H26" s="149"/>
-      <c r="I26" s="226"/>
+      <c r="I26" s="227"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="213" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="150" t="s">
@@ -20833,21 +21555,21 @@
       <c r="E27" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="215" t="s">
+      <c r="F27" s="216" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="215">
+      <c r="G27" s="216">
         <v>52</v>
       </c>
       <c r="H27" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="218">
+      <c r="I27" s="219">
         <v>44463.520833333336</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="213"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="152">
         <v>44463.597916666666</v>
       </c>
@@ -20857,24 +21579,24 @@
       <c r="E28" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="217"/>
       <c r="H28" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="219"/>
+      <c r="I28" s="220"/>
     </row>
     <row r="29" spans="2:9" ht="17" thickBot="1">
-      <c r="B29" s="214"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="154"/>
       <c r="D29" s="154"/>
       <c r="E29" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
       <c r="H29" s="154"/>
-      <c r="I29" s="220"/>
+      <c r="I29" s="221"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="168" t="s">
@@ -21004,7 +21726,7 @@
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="212" t="s">
+      <c r="B36" s="213" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="150" t="s">
@@ -21014,21 +21736,21 @@
       <c r="E36" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="215" t="s">
+      <c r="F36" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="215">
+      <c r="G36" s="216">
         <v>43</v>
       </c>
       <c r="H36" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="218">
+      <c r="I36" s="219">
         <v>44463.568055555559</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="213"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="152">
         <v>44463.597916666666</v>
       </c>
@@ -21038,24 +21760,24 @@
       <c r="E37" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="217"/>
       <c r="H37" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="219"/>
+      <c r="I37" s="220"/>
     </row>
     <row r="38" spans="2:9" ht="17" thickBot="1">
-      <c r="B38" s="214"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="154"/>
       <c r="D38" s="154"/>
       <c r="E38" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
       <c r="H38" s="154"/>
-      <c r="I38" s="220"/>
+      <c r="I38" s="221"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="168" t="s">
@@ -21503,7 +22225,7 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="221" t="s">
+      <c r="B60" s="222" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="146" t="s">
@@ -21513,21 +22235,21 @@
       <c r="E60" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="223" t="s">
+      <c r="F60" s="224" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="223">
+      <c r="G60" s="224">
         <v>50</v>
       </c>
       <c r="H60" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="225">
+      <c r="I60" s="226">
         <v>44464.740277777775</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="17" thickBot="1">
-      <c r="B61" s="222"/>
+      <c r="B61" s="223"/>
       <c r="C61" s="148">
         <v>44464.815972222219</v>
       </c>
@@ -21537,15 +22259,15 @@
       <c r="E61" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="224"/>
-      <c r="G61" s="224"/>
+      <c r="F61" s="225"/>
+      <c r="G61" s="225"/>
       <c r="H61" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="226"/>
+      <c r="I61" s="227"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="212" t="s">
+      <c r="B62" s="213" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="150" t="s">
@@ -21555,21 +22277,21 @@
       <c r="E62" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="215" t="s">
+      <c r="F62" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="215">
+      <c r="G62" s="216">
         <v>-260</v>
       </c>
       <c r="H62" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="218">
+      <c r="I62" s="219">
         <v>44460.601388888892</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="213"/>
+      <c r="B63" s="214"/>
       <c r="C63" s="152">
         <v>44464.934027777781</v>
       </c>
@@ -21579,15 +22301,15 @@
       <c r="E63" s="153" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="216"/>
-      <c r="G63" s="216"/>
+      <c r="F63" s="217"/>
+      <c r="G63" s="217"/>
       <c r="H63" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="219"/>
+      <c r="I63" s="220"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="213"/>
+      <c r="B64" s="214"/>
       <c r="C64" s="152">
         <v>44464.940972222219</v>
       </c>
@@ -21597,15 +22319,15 @@
       <c r="E64" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="216"/>
-      <c r="G64" s="216"/>
+      <c r="F64" s="217"/>
+      <c r="G64" s="217"/>
       <c r="H64" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="219"/>
+      <c r="I64" s="220"/>
     </row>
     <row r="65" spans="2:9" ht="17" thickBot="1">
-      <c r="B65" s="214"/>
+      <c r="B65" s="215"/>
       <c r="C65" s="167">
         <v>44464.815972222219</v>
       </c>
@@ -21615,12 +22337,12 @@
       <c r="E65" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="217"/>
-      <c r="G65" s="217"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
       <c r="H65" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="I65" s="220"/>
+      <c r="I65" s="221"/>
     </row>
     <row r="66" spans="2:9" ht="17" thickBot="1">
       <c r="B66" s="189" t="s">

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71B63D-2067-E64E-85B8-4951942257B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37449E99-1244-6A49-B9A6-0D1A85FE6536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="16" activeTab="26" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="17" activeTab="29" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,9 @@
     <sheet name="11.8.2021" sheetId="37" r:id="rId29"/>
     <sheet name="11.15.2021" sheetId="38" r:id="rId30"/>
     <sheet name="11.22.2021" sheetId="39" r:id="rId31"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId32"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId33"/>
+    <sheet name="11.29.2021" sheetId="40" r:id="rId32"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId33"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="445">
   <si>
     <t>Agent</t>
   </si>
@@ -2105,7 +2106,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2373,6 +2374,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -3241,6 +3243,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F4089C-E829-DD4B-8272-0900759BD7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="596900"/>
+          <a:ext cx="6883400" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9250,7 +9301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F8B58-0112-A84B-9E30-28A83BA9381D}">
   <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -9854,7 +9905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25DB75-C780-2C4C-906F-9C649D18D483}">
   <dimension ref="B3:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -10477,8 +10528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2739710E-14F1-464B-A50D-878A173AA683}">
   <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F40"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11405,7 +11456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CA7AE-8493-2B44-A730-231869841FAA}">
   <dimension ref="B3:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -12131,7 +12182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4318EB-B2E9-A24B-89CD-D0B254A6856A}">
   <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F46"/>
     </sheetView>
   </sheetViews>
@@ -12891,7 +12942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E9F75-CFC4-834B-91E8-E0F7C8A11E90}">
   <dimension ref="B3:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -13837,8 +13888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD38A5F-3C98-D345-BA08-528606904ED0}">
   <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14325,7 +14376,7 @@
       </c>
       <c r="K29">
         <f>SUM(I31:I44)</f>
-        <v>3071.1</v>
+        <v>2071.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
@@ -14563,11 +14614,11 @@
         <v>261</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -14747,8 +14798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A278B6-55AF-1342-B174-8FE61A53F9FC}">
   <dimension ref="B3:S49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15155,7 +15206,7 @@
       </c>
       <c r="L26">
         <f>SUM(I31:I40)+'10.25.2021'!K29</f>
-        <v>5304.1</v>
+        <v>4165.1000000000004</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -15346,9 +15397,12 @@
       <c r="G33" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H33">
+        <v>48</v>
+      </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>837</v>
+        <v>789</v>
       </c>
       <c r="P33">
         <v>240</v>
@@ -15404,11 +15458,11 @@
         <v>266</v>
       </c>
       <c r="H35">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>10</v>
@@ -15612,7 +15666,7 @@
   <dimension ref="B3:R36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15986,7 +16040,7 @@
       </c>
       <c r="L24">
         <f>SUM(I26:I36)+'11.1.2021'!L26</f>
-        <v>8003.2000000000007</v>
+        <v>6864.2000000000007</v>
       </c>
       <c r="O24">
         <v>2133</v>
@@ -16702,8 +16756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5445FD-48AF-014C-94CC-88769ABB7CCC}">
   <dimension ref="B3:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17056,7 +17110,7 @@
       </c>
       <c r="M23">
         <f>SUM(I28:I34)+'11.8.2021'!L24</f>
-        <v>8753.2000000000007</v>
+        <v>7614.2000000000007</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1">
@@ -17257,6 +17311,10 @@
       <c r="I31">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="L31">
+        <f>789+94+750</f>
+        <v>1633</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17350,8 +17408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B50B85-DE31-F443-92C4-CD01DEC41601}">
   <dimension ref="B3:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17722,7 +17780,7 @@
       </c>
       <c r="L24" s="212">
         <f>SUM(I26:I35)+'11.15.2021'!M23</f>
-        <v>8999.2000000000007</v>
+        <v>7639.2000000000007</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17" thickBot="1">
@@ -17788,9 +17846,12 @@
       <c r="G27" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H27">
+        <v>196</v>
+      </c>
       <c r="I27">
         <f t="shared" ref="I27:I35" si="0">IF(C27="Pay",H27-F27,F27-H27)</f>
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -17863,9 +17924,12 @@
       <c r="G30" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -18010,6 +18074,589 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84F2BB3-2EF9-954B-8870-2FB7AAF38667}">
+  <dimension ref="B3:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="89">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="92">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="92">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="92">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="92">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" thickBot="1">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="101">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="104">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="104">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="104">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="104">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="104">
+        <v>93</v>
+      </c>
+      <c r="K20" s="231">
+        <f>SUM(I22:I30)+'11.22.2021'!L24</f>
+        <v>8328.2000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
+      <c r="B21" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="117">
+        <v>29</v>
+      </c>
+      <c r="I21" s="200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="121">
+        <v>123</v>
+      </c>
+      <c r="G22" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22">
+        <v>123</v>
+      </c>
+      <c r="I22">
+        <f>IF(C22="Pay",H22-F22,F22-H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="123">
+        <v>148</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23">
+        <v>148</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I31" si="0">IF(C23="Pay",H23-F23,F23-H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="123">
+        <v>11</v>
+      </c>
+      <c r="G24" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="123">
+        <v>532</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25">
+        <v>532</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="123">
+        <v>657</v>
+      </c>
+      <c r="G26" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26">
+        <v>657</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="123">
+        <v>130</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="123">
+        <v>911</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28">
+        <v>911</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="123">
+        <v>689</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
+      <c r="B30" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="126">
+        <v>699</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30">
+        <v>699</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35">
+        <f>750+689</f>
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
   <dimension ref="B1:Q146"/>
   <sheetViews>
@@ -20992,7 +21639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37449E99-1244-6A49-B9A6-0D1A85FE6536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FCA6C3-D6D5-FA4B-878F-DEA3D3B76E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="17" activeTab="29" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="19" activeTab="33" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,10 @@
     <sheet name="11.15.2021" sheetId="38" r:id="rId30"/>
     <sheet name="11.22.2021" sheetId="39" r:id="rId31"/>
     <sheet name="11.29.2021" sheetId="40" r:id="rId32"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId33"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId34"/>
+    <sheet name="12.06.2021" sheetId="41" r:id="rId33"/>
+    <sheet name="12.13.2021" sheetId="42" r:id="rId34"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId35"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="446">
   <si>
     <t>Agent</t>
   </si>
@@ -1402,6 +1404,9 @@
   </si>
   <si>
     <t>Total Outstanding</t>
+  </si>
+  <si>
+    <t>Tate</t>
   </si>
 </sst>
 </file>
@@ -2344,6 +2349,7 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2374,7 +2380,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -3292,6 +3297,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B856BC8B-F3B5-9B41-B828-957A3E62B753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="596900"/>
+          <a:ext cx="6907025" cy="2569464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF249E0-F42F-2C4E-B3FD-73722E02E535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="596900"/>
+          <a:ext cx="6934200" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13889,7 +13992,7 @@
   <dimension ref="B3:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14376,7 +14479,7 @@
       </c>
       <c r="K29">
         <f>SUM(I31:I44)</f>
-        <v>2071.1</v>
+        <v>1821.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
@@ -14560,11 +14663,11 @@
         <v>261</v>
       </c>
       <c r="H36">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -14776,11 +14879,11 @@
         <v>261</v>
       </c>
       <c r="H44">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>1334.1</v>
+        <v>1134.0999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14799,7 +14902,7 @@
   <dimension ref="B3:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15206,7 +15309,7 @@
       </c>
       <c r="L26">
         <f>SUM(I31:I40)+'10.25.2021'!K29</f>
-        <v>4165.1000000000004</v>
+        <v>3915.1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -15666,7 +15769,7 @@
   <dimension ref="B3:R36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16040,7 +16143,7 @@
       </c>
       <c r="L24">
         <f>SUM(I26:I36)+'11.1.2021'!L26</f>
-        <v>6864.2000000000007</v>
+        <v>3915.1</v>
       </c>
       <c r="O24">
         <v>2133</v>
@@ -16309,11 +16412,14 @@
         <v>2699.1</v>
       </c>
       <c r="G34" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
+      </c>
+      <c r="H34">
+        <v>2699.1</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>2699.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -16333,7 +16439,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H35">
         <v>94</v>
@@ -16756,8 +16862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5445FD-48AF-014C-94CC-88769ABB7CCC}">
   <dimension ref="B3:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17110,7 +17216,7 @@
       </c>
       <c r="M23">
         <f>SUM(I28:I34)+'11.8.2021'!L24</f>
-        <v>7614.2000000000007</v>
+        <v>4665.1000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1">
@@ -17408,8 +17514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B50B85-DE31-F443-92C4-CD01DEC41601}">
   <dimension ref="B3:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17780,7 +17886,7 @@
       </c>
       <c r="L24" s="212">
         <f>SUM(I26:I35)+'11.15.2021'!M23</f>
-        <v>7639.2000000000007</v>
+        <v>4690.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17" thickBot="1">
@@ -18078,7 +18184,7 @@
   <dimension ref="B3:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18309,7 +18415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12">
       <c r="B17" s="102" t="s">
         <v>27</v>
       </c>
@@ -18326,7 +18432,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12">
       <c r="B18" s="102" t="s">
         <v>27</v>
       </c>
@@ -18343,7 +18449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" s="102" t="s">
         <v>27</v>
       </c>
@@ -18363,7 +18469,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:12">
       <c r="B20" s="102" t="s">
         <v>27</v>
       </c>
@@ -18379,12 +18485,12 @@
       <c r="F20" s="104">
         <v>93</v>
       </c>
-      <c r="K20" s="231">
+      <c r="K20" s="213">
         <f>SUM(I22:I30)+'11.22.2021'!L24</f>
-        <v>8328.2000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1">
+        <v>5379.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="17" thickBot="1">
       <c r="B21" s="115" t="s">
         <v>27</v>
       </c>
@@ -18404,7 +18510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:12">
       <c r="B22" s="119" t="s">
         <v>40</v>
       </c>
@@ -18431,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:12">
       <c r="B23" s="122" t="s">
         <v>40</v>
       </c>
@@ -18454,11 +18560,11 @@
         <v>148</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I31" si="0">IF(C23="Pay",H23-F23,F23-H23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <f t="shared" ref="I23:I30" si="0">IF(C23="Pay",H23-F23,F23-H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="122" t="s">
         <v>40</v>
       </c>
@@ -18485,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:12">
       <c r="B25" s="122" t="s">
         <v>40</v>
       </c>
@@ -18512,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:12">
       <c r="B26" s="122" t="s">
         <v>40</v>
       </c>
@@ -18539,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:12">
       <c r="B27" s="122" t="s">
         <v>40</v>
       </c>
@@ -18566,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:12">
       <c r="B28" s="122" t="s">
         <v>40</v>
       </c>
@@ -18592,8 +18698,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:11">
+      <c r="L28">
+        <f>1096-689</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="122" t="s">
         <v>40</v>
       </c>
@@ -18611,13 +18721,16 @@
       </c>
       <c r="G29" s="142" t="s">
         <v>261</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>689</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:12" ht="17" thickBot="1">
       <c r="B30" s="124" t="s">
         <v>40</v>
       </c>
@@ -18657,6 +18770,1333 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC183604-713E-D544-A01F-712764A1B7B9}">
+  <dimension ref="B3:L34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1">
+      <c r="B6" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="138">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="92">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="92">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="92">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="92">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17" thickBot="1">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="101">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="104">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="104">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="104">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="17" thickBot="1">
+      <c r="B24" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="107">
+        <v>34</v>
+      </c>
+      <c r="I24" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="213">
+        <f>SUM(I25:I34)+'11.29.2021'!K20</f>
+        <v>5624.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="135">
+        <v>100</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f>IF(C25="Pay",H25-F25,F25-H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="123">
+        <v>48</v>
+      </c>
+      <c r="G26" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26">
+        <v>48</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I34" si="0">IF(C26="Pay",H26-F26,F26-H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="123">
+        <v>89</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>89</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="123">
+        <v>1096</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28">
+        <v>1096</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="123">
+        <v>495</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29">
+        <v>250</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="123">
+        <v>200</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="123">
+        <v>398</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31">
+        <v>398</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="123">
+        <v>988</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32">
+        <v>988</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="123">
+        <v>40</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="17" thickBot="1">
+      <c r="B34" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="126">
+        <v>804</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34">
+        <v>804</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032DD49A-7842-A948-AB0B-5AAC4FFA4495}">
+  <dimension ref="B3:P35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="129">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="89">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="92">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="92">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="92">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="92">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="92">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="92">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1">
+      <c r="B17" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="114">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="104">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="104">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="104">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="104">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="104">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="104">
+        <v>30</v>
+      </c>
+      <c r="L24" s="213">
+        <f>SUM(I26:I35)+'12.06.2021'!L24</f>
+        <v>7294.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17" thickBot="1">
+      <c r="B25" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="107">
+        <v>29</v>
+      </c>
+      <c r="I25" s="200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="135">
+        <v>197</v>
+      </c>
+      <c r="G26" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26">
+        <v>197</v>
+      </c>
+      <c r="I26">
+        <f>IF(C26="Pay",H26-F26,F26-H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="123">
+        <v>682</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>682</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I35" si="0">IF(C27="Pay",H27-F27,F27-H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="123">
+        <v>0</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="123">
+        <v>455</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="123">
+        <v>465</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="K30">
+        <f>I29+245</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="123">
+        <v>358</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31">
+        <v>358</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="123">
+        <v>5</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>750+689</f>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="123">
+        <v>53</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>53</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="123">
+        <v>750</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17" thickBot="1">
+      <c r="B35" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="126">
+        <v>22</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
   <dimension ref="B1:Q146"/>
   <sheetViews>
@@ -21639,7 +23079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
@@ -21689,7 +23129,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="223" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="146" t="s">
@@ -21699,16 +23139,16 @@
       <c r="E4" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="224" t="s">
+      <c r="F4" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="224">
+      <c r="G4" s="225">
         <v>-110</v>
       </c>
       <c r="H4" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="226">
+      <c r="I4" s="227">
         <v>44459.832638888889</v>
       </c>
       <c r="K4" s="185" t="s">
@@ -21720,7 +23160,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="223"/>
+      <c r="B5" s="224"/>
       <c r="C5" s="148">
         <v>44459.845138888886</v>
       </c>
@@ -21730,12 +23170,12 @@
       <c r="E5" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
       <c r="H5" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="227"/>
+      <c r="I5" s="228"/>
       <c r="K5" s="181" t="s">
         <v>27</v>
       </c>
@@ -21745,7 +23185,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="214" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="150" t="s">
@@ -21755,16 +23195,16 @@
       <c r="E6" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="216" t="s">
+      <c r="F6" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="216">
+      <c r="G6" s="217">
         <v>-50</v>
       </c>
       <c r="H6" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="219">
+      <c r="I6" s="220">
         <v>44462.619444444441</v>
       </c>
       <c r="K6" s="181" t="s">
@@ -21776,7 +23216,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="214"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="152">
         <v>44462.632638888892</v>
       </c>
@@ -21786,12 +23226,12 @@
       <c r="E7" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="220"/>
+      <c r="I7" s="221"/>
       <c r="K7" s="181" t="s">
         <v>17</v>
       </c>
@@ -21801,7 +23241,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="214"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="152">
         <v>44462.652777777781</v>
       </c>
@@ -21811,12 +23251,12 @@
       <c r="E8" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
       <c r="H8" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="220"/>
+      <c r="I8" s="221"/>
       <c r="K8" s="181" t="s">
         <v>203</v>
       </c>
@@ -21826,16 +23266,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="214"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="153"/>
       <c r="D9" s="153"/>
       <c r="E9" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
       <c r="H9" s="153"/>
-      <c r="I9" s="220"/>
+      <c r="I9" s="221"/>
       <c r="K9" s="181" t="s">
         <v>213</v>
       </c>
@@ -21845,16 +23285,16 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="215"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
       <c r="E10" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
       <c r="H10" s="154"/>
-      <c r="I10" s="221"/>
+      <c r="I10" s="222"/>
       <c r="K10" s="181" t="s">
         <v>215</v>
       </c>
@@ -22010,7 +23450,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="214" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="150" t="s">
@@ -22020,21 +23460,21 @@
       <c r="E17" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="216" t="s">
+      <c r="F17" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="216">
+      <c r="G17" s="217">
         <v>-31</v>
       </c>
       <c r="H17" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="219">
+      <c r="I17" s="220">
         <v>44462.643055555556</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="214"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="152">
         <v>44462.930555555555</v>
       </c>
@@ -22044,27 +23484,27 @@
       <c r="E18" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
       <c r="H18" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="220"/>
+      <c r="I18" s="221"/>
     </row>
     <row r="19" spans="2:9" ht="17" thickBot="1">
-      <c r="B19" s="215"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="154"/>
       <c r="D19" s="154"/>
       <c r="E19" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
       <c r="H19" s="154"/>
-      <c r="I19" s="221"/>
+      <c r="I19" s="222"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="223" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="146" t="s">
@@ -22074,21 +23514,21 @@
       <c r="E20" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="224" t="s">
+      <c r="F20" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="224">
+      <c r="G20" s="225">
         <v>-40</v>
       </c>
       <c r="H20" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="226">
+      <c r="I20" s="227">
         <v>44462.643750000003</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="228"/>
+      <c r="B21" s="229"/>
       <c r="C21" s="172">
         <v>44462.930555555555</v>
       </c>
@@ -22098,24 +23538,24 @@
       <c r="E21" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
       <c r="H21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="230"/>
+      <c r="I21" s="231"/>
     </row>
     <row r="22" spans="2:9" ht="17" thickBot="1">
-      <c r="B22" s="223"/>
+      <c r="B22" s="224"/>
       <c r="C22" s="149"/>
       <c r="D22" s="149"/>
       <c r="E22" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
       <c r="H22" s="149"/>
-      <c r="I22" s="227"/>
+      <c r="I22" s="228"/>
     </row>
     <row r="23" spans="2:9" ht="17" thickBot="1">
       <c r="B23" s="155" t="s">
@@ -22138,7 +23578,7 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="222" t="s">
+      <c r="B24" s="223" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="146" t="s">
@@ -22148,21 +23588,21 @@
       <c r="E24" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="224" t="s">
+      <c r="F24" s="225" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="224">
+      <c r="G24" s="225">
         <v>-20</v>
       </c>
       <c r="H24" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="226">
+      <c r="I24" s="227">
         <v>44463.495833333334</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="228"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="172">
         <v>44463.597916666666</v>
       </c>
@@ -22172,27 +23612,27 @@
       <c r="E25" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
       <c r="H25" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="230"/>
+      <c r="I25" s="231"/>
     </row>
     <row r="26" spans="2:9" ht="17" thickBot="1">
-      <c r="B26" s="223"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
       <c r="E26" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
       <c r="H26" s="149"/>
-      <c r="I26" s="227"/>
+      <c r="I26" s="228"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="214" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="150" t="s">
@@ -22202,21 +23642,21 @@
       <c r="E27" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="217" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="216">
+      <c r="G27" s="217">
         <v>52</v>
       </c>
       <c r="H27" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="219">
+      <c r="I27" s="220">
         <v>44463.520833333336</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="214"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="152">
         <v>44463.597916666666</v>
       </c>
@@ -22226,24 +23666,24 @@
       <c r="E28" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
       <c r="H28" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="220"/>
+      <c r="I28" s="221"/>
     </row>
     <row r="29" spans="2:9" ht="17" thickBot="1">
-      <c r="B29" s="215"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="154"/>
       <c r="D29" s="154"/>
       <c r="E29" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
       <c r="H29" s="154"/>
-      <c r="I29" s="221"/>
+      <c r="I29" s="222"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="168" t="s">
@@ -22373,7 +23813,7 @@
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="214" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="150" t="s">
@@ -22383,21 +23823,21 @@
       <c r="E36" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="216" t="s">
+      <c r="F36" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="216">
+      <c r="G36" s="217">
         <v>43</v>
       </c>
       <c r="H36" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="219">
+      <c r="I36" s="220">
         <v>44463.568055555559</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="214"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="152">
         <v>44463.597916666666</v>
       </c>
@@ -22407,24 +23847,24 @@
       <c r="E37" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="217"/>
-      <c r="G37" s="217"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
       <c r="H37" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="220"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="2:9" ht="17" thickBot="1">
-      <c r="B38" s="215"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="154"/>
       <c r="D38" s="154"/>
       <c r="E38" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="154"/>
-      <c r="I38" s="221"/>
+      <c r="I38" s="222"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="168" t="s">
@@ -22872,7 +24312,7 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="222" t="s">
+      <c r="B60" s="223" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="146" t="s">
@@ -22882,21 +24322,21 @@
       <c r="E60" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="224" t="s">
+      <c r="F60" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="224">
+      <c r="G60" s="225">
         <v>50</v>
       </c>
       <c r="H60" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="226">
+      <c r="I60" s="227">
         <v>44464.740277777775</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="17" thickBot="1">
-      <c r="B61" s="223"/>
+      <c r="B61" s="224"/>
       <c r="C61" s="148">
         <v>44464.815972222219</v>
       </c>
@@ -22906,15 +24346,15 @@
       <c r="E61" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
+      <c r="F61" s="226"/>
+      <c r="G61" s="226"/>
       <c r="H61" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="227"/>
+      <c r="I61" s="228"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="213" t="s">
+      <c r="B62" s="214" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="150" t="s">
@@ -22924,21 +24364,21 @@
       <c r="E62" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="216" t="s">
+      <c r="F62" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="216">
+      <c r="G62" s="217">
         <v>-260</v>
       </c>
       <c r="H62" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="219">
+      <c r="I62" s="220">
         <v>44460.601388888892</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="214"/>
+      <c r="B63" s="215"/>
       <c r="C63" s="152">
         <v>44464.934027777781</v>
       </c>
@@ -22948,15 +24388,15 @@
       <c r="E63" s="153" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="217"/>
-      <c r="G63" s="217"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
       <c r="H63" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="220"/>
+      <c r="I63" s="221"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="214"/>
+      <c r="B64" s="215"/>
       <c r="C64" s="152">
         <v>44464.940972222219</v>
       </c>
@@ -22966,15 +24406,15 @@
       <c r="E64" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="217"/>
-      <c r="G64" s="217"/>
+      <c r="F64" s="218"/>
+      <c r="G64" s="218"/>
       <c r="H64" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="220"/>
+      <c r="I64" s="221"/>
     </row>
     <row r="65" spans="2:9" ht="17" thickBot="1">
-      <c r="B65" s="215"/>
+      <c r="B65" s="216"/>
       <c r="C65" s="167">
         <v>44464.815972222219</v>
       </c>
@@ -22984,12 +24424,12 @@
       <c r="E65" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="218"/>
-      <c r="G65" s="218"/>
+      <c r="F65" s="219"/>
+      <c r="G65" s="219"/>
       <c r="H65" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="I65" s="221"/>
+      <c r="I65" s="222"/>
     </row>
     <row r="66" spans="2:9" ht="17" thickBot="1">
       <c r="B66" s="189" t="s">
@@ -23013,6 +24453,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
@@ -23025,30 +24489,6 @@
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backup_data_storage.xlsx
+++ b/backup_data_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FCA6C3-D6D5-FA4B-878F-DEA3D3B76E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413E13D-8F69-F047-9A77-7505B2B6580D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="19" activeTab="33" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="22" activeTab="33" xr2:uid="{16EFE6C4-92B7-6541-967E-29AAF9B7C019}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3.2021" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,10 @@
     <sheet name="11.29.2021" sheetId="40" r:id="rId32"/>
     <sheet name="12.06.2021" sheetId="41" r:id="rId33"/>
     <sheet name="12.13.2021" sheetId="42" r:id="rId34"/>
-    <sheet name="Red Data Dump" sheetId="34" r:id="rId35"/>
-    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId36"/>
+    <sheet name="12.20.2021" sheetId="43" r:id="rId35"/>
+    <sheet name="12.27.2021" sheetId="44" r:id="rId36"/>
+    <sheet name="Red Data Dump" sheetId="34" r:id="rId37"/>
+    <sheet name="bets_9.20" sheetId="28" state="hidden" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="447">
   <si>
     <t>Agent</t>
   </si>
@@ -1407,6 +1409,9 @@
   </si>
   <si>
     <t>Tate</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2105,13 +2110,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2380,6 +2505,17 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="10" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -3351,15 +3487,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3382,8 +3518,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5740400" y="596900"/>
+          <a:off x="5613400" y="635000"/>
           <a:ext cx="6934200" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC8EBAC-B5A1-DF46-89C8-7048DBC832F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="609600"/>
+          <a:ext cx="6985000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9C3D46-7E96-884F-A425-C4C32F2CBF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="609600"/>
+          <a:ext cx="7124700" cy="2641600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12285,7 +12519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4318EB-B2E9-A24B-89CD-D0B254A6856A}">
   <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F46"/>
     </sheetView>
   </sheetViews>
@@ -13992,7 +14226,7 @@
   <dimension ref="B3:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14479,7 +14713,7 @@
       </c>
       <c r="K29">
         <f>SUM(I31:I44)</f>
-        <v>1821.1</v>
+        <v>1671.1</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="17" thickBot="1">
@@ -14562,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:14">
       <c r="B33" s="122" t="s">
         <v>40</v>
       </c>
@@ -14589,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:14">
       <c r="B34" s="122" t="s">
         <v>40</v>
       </c>
@@ -14616,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:14">
       <c r="B35" s="122" t="s">
         <v>40</v>
       </c>
@@ -14643,7 +14877,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:14">
       <c r="B36" s="122" t="s">
         <v>40</v>
       </c>
@@ -14663,14 +14897,14 @@
         <v>261</v>
       </c>
       <c r="H36">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" s="122" t="s">
         <v>40</v>
       </c>
@@ -14697,7 +14931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:14">
       <c r="B38" s="122" t="s">
         <v>40</v>
       </c>
@@ -14724,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:14">
       <c r="B39" s="122" t="s">
         <v>40</v>
       </c>
@@ -14751,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:14">
       <c r="B40" s="122" t="s">
         <v>40</v>
       </c>
@@ -14778,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:14">
       <c r="B41" s="122" t="s">
         <v>40</v>
       </c>
@@ -14805,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:14">
       <c r="B42" s="122" t="s">
         <v>40</v>
       </c>
@@ -14832,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:14">
       <c r="B43" s="122" t="s">
         <v>40</v>
       </c>
@@ -14858,8 +15092,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="17" thickBot="1">
+      <c r="N43">
+        <f>289+537</f>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="17" thickBot="1">
       <c r="B44" s="124" t="s">
         <v>40</v>
       </c>
@@ -14902,7 +15140,7 @@
   <dimension ref="B3:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15309,7 +15547,7 @@
       </c>
       <c r="L26">
         <f>SUM(I31:I40)+'10.25.2021'!K29</f>
-        <v>3915.1</v>
+        <v>3265.1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -15501,11 +15739,11 @@
         <v>261</v>
       </c>
       <c r="H33">
-        <v>48</v>
+        <v>548</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>789</v>
+        <v>289</v>
       </c>
       <c r="P33">
         <v>240</v>
@@ -16143,7 +16381,7 @@
       </c>
       <c r="L24">
         <f>SUM(I26:I36)+'11.1.2021'!L26</f>
-        <v>3915.1</v>
+        <v>3265.1</v>
       </c>
       <c r="O24">
         <v>2133</v>
@@ -16863,7 +17101,7 @@
   <dimension ref="B3:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17216,7 +17454,7 @@
       </c>
       <c r="M23">
         <f>SUM(I28:I34)+'11.8.2021'!L24</f>
-        <v>4665.1000000000004</v>
+        <v>4015.1</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1">
@@ -17514,8 +17752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B50B85-DE31-F443-92C4-CD01DEC41601}">
   <dimension ref="B3:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17886,7 +18124,7 @@
       </c>
       <c r="L24" s="212">
         <f>SUM(I26:I35)+'11.15.2021'!M23</f>
-        <v>4690.1000000000004</v>
+        <v>4015.1</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17" thickBot="1">
@@ -17950,7 +18188,7 @@
         <v>196</v>
       </c>
       <c r="G27" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H27">
         <v>196</v>
@@ -17977,11 +18215,14 @@
         <v>25</v>
       </c>
       <c r="G28" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
+      </c>
+      <c r="H28">
+        <v>25</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -18028,7 +18269,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H30">
         <v>25</v>
@@ -18082,7 +18323,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H32">
         <v>23</v>
@@ -18163,7 +18404,7 @@
         <v>66</v>
       </c>
       <c r="G35" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H35">
         <v>66</v>
@@ -18487,7 +18728,7 @@
       </c>
       <c r="K20" s="213">
         <f>SUM(I22:I30)+'11.22.2021'!L24</f>
-        <v>5379.1</v>
+        <v>4704.1000000000004</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17" thickBot="1">
@@ -18773,8 +19014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC183604-713E-D544-A01F-712764A1B7B9}">
   <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:L24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19147,7 +19388,7 @@
       </c>
       <c r="L24" s="213">
         <f>SUM(I25:I34)+'11.29.2021'!K20</f>
-        <v>5624.1</v>
+        <v>4704.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -19278,11 +19519,11 @@
         <v>261</v>
       </c>
       <c r="H29">
-        <v>250</v>
+        <v>495</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -19428,10 +19669,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032DD49A-7842-A948-AB0B-5AAC4FFA4495}">
-  <dimension ref="B3:P35"/>
+  <dimension ref="B3:P45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19801,7 +20042,7 @@
       </c>
       <c r="L24" s="213">
         <f>SUM(I26:I35)+'12.06.2021'!L24</f>
-        <v>7294.1</v>
+        <v>4804.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="17" thickBot="1">
@@ -19921,9 +20162,12 @@
       <c r="G29" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H29">
+        <v>355</v>
+      </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -19943,15 +20187,18 @@
         <v>465</v>
       </c>
       <c r="G30" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
+      </c>
+      <c r="H30">
+        <v>465</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f>I29+245</f>
-        <v>700</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -20012,7 +20259,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:16">
       <c r="B33" s="122" t="s">
         <v>40</v>
       </c>
@@ -20039,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:16">
       <c r="B34" s="122" t="s">
         <v>40</v>
       </c>
@@ -20058,12 +20305,15 @@
       <c r="G34" s="142" t="s">
         <v>261</v>
       </c>
+      <c r="H34">
+        <v>750</v>
+      </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="17" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="17" thickBot="1">
       <c r="B35" s="124" t="s">
         <v>40</v>
       </c>
@@ -20080,7 +20330,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="142" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H35">
         <v>22</v>
@@ -20088,6 +20338,28 @@
       <c r="I35">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="K44">
+        <v>1.2</v>
+      </c>
+      <c r="N44">
+        <f>100/145</f>
+        <v>0.68965517241379315</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="K45">
+        <f>100*K44</f>
+        <v>120</v>
+      </c>
+      <c r="N45">
+        <v>270</v>
+      </c>
+      <c r="P45">
+        <f>N45*N44</f>
+        <v>186.20689655172416</v>
       </c>
     </row>
   </sheetData>
@@ -20097,6 +20369,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE976C7-EADC-B64A-9E33-4F5CB19B95A7}">
+  <dimension ref="B3:T32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1">
+      <c r="B5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="89">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="92">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="92">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="92">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="92">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17" thickBot="1">
+      <c r="B15" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="92">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="104">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="104">
+        <v>356</v>
+      </c>
+      <c r="S19">
+        <f>140+S20</f>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="104">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <f>627/2</f>
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="104">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="104">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="17" thickBot="1">
+      <c r="B25" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="135">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="123">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="123">
+        <v>190</v>
+      </c>
+      <c r="T29">
+        <f>F26-S19</f>
+        <v>403.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="17" thickBot="1">
+      <c r="B32" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="126">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1610412-F8E7-F047-B17C-0A97BE5D015A}">
+  <dimension ref="B3:G36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17" thickBot="1"/>
+    <row r="4" spans="2:6" ht="20" thickBot="1">
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17" thickBot="1">
+      <c r="B5" s="232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="233" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="233" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="235" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="236" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="236" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="237">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="239">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="239">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="239">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="239">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="239">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="239">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17" thickBot="1">
+      <c r="B18" s="240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="241" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="241" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="242">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="141">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="104">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="104">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="104">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="104">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="104">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17" thickBot="1">
+      <c r="B30" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="107">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="123">
+        <v>160</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="123">
+        <v>2282</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="123">
+        <v>127</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="123">
+        <v>736</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="123">
+        <v>125</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="17" thickBot="1">
+      <c r="B36" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="126">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCCB59-6C1A-7D4F-84CA-D00399266482}">
   <dimension ref="B1:Q146"/>
   <sheetViews>
@@ -23079,7 +24475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF7A57-00C7-044C-A95A-5E3B0411BE36}">
   <dimension ref="B2:L66"/>
   <sheetViews>
